--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="May 2018" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -814,7 +813,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1744,18 +1743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -7,8 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="May 2018" sheetId="2" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="3" r:id="rId1"/>
+    <sheet name="OPERATIONS" sheetId="4" r:id="rId2"/>
+    <sheet name="May 2018" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$1:$G$18</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -235,13 +240,123 @@
   </si>
   <si>
     <t>Ticket</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>20 Jun 2018, 03:25</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Internet Banking</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>11 Jun 2018, 01:37</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>05 Jun 2018, 12:09</t>
+  </si>
+  <si>
+    <t>31 May 2018, 10:49</t>
+  </si>
+  <si>
+    <t>22 May 2018, 02:45</t>
+  </si>
+  <si>
+    <t>18 May 2018, 13:08</t>
+  </si>
+  <si>
+    <t>16 May 2018, 06:52</t>
+  </si>
+  <si>
+    <t>10 May 2018, 10:43</t>
+  </si>
+  <si>
+    <t>10 May 2018, 07:58</t>
+  </si>
+  <si>
+    <t>09 May 2018, 04:57</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>07 May 2018, 21:40</t>
+  </si>
+  <si>
+    <t>07 May 2018, 16:00</t>
+  </si>
+  <si>
+    <t>07 May 2018, 15:21</t>
+  </si>
+  <si>
+    <t>21 Mar 2018, 05:02</t>
+  </si>
+  <si>
+    <t>02 Feb 2018, 04:58</t>
+  </si>
+  <si>
+    <t>15 Jan 2018, 09:44</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TRANSACTION TYPE</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> №</t>
+  </si>
+  <si>
+    <t>Rate/Month(%)</t>
+  </si>
+  <si>
+    <t>withdraw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +397,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -309,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -446,24 +576,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,9 +614,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,10 +649,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,13 +685,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,10 +974,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="20" customWidth="1"/>
+    <col min="2" max="8" width="14" style="20" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="20"/>
+    <col min="12" max="12" width="17.28515625" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="36">
+        <v>2</v>
+      </c>
+      <c r="B2" s="37">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="38">
+        <v>0</v>
+      </c>
+      <c r="D2" s="38">
+        <v>400</v>
+      </c>
+      <c r="E2" s="38">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38">
+        <v>881.13</v>
+      </c>
+      <c r="G2" s="39">
+        <f>(F2+E2)-(C2+D2)</f>
+        <v>481.13</v>
+      </c>
+      <c r="H2" s="40">
+        <f>G2/(C2+D2-E2)*100</f>
+        <v>120.2825</v>
+      </c>
+      <c r="K2" s="36">
+        <v>7</v>
+      </c>
+      <c r="L2" s="41">
+        <v>5015.3999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>3</v>
+      </c>
+      <c r="B3" s="37">
+        <v>43160</v>
+      </c>
+      <c r="C3" s="38">
+        <f>F2</f>
+        <v>881.13</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1322.05</v>
+      </c>
+      <c r="G3" s="39">
+        <f t="shared" ref="G3:G5" si="0">(F3+E3)-(C3+D3)</f>
+        <v>440.91999999999996</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" ref="H3:H5" si="1">G3/(C3+D3-E3)*100</f>
+        <v>50.040289174128674</v>
+      </c>
+      <c r="K3" s="36">
+        <v>8</v>
+      </c>
+      <c r="L3" s="41">
+        <v>6449.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>4</v>
+      </c>
+      <c r="B4" s="37">
+        <v>43191</v>
+      </c>
+      <c r="C4" s="38">
+        <f>F3</f>
+        <v>1322.05</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <v>1441.21</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" si="0"/>
+        <v>119.16000000000008</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="1"/>
+        <v>9.0132748383192833</v>
+      </c>
+      <c r="K4" s="36">
+        <v>9</v>
+      </c>
+      <c r="L4" s="41">
+        <v>8294.4500000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>5</v>
+      </c>
+      <c r="B5" s="37">
+        <v>43221</v>
+      </c>
+      <c r="C5" s="38">
+        <f>F4</f>
+        <v>1441.21</v>
+      </c>
+      <c r="D5" s="38">
+        <v>817.81</v>
+      </c>
+      <c r="E5" s="38">
+        <v>270</v>
+      </c>
+      <c r="F5" s="38">
+        <v>2734.41</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>745.38999999999987</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="1"/>
+        <v>37.475239062452857</v>
+      </c>
+      <c r="K5" s="36">
+        <v>10</v>
+      </c>
+      <c r="L5" s="41">
+        <v>10666.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37">
+        <v>43252</v>
+      </c>
+      <c r="C6" s="38">
+        <f>F5</f>
+        <v>2734.41</v>
+      </c>
+      <c r="D6" s="38">
+        <v>699.54</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
+        <v>3875</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" ref="G6" si="2">(F6+E6)-(C6+D6)</f>
+        <v>441.05000000000018</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" ref="H6" si="3">G6/(C6+D6-E6)*100</f>
+        <v>12.843809607012338</v>
+      </c>
+      <c r="K6" s="36">
+        <v>11</v>
+      </c>
+      <c r="L6" s="41">
+        <v>13717.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="K7" s="36">
+        <v>12</v>
+      </c>
+      <c r="L7" s="41">
+        <v>17640.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="K8" s="36">
+        <v>13</v>
+      </c>
+      <c r="L8" s="41">
+        <v>22685.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
+      <c r="K9" s="36">
+        <v>14</v>
+      </c>
+      <c r="L9" s="41">
+        <v>29173.759999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="K10" s="36">
+        <v>15</v>
+      </c>
+      <c r="L10" s="41">
+        <v>37517.449999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="26"/>
+      <c r="K11" s="36">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41">
+        <v>48247.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="K12" s="36">
+        <v>17</v>
+      </c>
+      <c r="L12" s="41">
+        <v>62046.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="26"/>
+      <c r="K13" s="36">
+        <v>18</v>
+      </c>
+      <c r="L13" s="41">
+        <v>79791.429999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23">
+        <v>61681746</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="23">
+        <v>699.54</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="23">
+        <v>61123802</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="28">
+        <v>20</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="23">
+        <v>60859180</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="28">
+        <v>100</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>60624191</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="28">
+        <v>50</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>60004490</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="23">
+        <v>702.45</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
+        <v>59870343</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="28">
+        <v>50</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>59704179</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="28">
+        <v>50</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>59398943</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="28">
+        <v>20</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>59385497</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="23">
+        <v>15.36</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>59305478</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="23">
+        <v>100</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>59216995</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="23">
+        <v>100</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>59213129</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="23">
+        <v>100</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>59212105</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="28">
+        <v>100</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>56784227</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="23">
+        <v>700</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>54561253</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="23">
+        <v>400</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>53632395</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>SUBTOTAL(9,F3:F14)</f>
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:G18">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Withdrawal"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Accepted"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=20.00&amp;profile=1190858"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=100.00&amp;profile=1178161"/>
+    <hyperlink ref="J5" r:id="rId3" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=50.00&amp;profile=1175371"/>
+    <hyperlink ref="J6" r:id="rId4" display="https://www.exness.com/member/deposit?ot=ZOTAVND&amp;amount=16000000.00"/>
+    <hyperlink ref="J7" r:id="rId5" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=50.00&amp;profile=1175371"/>
+    <hyperlink ref="J8" r:id="rId6" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=50.00&amp;profile=1178161"/>
+    <hyperlink ref="J9" r:id="rId7" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=20.00&amp;profile=1175371"/>
+    <hyperlink ref="J10" r:id="rId8" display="https://www.exness.com/member/deposit?ot=ZOTAVND&amp;amount=350000.00"/>
+    <hyperlink ref="J11" r:id="rId9" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=100.00&amp;profile=None"/>
+    <hyperlink ref="J12" r:id="rId10" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=100.00&amp;profile=None"/>
+    <hyperlink ref="J13" r:id="rId11" display="https://www.exness.com/member/deposit?ot=CC&amp;amount=100.00"/>
+    <hyperlink ref="J14" r:id="rId12" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=100.00&amp;profile=1173706"/>
+    <hyperlink ref="J15" r:id="rId13" display="https://www.exness.com/member/deposit?ot=CC&amp;amount=700.00"/>
+    <hyperlink ref="J16" r:id="rId14" display="https://www.exness.com/member/deposit?ot=CC&amp;amount=400.00"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,915 +1810,910 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="26">
+      <c r="A1" s="19">
         <v>43221</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>128694986</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <v>1.20058</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <v>1.19252</v>
       </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
         <v>46.8</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="11">
         <v>80.599999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>130975020</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>0.05</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>1.08673</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>1.08829</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
         <v>-7.18</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>5.35</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>136137708</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>1.60701</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>1.58815</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>4.34</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="15">
         <v>141.41</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>136772860</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="19">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="16">
         <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>136774654</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="20">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>136805271</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.06</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.87841000000000002</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.87655000000000005</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>0.06</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="13">
         <v>15.1</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>136843720</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>147.386</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>149.279</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>0.93</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="15">
         <v>170.37</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>136976161</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="19">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="16">
         <v>15.36</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>136976788</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.06</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>148.869</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>149.28</v>
       </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>0.37</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="15">
         <v>22.2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>136988940</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="19">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="16">
         <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>137049276</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.08</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>0.78573000000000004</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>0.78220000000000001</v>
       </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
         <v>28.24</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>137135440</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.08</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>0.78159999999999996</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>0.77776999999999996</v>
       </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
         <v>-0.54</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="13">
         <v>30.56</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>137301149</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="20">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="17">
         <v>-50</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>137441705</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>0.12</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>0.78261000000000003</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>0.77427000000000001</v>
       </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
         <v>-0.8</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="13">
         <v>100.27</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <v>137508225</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="20">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="17">
         <v>-50</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>137583316</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>0.1</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>0.77666000000000002</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>0.77463000000000004</v>
       </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
         <v>-0.68</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="13">
         <v>20.45</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>137624914</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="20">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="17">
         <v>702.45</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>137657161</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>0.05</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>0.77937000000000001</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>0.77463000000000004</v>
       </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
         <v>23.88</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>137658203</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.03</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>1.93475</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>1.9413400000000001</v>
       </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>0.03</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="15">
         <v>-13.64</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>137763776</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>0.04</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>1.2869200000000001</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>1.2843500000000001</v>
       </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="16">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <v>137802316</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>0.05</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>0.77317000000000002</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>0.76427</v>
       </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>-0.35</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="15">
         <v>44.9</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15">
+      <c r="B23" s="12">
         <v>137827461</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.05</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>0.76924999999999999</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>0.76427999999999996</v>
       </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
         <v>-0.35</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="13">
         <v>25.07</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="17">
+      <c r="B24" s="14">
         <v>138224748</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="20">
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="17">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>42.63</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="18">
         <v>702.76</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34">
         <v>745.39</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -1739,6 +2722,11 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="May 2018" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>withdraw</t>
+  </si>
+  <si>
+    <t>29 Jun 2018, 05:47</t>
+  </si>
+  <si>
+    <t>HISTORY OF OPERATIONS</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +417,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -598,7 +617,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,16 +676,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -685,12 +704,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -966,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -990,408 +1013,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="26">
         <v>2</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="27">
         <v>43132</v>
       </c>
-      <c r="C2" s="38">
-        <v>0</v>
-      </c>
-      <c r="D2" s="38">
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
         <v>400</v>
       </c>
-      <c r="E2" s="38">
-        <v>0</v>
-      </c>
-      <c r="F2" s="38">
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
         <v>881.13</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="29">
         <f>(F2+E2)-(C2+D2)</f>
         <v>481.13</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="30">
         <f>G2/(C2+D2-E2)*100</f>
         <v>120.2825</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="26">
         <v>7</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="31">
         <v>5015.3999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="26">
         <v>3</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="27">
         <v>43160</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="28">
         <f>F2</f>
         <v>881.13</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
         <v>1322.05</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="29">
         <f t="shared" ref="G3:G5" si="0">(F3+E3)-(C3+D3)</f>
         <v>440.91999999999996</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="30">
         <f t="shared" ref="H3:H5" si="1">G3/(C3+D3-E3)*100</f>
         <v>50.040289174128674</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="26">
         <v>8</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="31">
         <v>6449.8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="26">
         <v>4</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="27">
         <v>43191</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="28">
         <f>F3</f>
         <v>1322.05</v>
       </c>
-      <c r="D4" s="38">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
         <v>1441.21</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="29">
         <f t="shared" si="0"/>
         <v>119.16000000000008</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="30">
         <f t="shared" si="1"/>
         <v>9.0132748383192833</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="26">
         <v>9</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="31">
         <v>8294.4500000000007</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="26">
         <v>5</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="27">
         <v>43221</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="28">
         <f>F4</f>
         <v>1441.21</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="28">
         <v>817.81</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="28">
         <v>270</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="28">
         <v>2734.41</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="29">
         <f t="shared" si="0"/>
         <v>745.38999999999987</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>37.475239062452857</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="26">
         <v>10</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="31">
         <v>10666.66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="26">
         <v>6</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="27">
         <v>43252</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="28">
         <f>F5</f>
         <v>2734.41</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="28">
         <v>699.54</v>
       </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
         <v>3875</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="29">
         <f t="shared" ref="G6" si="2">(F6+E6)-(C6+D6)</f>
         <v>441.05000000000018</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="30">
         <f t="shared" ref="H6" si="3">G6/(C6+D6-E6)*100</f>
         <v>12.843809607012338</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="26">
         <v>11</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="31">
         <v>13717.33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26"/>
-      <c r="K7" s="36">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="K7" s="26">
         <v>12</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="31">
         <v>17640.48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26"/>
-      <c r="K8" s="36">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="K8" s="26">
         <v>13</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="31">
         <v>22685.66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
-      <c r="K9" s="36">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="K9" s="26">
         <v>14</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="31">
         <v>29173.759999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="K10" s="36">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="K10" s="26">
         <v>15</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="31">
         <v>37517.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="26"/>
-      <c r="K11" s="36">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="K11" s="26">
         <v>16</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="31">
         <v>48247.44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="K12" s="36">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="K12" s="26">
         <v>17</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="31">
         <v>62046.21</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="26"/>
-      <c r="K13" s="36">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="K13" s="26">
         <v>18</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="31">
         <v>79791.429999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="26"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,398 +1424,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="13.140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17" style="39" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D3" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E3" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F3" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G3" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="40">
+        <v>62249801</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="40">
+        <v>150</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="40">
         <v>61681746</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C5" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F5" s="40">
         <v>699.54</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G5" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="23">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
         <v>61123802</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D6" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F6" s="41">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G6" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="40">
         <v>60859180</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F7" s="41">
         <v>100</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G7" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="40">
         <v>60624191</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D8" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F8" s="41">
         <v>50</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G8" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="40">
         <v>60004490</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D9" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E9" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F9" s="40">
         <v>702.45</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G9" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
         <v>59870343</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C10" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F10" s="41">
         <v>50</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G10" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="40">
         <v>59704179</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C11" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D11" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E11" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F11" s="41">
         <v>50</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G11" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="40">
         <v>59398943</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C12" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D12" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E12" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F12" s="41">
         <v>20</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G12" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="40">
         <v>59385497</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C13" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D13" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E13" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F13" s="40">
         <v>15.36</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G13" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="40">
         <v>59305478</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C14" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D14" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F14" s="40">
         <v>100</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G14" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="40">
         <v>59216995</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C15" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D15" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F15" s="40">
         <v>100</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G15" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="40">
         <v>59213129</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C16" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D16" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E16" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F16" s="40">
         <v>100</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G16" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="40">
         <v>59212105</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D17" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E17" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F17" s="41">
         <v>100</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G17" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="40">
         <v>56784227</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C18" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D18" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F18" s="40">
         <v>700</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G18" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="40">
         <v>54561253</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C19" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D19" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E19" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F19" s="40">
         <v>400</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G19" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="40">
         <v>53632395</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C20" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D20" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E20" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F20" s="40">
         <v>3000</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G20" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <f>SUBTOTAL(9,F3:F14)</f>
-        <v>390</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:G18">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Withdrawal"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Accepted"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=20.00&amp;profile=1190858"/>
-    <hyperlink ref="J4" r:id="rId2" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=100.00&amp;profile=1178161"/>
-    <hyperlink ref="J5" r:id="rId3" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=50.00&amp;profile=1175371"/>
-    <hyperlink ref="J6" r:id="rId4" display="https://www.exness.com/member/deposit?ot=ZOTAVND&amp;amount=16000000.00"/>
-    <hyperlink ref="J7" r:id="rId5" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=50.00&amp;profile=1175371"/>
-    <hyperlink ref="J8" r:id="rId6" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=50.00&amp;profile=1178161"/>
-    <hyperlink ref="J9" r:id="rId7" display="https://www.exness.com/member/withdrawal?ot=ZOTAVND&amp;amount=20.00&amp;profile=1175371"/>
-    <hyperlink ref="J10" r:id="rId8" display="https://www.exness.com/member/deposit?ot=ZOTAVND&amp;amount=350000.00"/>
-    <hyperlink ref="J11" r:id="rId9" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=100.00&amp;profile=None"/>
-    <hyperlink ref="J12" r:id="rId10" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=100.00&amp;profile=None"/>
-    <hyperlink ref="J13" r:id="rId11" display="https://www.exness.com/member/deposit?ot=CC&amp;amount=100.00"/>
-    <hyperlink ref="J14" r:id="rId12" display="https://www.exness.com/member/withdrawal?ot=CC&amp;amount=100.00&amp;profile=1173706"/>
-    <hyperlink ref="J15" r:id="rId13" display="https://www.exness.com/member/deposit?ot=CC&amp;amount=700.00"/>
-    <hyperlink ref="J16" r:id="rId14" display="https://www.exness.com/member/deposit?ot=CC&amp;amount=400.00"/>
-  </hyperlinks>
+  <autoFilter ref="B3:G21"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1800,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1986,17 +2017,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="16">
         <v>-100</v>
       </c>
@@ -2011,17 +2042,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="17">
         <v>100</v>
       </c>
@@ -2118,17 +2149,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="16">
         <v>15.36</v>
       </c>
@@ -2184,17 +2215,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="16">
         <v>-20</v>
       </c>
@@ -2291,17 +2322,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="17">
         <v>-50</v>
       </c>
@@ -2357,17 +2388,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="17">
         <v>-50</v>
       </c>
@@ -2423,17 +2454,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="17">
         <v>702.45</v>
       </c>
@@ -2653,32 +2684,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="17">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -2690,30 +2721,35 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34">
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36">
         <v>745.39</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -2722,11 +2758,6 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -351,18 +351,24 @@
   </si>
   <si>
     <t>HISTORY OF OPERATIONS</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,14 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -430,6 +428,22 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -458,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -610,14 +624,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,9 +680,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -671,21 +713,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -704,16 +752,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -989,831 +1048,848 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="20" customWidth="1"/>
-    <col min="2" max="8" width="14" style="20" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="20"/>
-    <col min="12" max="12" width="17.28515625" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="2" max="2" width="5.375" style="18" customWidth="1"/>
+    <col min="3" max="9" width="14" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F3" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I3" s="46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="J3" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="27">
+      <c r="C4" s="24">
         <v>43132</v>
       </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
         <v>400</v>
       </c>
-      <c r="E2" s="28">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
         <v>881.13</v>
       </c>
-      <c r="G2" s="29">
-        <f>(F2+E2)-(C2+D2)</f>
+      <c r="H4" s="26">
+        <f>(G4+F4)-(D4+E4)</f>
         <v>481.13</v>
       </c>
-      <c r="H2" s="30">
-        <f>G2/(C2+D2-E2)*100</f>
+      <c r="I4" s="27">
+        <f>H4/(D4+E4-F4)*100</f>
         <v>120.2825</v>
       </c>
-      <c r="K2" s="26">
-        <v>7</v>
-      </c>
-      <c r="L2" s="31">
-        <v>5015.3999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="B3" s="27">
+      <c r="C5" s="24">
         <v>43160</v>
       </c>
-      <c r="C3" s="28">
-        <f>F2</f>
+      <c r="D5" s="25">
+        <f>G4</f>
         <v>881.13</v>
       </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>0</v>
-      </c>
-      <c r="F3" s="28">
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
         <v>1322.05</v>
       </c>
-      <c r="G3" s="29">
-        <f t="shared" ref="G3:G5" si="0">(F3+E3)-(C3+D3)</f>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H7" si="0">(G5+F5)-(D5+E5)</f>
         <v>440.91999999999996</v>
       </c>
-      <c r="H3" s="30">
-        <f t="shared" ref="H3:H5" si="1">G3/(C3+D3-E3)*100</f>
+      <c r="I5" s="27">
+        <f t="shared" ref="I5:I7" si="1">H5/(D5+E5-F5)*100</f>
         <v>50.040289174128674</v>
       </c>
-      <c r="K3" s="26">
-        <v>8</v>
-      </c>
-      <c r="L3" s="31">
-        <v>6449.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
+      <c r="C6" s="24">
         <v>43191</v>
       </c>
-      <c r="C4" s="28">
-        <f>F3</f>
+      <c r="D6" s="25">
+        <f>G5</f>
         <v>1322.05</v>
       </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
         <v>1441.21</v>
       </c>
-      <c r="G4" s="29">
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
         <v>119.16000000000008</v>
       </c>
-      <c r="H4" s="30">
+      <c r="I6" s="27">
         <f t="shared" si="1"/>
         <v>9.0132748383192833</v>
       </c>
-      <c r="K4" s="26">
-        <v>9</v>
-      </c>
-      <c r="L4" s="31">
-        <v>8294.4500000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="B5" s="27">
+      <c r="C7" s="24">
         <v>43221</v>
       </c>
-      <c r="C5" s="28">
-        <f>F4</f>
+      <c r="D7" s="25">
+        <f>G6</f>
         <v>1441.21</v>
       </c>
-      <c r="D5" s="28">
+      <c r="E7" s="25">
         <v>817.81</v>
       </c>
-      <c r="E5" s="28">
+      <c r="F7" s="25">
         <v>270</v>
       </c>
-      <c r="F5" s="28">
+      <c r="G7" s="25">
         <v>2734.41</v>
       </c>
-      <c r="G5" s="29">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>745.38999999999987</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I7" s="27">
         <f t="shared" si="1"/>
         <v>37.475239062452857</v>
       </c>
-      <c r="K5" s="26">
-        <v>10</v>
-      </c>
-      <c r="L5" s="31">
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="23">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24">
+        <v>43252</v>
+      </c>
+      <c r="D8" s="25">
+        <f>G7</f>
+        <v>2734.41</v>
+      </c>
+      <c r="E8" s="25">
+        <v>699.54</v>
+      </c>
+      <c r="F8" s="25">
+        <v>150</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3890.13</v>
+      </c>
+      <c r="H8" s="26">
+        <f t="shared" ref="H8" si="2">(G8+F8)-(D8+E8)</f>
+        <v>606.18000000000029</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" ref="I8" si="3">H8/(D8+E8-F8)*100</f>
+        <v>18.458868131366199</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="23">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24">
+        <v>43282</v>
+      </c>
+      <c r="D9" s="25">
+        <f>G8</f>
+        <v>3890.13</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" ref="I9" si="4">H9/(D9+E9-F9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>5015.3999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="28">
+        <v>6449.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="28">
+        <v>8294.4500000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="28">
         <v>10666.66</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>6</v>
-      </c>
-      <c r="B6" s="27">
-        <v>43252</v>
-      </c>
-      <c r="C6" s="28">
-        <f>F5</f>
-        <v>2734.41</v>
-      </c>
-      <c r="D6" s="28">
-        <v>699.54</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
-        <v>3875</v>
-      </c>
-      <c r="G6" s="29">
-        <f t="shared" ref="G6" si="2">(F6+E6)-(C6+D6)</f>
-        <v>441.05000000000018</v>
-      </c>
-      <c r="H6" s="30">
-        <f t="shared" ref="H6" si="3">G6/(C6+D6-E6)*100</f>
-        <v>12.843809607012338</v>
-      </c>
-      <c r="K6" s="26">
-        <v>11</v>
-      </c>
-      <c r="L6" s="31">
+    <row r="13" spans="2:10">
+      <c r="C13" s="19"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="28">
         <v>13717.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="K7" s="26">
-        <v>12</v>
-      </c>
-      <c r="L7" s="31">
+    <row r="14" spans="2:10">
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="28">
         <v>17640.48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="24"/>
-      <c r="K8" s="26">
-        <v>13</v>
-      </c>
-      <c r="L8" s="31">
+    <row r="15" spans="2:10">
+      <c r="C15" s="19"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="28">
         <v>22685.66</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="K9" s="26">
-        <v>14</v>
-      </c>
-      <c r="L9" s="31">
+    <row r="16" spans="2:10">
+      <c r="C16" s="19"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="28">
         <v>29173.759999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="K10" s="26">
-        <v>15</v>
-      </c>
-      <c r="L10" s="31">
+    <row r="17" spans="3:10">
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="28">
         <v>37517.449999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="K11" s="26">
-        <v>16</v>
-      </c>
-      <c r="L11" s="31">
+    <row r="18" spans="3:10">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="28">
         <v>48247.44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="K12" s="26">
-        <v>17</v>
-      </c>
-      <c r="L12" s="31">
+    <row r="19" spans="3:10">
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="28">
         <v>62046.21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="24"/>
-      <c r="K13" s="26">
-        <v>18</v>
-      </c>
-      <c r="L13" s="31">
+    <row r="20" spans="3:10">
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="28">
         <v>79791.429999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="24"/>
+    <row r="21" spans="3:10">
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="19"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="19"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="19"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="19"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="13.140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17" style="39" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="39" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="9.125" style="29"/>
+    <col min="2" max="2" width="13.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17" style="29" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="40">
+    <row r="4" spans="2:7">
+      <c r="B4" s="30">
         <v>62249801</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="30">
         <v>150</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="40">
+    <row r="5" spans="2:7">
+      <c r="B5" s="30">
         <v>61681746</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="30">
         <v>699.54</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+    <row r="6" spans="2:7">
+      <c r="B6" s="30">
         <v>61123802</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="31">
         <v>20</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="40">
+    <row r="7" spans="2:7">
+      <c r="B7" s="30">
         <v>60859180</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="31">
         <v>100</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
+    <row r="8" spans="2:7">
+      <c r="B8" s="30">
         <v>60624191</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="31">
         <v>50</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="40">
+    <row r="9" spans="2:7">
+      <c r="B9" s="30">
         <v>60004490</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="30">
         <v>702.45</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+    <row r="10" spans="2:7">
+      <c r="B10" s="30">
         <v>59870343</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="31">
         <v>50</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="40">
+    <row r="11" spans="2:7">
+      <c r="B11" s="30">
         <v>59704179</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="31">
         <v>50</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+    <row r="12" spans="2:7">
+      <c r="B12" s="30">
         <v>59398943</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="31">
         <v>20</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="40">
+    <row r="13" spans="2:7">
+      <c r="B13" s="30">
         <v>59385497</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="30">
         <v>15.36</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
+    <row r="14" spans="2:7">
+      <c r="B14" s="30">
         <v>59305478</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="30">
         <v>100</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
+    <row r="15" spans="2:7">
+      <c r="B15" s="30">
         <v>59216995</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="30">
         <v>100</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="40">
+    <row r="16" spans="2:7">
+      <c r="B16" s="30">
         <v>59213129</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="30">
         <v>100</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="40">
+    <row r="17" spans="2:7">
+      <c r="B17" s="30">
         <v>59212105</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="31">
         <v>100</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="40">
+    <row r="18" spans="2:7">
+      <c r="B18" s="30">
         <v>56784227</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="30">
         <v>700</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="40">
+    <row r="19" spans="2:7">
+      <c r="B19" s="30">
         <v>54561253</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="30">
         <v>400</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="40">
+    <row r="20" spans="2:7">
+      <c r="B20" s="30">
         <v>53632395</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="30">
         <v>3000</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="30" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1828,105 +1904,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="19">
+    <row r="1" spans="1:14" ht="22.5">
+      <c r="A1" s="44">
         <v>43221</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8">
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B2" s="7">
         <v>128694986</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1.20058</v>
       </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>1.19252</v>
       </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
         <v>46.8</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12">
+    <row r="3" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B3" s="11">
         <v>130975020</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1962,12 +2036,12 @@
       <c r="M3" s="5">
         <v>-7.18</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>5.35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14">
+    <row r="4" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B4" s="13">
         <v>136137708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2003,12 +2077,12 @@
       <c r="M4" s="4">
         <v>4.34</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>141.41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12">
+    <row r="5" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B5" s="11">
         <v>136772860</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2017,23 +2091,23 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="16">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="15">
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
+    <row r="6" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B6" s="13">
         <v>136774654</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2042,23 +2116,23 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="17">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
+    <row r="7" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B7" s="11">
         <v>136805271</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2094,12 +2168,12 @@
       <c r="M7" s="5">
         <v>0.06</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>15.1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
+    <row r="8" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B8" s="13">
         <v>136843720</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2135,12 +2209,12 @@
       <c r="M8" s="4">
         <v>0.93</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>170.37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+    <row r="9" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B9" s="11">
         <v>136976161</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2149,23 +2223,23 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="16">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="15">
         <v>15.36</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
+    <row r="10" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B10" s="13">
         <v>136976788</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2201,12 +2275,12 @@
       <c r="M10" s="4">
         <v>0.37</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>22.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+    <row r="11" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B11" s="11">
         <v>136988940</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2215,23 +2289,23 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="16">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="15">
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
+    <row r="12" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B12" s="13">
         <v>137049276</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2267,12 +2341,12 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <v>28.24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+    <row r="13" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B13" s="11">
         <v>137135440</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2308,12 +2382,12 @@
       <c r="M13" s="5">
         <v>-0.54</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>30.56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+    <row r="14" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B14" s="13">
         <v>137301149</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2322,23 +2396,23 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="17">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="16">
         <v>-50</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12">
+    <row r="15" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B15" s="11">
         <v>137441705</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2374,12 +2448,12 @@
       <c r="M15" s="5">
         <v>-0.8</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>100.27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
+    <row r="16" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B16" s="13">
         <v>137508225</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2388,23 +2462,23 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="17">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="16">
         <v>-50</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12">
+    <row r="17" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B17" s="11">
         <v>137583316</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2440,12 +2514,12 @@
       <c r="M17" s="5">
         <v>-0.68</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>20.45</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
+    <row r="18" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B18" s="13">
         <v>137624914</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2454,23 +2528,23 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="17">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="16">
         <v>702.45</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+    <row r="19" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B19" s="11">
         <v>137657161</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2506,12 +2580,12 @@
       <c r="M19" s="5">
         <v>0</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>23.88</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
+    <row r="20" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B20" s="13">
         <v>137658203</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2547,12 +2621,12 @@
       <c r="M20" s="4">
         <v>0.03</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>-13.64</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+    <row r="21" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B21" s="11">
         <v>137763776</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2588,12 +2662,12 @@
       <c r="M21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14">
+    <row r="22" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B22" s="13">
         <v>137802316</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2629,12 +2703,12 @@
       <c r="M22" s="4">
         <v>-0.35</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <v>44.9</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
+    <row r="23" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B23" s="11">
         <v>137827461</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2670,12 +2744,12 @@
       <c r="M23" s="5">
         <v>-0.35</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <v>25.07</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14">
+    <row r="24" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B24" s="13">
         <v>138224748</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2684,72 +2758,67 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="17">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+    <row r="25" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>42.63</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <v>702.76</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="2:14">
+      <c r="B26" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36">
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39">
         <v>745.39</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -2758,6 +2827,11 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -242,137 +242,146 @@
     <t>Ticket</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>20 Jun 2018, 03:25</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Internet Banking</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>11 Jun 2018, 01:37</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>05 Jun 2018, 12:09</t>
+  </si>
+  <si>
+    <t>31 May 2018, 10:49</t>
+  </si>
+  <si>
+    <t>22 May 2018, 02:45</t>
+  </si>
+  <si>
+    <t>18 May 2018, 13:08</t>
+  </si>
+  <si>
+    <t>16 May 2018, 06:52</t>
+  </si>
+  <si>
+    <t>10 May 2018, 10:43</t>
+  </si>
+  <si>
+    <t>10 May 2018, 07:58</t>
+  </si>
+  <si>
+    <t>09 May 2018, 04:57</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>07 May 2018, 21:40</t>
+  </si>
+  <si>
+    <t>07 May 2018, 16:00</t>
+  </si>
+  <si>
+    <t>07 May 2018, 15:21</t>
+  </si>
+  <si>
+    <t>21 Mar 2018, 05:02</t>
+  </si>
+  <si>
+    <t>02 Feb 2018, 04:58</t>
+  </si>
+  <si>
+    <t>15 Jan 2018, 09:44</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TRANSACTION TYPE</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> №</t>
+  </si>
+  <si>
+    <t>29 Jun 2018, 05:47</t>
+  </si>
+  <si>
+    <t>HISTORY OF OPERATIONS</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>withdraw</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
     <t>Balance</t>
-  </si>
-  <si>
-    <t>Open</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Profit</t>
-  </si>
-  <si>
-    <t>20 Jun 2018, 03:25</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Internet Banking</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>11 Jun 2018, 01:37</t>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>05 Jun 2018, 12:09</t>
-  </si>
-  <si>
-    <t>31 May 2018, 10:49</t>
-  </si>
-  <si>
-    <t>22 May 2018, 02:45</t>
-  </si>
-  <si>
-    <t>18 May 2018, 13:08</t>
-  </si>
-  <si>
-    <t>16 May 2018, 06:52</t>
-  </si>
-  <si>
-    <t>10 May 2018, 10:43</t>
-  </si>
-  <si>
-    <t>10 May 2018, 07:58</t>
-  </si>
-  <si>
-    <t>09 May 2018, 04:57</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>07 May 2018, 21:40</t>
-  </si>
-  <si>
-    <t>07 May 2018, 16:00</t>
-  </si>
-  <si>
-    <t>07 May 2018, 15:21</t>
-  </si>
-  <si>
-    <t>21 Mar 2018, 05:02</t>
-  </si>
-  <si>
-    <t>02 Feb 2018, 04:58</t>
-  </si>
-  <si>
-    <t>15 Jan 2018, 09:44</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TRANSACTION TYPE</t>
-  </si>
-  <si>
-    <t>METHOD</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> №</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Rate/Month(%)</t>
-  </si>
-  <si>
-    <t>withdraw</t>
-  </si>
-  <si>
-    <t>29 Jun 2018, 05:47</t>
-  </si>
-  <si>
-    <t>HISTORY OF OPERATIONS</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>REVENUE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -412,7 +421,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -430,20 +439,37 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -656,13 +682,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,72 +738,80 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1048,863 +1081,861 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="5.375" style="18" customWidth="1"/>
-    <col min="3" max="9" width="14" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="18"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="8" width="14" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="46" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="47" t="s">
+      <c r="G3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="23">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24">
+    <row r="4" spans="2:9">
+      <c r="B4" s="28">
         <v>43132</v>
       </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
         <v>400</v>
       </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
         <v>881.13</v>
       </c>
-      <c r="H4" s="26">
-        <f>(G4+F4)-(D4+E4)</f>
+      <c r="G4" s="30">
+        <f>(F4+E4)-(C4+D4)</f>
         <v>481.13</v>
       </c>
-      <c r="I4" s="27">
-        <f>H4/(D4+E4-F4)*100</f>
+      <c r="H4" s="39">
+        <f>G4/(C4+D4-E4)*100</f>
         <v>120.2825</v>
       </c>
-      <c r="J4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="23">
-        <v>3</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="28">
         <v>43160</v>
       </c>
-      <c r="D5" s="25">
-        <f>G4</f>
+      <c r="C5" s="29">
+        <f>F4</f>
         <v>881.13</v>
       </c>
-      <c r="E5" s="25">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
         <v>1322.05</v>
       </c>
-      <c r="H5" s="26">
-        <f t="shared" ref="H5:H7" si="0">(G5+F5)-(D5+E5)</f>
+      <c r="G5" s="30">
+        <f t="shared" ref="G5:G7" si="0">(F5+E5)-(C5+D5)</f>
         <v>440.91999999999996</v>
       </c>
-      <c r="I5" s="27">
-        <f t="shared" ref="I5:I7" si="1">H5/(D5+E5-F5)*100</f>
+      <c r="H5" s="39">
+        <f t="shared" ref="H5:H7" si="1">G5/(C5+D5-E5)*100</f>
         <v>50.040289174128674</v>
       </c>
-      <c r="J5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="23">
-        <v>4</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="28">
         <v>43191</v>
       </c>
-      <c r="D6" s="25">
-        <f>G5</f>
+      <c r="C6" s="29">
+        <f>F5</f>
         <v>1322.05</v>
       </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
         <v>1441.21</v>
       </c>
-      <c r="H6" s="26">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>119.16000000000008</v>
       </c>
-      <c r="I6" s="27">
+      <c r="H6" s="39">
         <f t="shared" si="1"/>
         <v>9.0132748383192833</v>
       </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="23">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="28">
         <v>43221</v>
       </c>
-      <c r="D7" s="25">
-        <f>G6</f>
+      <c r="C7" s="29">
+        <f>F6</f>
         <v>1441.21</v>
       </c>
-      <c r="E7" s="25">
+      <c r="D7" s="29">
         <v>817.81</v>
       </c>
-      <c r="F7" s="25">
+      <c r="E7" s="29">
         <v>270</v>
       </c>
-      <c r="G7" s="25">
+      <c r="F7" s="29">
         <v>2734.41</v>
       </c>
-      <c r="H7" s="26">
+      <c r="G7" s="30">
         <f t="shared" si="0"/>
         <v>745.38999999999987</v>
       </c>
-      <c r="I7" s="27">
+      <c r="H7" s="39">
         <f t="shared" si="1"/>
         <v>37.475239062452857</v>
       </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="23">
-        <v>6</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="28">
         <v>43252</v>
       </c>
-      <c r="D8" s="25">
-        <f>G7</f>
+      <c r="C8" s="29">
+        <f>F7</f>
         <v>2734.41</v>
       </c>
-      <c r="E8" s="25">
+      <c r="D8" s="29">
         <v>699.54</v>
       </c>
-      <c r="F8" s="25">
-        <v>150</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="E8" s="29">
+        <v>270</v>
+      </c>
+      <c r="F8" s="29">
         <v>3890.13</v>
       </c>
-      <c r="H8" s="26">
-        <f t="shared" ref="H8" si="2">(G8+F8)-(D8+E8)</f>
-        <v>606.18000000000029</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" ref="I8" si="3">H8/(D8+E8-F8)*100</f>
-        <v>18.458868131366199</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="23">
-        <v>7</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="G8" s="30">
+        <f t="shared" ref="G8:G9" si="2">(F8+E8)-(C8+D8)</f>
+        <v>726.18000000000029</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" ref="H8" si="3">G8/(C8+D8-E8)*100</f>
+        <v>22.951690134167745</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="28">
         <v>43282</v>
       </c>
-      <c r="D9" s="25">
-        <f>G8</f>
+      <c r="C9" s="29">
+        <f>F8</f>
         <v>3890.13</v>
       </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" ref="I9" si="4">H9/(D9+E9-F9)*100</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>4152.57</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="2"/>
+        <v>262.4399999999996</v>
+      </c>
+      <c r="H9" s="39">
+        <f t="shared" ref="H9" si="4">G9/(C9+D9-E9)*100</f>
+        <v>6.746304108088923</v>
+      </c>
+      <c r="I9" s="31">
         <v>5015.3999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="28">
+    <row r="10" spans="2:9">
+      <c r="B10" s="28">
+        <v>43313</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="31">
         <v>6449.8</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="C11" s="19"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="28">
+    <row r="11" spans="2:9">
+      <c r="B11" s="28">
+        <v>43344</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="31">
         <v>8294.4500000000007</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="C12" s="19"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="28">
+    <row r="12" spans="2:9">
+      <c r="B12" s="28">
+        <v>43374</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="31">
         <v>10666.66</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="28">
+    <row r="13" spans="2:9">
+      <c r="B13" s="28">
+        <v>43405</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="31">
         <v>13717.33</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="28">
+    <row r="14" spans="2:9">
+      <c r="B14" s="28">
+        <v>43435</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="31">
         <v>17640.48</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="28">
+    <row r="15" spans="2:9">
+      <c r="B15" s="28">
+        <v>43466</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="31">
         <v>22685.66</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="19"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="28">
+    <row r="16" spans="2:9">
+      <c r="B16" s="28">
+        <v>43497</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="31">
         <v>29173.759999999998</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="28">
+    <row r="17" spans="2:9">
+      <c r="B17" s="28">
+        <v>43525</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="31">
         <v>37517.449999999997</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="28">
+    <row r="18" spans="2:9">
+      <c r="B18" s="28">
+        <v>43556</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="31">
         <v>48247.44</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="28">
+    <row r="19" spans="2:9">
+      <c r="B19" s="28">
+        <v>43586</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="31">
         <v>62046.21</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="19"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="28">
+    <row r="20" spans="2:9">
+      <c r="B20" s="28">
+        <v>43617</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="31">
         <v>79791.429999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="19"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="19"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="19"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="19"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="22"/>
+    <row r="21" spans="2:9">
+      <c r="B21" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37">
+        <f>SUM(D4:D20)</f>
+        <v>1917.35</v>
+      </c>
+      <c r="E21" s="37">
+        <f>SUM(E4:E20)</f>
+        <v>540</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="38">
+        <f>AVERAGE(H4:H20)</f>
+        <v>41.084882886192915</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="29"/>
-    <col min="2" max="2" width="13.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17" style="29" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="29"/>
+    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="17" style="18" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="G3" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="32" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="19">
+        <v>62249801</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="30">
-        <v>62249801</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="19">
+        <v>150</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" hidden="1">
+      <c r="B5" s="19">
+        <v>61681746</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="19">
+        <v>699.54</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="19">
+        <v>61123802</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="20">
+        <v>20</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="19">
+        <v>60859180</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="20">
+        <v>100</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19">
+        <v>60624191</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="D8" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="30">
-        <v>150</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="E8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="20">
+        <v>50</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" hidden="1">
+      <c r="B9" s="19">
+        <v>60004490</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="19">
+        <v>702.45</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="19">
+        <v>59870343</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="20">
+        <v>50</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="19">
+        <v>59704179</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="20">
+        <v>50</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="19">
+        <v>59398943</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="20">
+        <v>20</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" hidden="1">
+      <c r="B13" s="19">
+        <v>59385497</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="19">
+        <v>15.36</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" hidden="1">
+      <c r="B14" s="19">
+        <v>59305478</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="30">
-        <v>61681746</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="F14" s="19">
+        <v>100</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" hidden="1">
+      <c r="B15" s="19">
+        <v>59216995</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="19">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" hidden="1">
+      <c r="B16" s="19">
+        <v>59213129</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="19">
+        <v>100</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="30" t="s">
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="19">
+        <v>59212105</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="30">
-        <v>699.54</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="E17" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="30">
-        <v>61123802</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="31">
-        <v>20</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F17" s="20">
+        <v>100</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1">
+      <c r="B18" s="19">
+        <v>56784227</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="30">
-        <v>60859180</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="31">
-        <v>100</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F18" s="19">
+        <v>700</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" hidden="1">
+      <c r="B19" s="19">
+        <v>54561253</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="30">
-        <v>60624191</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="31">
-        <v>50</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="F19" s="19">
+        <v>400</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="19">
+        <v>53632395</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="30">
-        <v>60004490</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="30">
-        <v>702.45</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="30">
-        <v>59870343</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="31">
-        <v>50</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="30">
-        <v>59704179</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="31">
-        <v>50</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="30">
-        <v>59398943</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="F20" s="19">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="31">
-        <v>20</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="30">
-        <v>59385497</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="30">
-        <v>15.36</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="30">
-        <v>59305478</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="30">
-        <v>100</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="30">
-        <v>59216995</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="30">
-        <v>100</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="30">
-        <v>59213129</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="30">
-        <v>100</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="30">
-        <v>59212105</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="31">
-        <v>100</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="30">
-        <v>56784227</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="30">
-        <v>700</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="30">
-        <v>54561253</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="30">
-        <v>400</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="30">
-        <v>53632395</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="30">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>92</v>
+    </row>
+    <row r="21" spans="2:7" hidden="1"/>
+    <row r="22" spans="2:7">
+      <c r="F22" s="18">
+        <f>SUBTOTAL(9,F8:F21)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:G21"/>
+  <autoFilter ref="B3:G21">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Withdrawal"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Accepted"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1915,46 +1946,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
-      <c r="A1" s="44">
+      <c r="A1" s="24">
         <v>43221</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2091,17 +2122,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -2116,17 +2147,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -2223,17 +2254,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -2289,17 +2320,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -2396,17 +2427,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -2462,17 +2493,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -2528,17 +2559,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -2758,32 +2789,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -2795,30 +2826,35 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46">
         <v>745.39</v>
       </c>
-      <c r="N26" s="40"/>
+      <c r="N26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -2827,12 +2863,8 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -363,6 +363,10 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Status</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -377,7 +381,7 @@
     <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +475,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -681,13 +697,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,11 +833,11 @@
     <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -804,8 +857,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -813,8 +870,461 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="5" tint="0.79995117038483843"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1AA631"/>
+      <color rgb="FF1616AA"/>
+      <color rgb="FF0F22B1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1081,7 +1591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,19 +1612,20 @@
     <col min="10" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="26" t="s">
         <v>72</v>
       </c>
@@ -1128,380 +1639,453 @@
         <v>105</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="52" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="J3" s="52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="28">
+        <v>43101</v>
+      </c>
+      <c r="C4" s="51">
+        <v>881.13</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <f>C4+D4+F4-E4</f>
+        <v>881.13</v>
+      </c>
+      <c r="H4" s="39">
+        <f>(F4/C4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="28">
         <v>43132</v>
       </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="C5" s="29">
+        <v>881.13</v>
+      </c>
+      <c r="D5" s="29">
         <v>400</v>
       </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
-        <v>881.13</v>
-      </c>
-      <c r="G4" s="30">
-        <f>(F4+E4)-(C4+D4)</f>
-        <v>481.13</v>
-      </c>
-      <c r="H4" s="39">
-        <f>G4/(C4+D4-E4)*100</f>
-        <v>120.2825</v>
-      </c>
-      <c r="I4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="28">
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>40.92</v>
+      </c>
+      <c r="G5" s="29">
+        <f>C5+D5+F5-E5</f>
+        <v>1322.0500000000002</v>
+      </c>
+      <c r="H5" s="39">
+        <f>(F5/C5)*100</f>
+        <v>4.6440366347757989</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="28">
         <v>43160</v>
       </c>
-      <c r="C5" s="29">
-        <f>F4</f>
-        <v>881.13</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
-        <v>1322.05</v>
-      </c>
-      <c r="G5" s="30">
-        <f t="shared" ref="G5:G7" si="0">(F5+E5)-(C5+D5)</f>
-        <v>440.91999999999996</v>
-      </c>
-      <c r="H5" s="39">
-        <f t="shared" ref="H5:H7" si="1">G5/(C5+D5-E5)*100</f>
-        <v>50.040289174128674</v>
-      </c>
-      <c r="I5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="28">
+      <c r="C6" s="29">
+        <f>G5</f>
+        <v>1322.0500000000002</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <f>C6+D6+F6-E6</f>
+        <v>1322.0500000000002</v>
+      </c>
+      <c r="H6" s="39">
+        <f>(F6/C6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="28">
         <v>43191</v>
       </c>
-      <c r="C6" s="29">
-        <f>F5</f>
-        <v>1322.05</v>
-      </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29">
-        <v>1441.21</v>
-      </c>
-      <c r="G6" s="30">
-        <f t="shared" si="0"/>
-        <v>119.16000000000008</v>
-      </c>
-      <c r="H6" s="39">
-        <f t="shared" si="1"/>
-        <v>9.0132748383192833</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="28">
+      <c r="C7" s="29">
+        <f>G6</f>
+        <v>1322.0500000000002</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>119.16</v>
+      </c>
+      <c r="G7" s="29">
+        <f>C7+D7+F7-E7</f>
+        <v>1441.2100000000003</v>
+      </c>
+      <c r="H7" s="39">
+        <f>(F7/C7)*100</f>
+        <v>9.0132748383192762</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="28">
         <v>43221</v>
       </c>
-      <c r="C7" s="29">
-        <f>F6</f>
-        <v>1441.21</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="C8" s="29">
+        <f>G7</f>
+        <v>1441.2100000000003</v>
+      </c>
+      <c r="D8" s="29">
         <v>817.81</v>
-      </c>
-      <c r="E7" s="29">
-        <v>270</v>
-      </c>
-      <c r="F7" s="29">
-        <v>2734.41</v>
-      </c>
-      <c r="G7" s="30">
-        <f t="shared" si="0"/>
-        <v>745.38999999999987</v>
-      </c>
-      <c r="H7" s="39">
-        <f t="shared" si="1"/>
-        <v>37.475239062452857</v>
-      </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="28">
-        <v>43252</v>
-      </c>
-      <c r="C8" s="29">
-        <f>F7</f>
-        <v>2734.41</v>
-      </c>
-      <c r="D8" s="29">
-        <v>699.54</v>
       </c>
       <c r="E8" s="29">
         <v>270</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="30">
+        <v>745.39</v>
+      </c>
+      <c r="G8" s="29">
+        <f>C8+D8+F8-E8</f>
+        <v>2734.4100000000003</v>
+      </c>
+      <c r="H8" s="39">
+        <f>(F8/C8)*100</f>
+        <v>51.71973550003122</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="28">
+        <v>43252</v>
+      </c>
+      <c r="C9" s="29">
+        <f>G8</f>
+        <v>2734.4100000000003</v>
+      </c>
+      <c r="D9" s="29">
+        <v>699.54</v>
+      </c>
+      <c r="E9" s="29">
+        <v>270</v>
+      </c>
+      <c r="F9" s="30">
+        <v>726.18</v>
+      </c>
+      <c r="G9" s="29">
+        <f>C9+D9+F9-E9</f>
         <v>3890.13</v>
       </c>
-      <c r="G8" s="30">
-        <f t="shared" ref="G8:G9" si="2">(F8+E8)-(C8+D8)</f>
-        <v>726.18000000000029</v>
-      </c>
-      <c r="H8" s="39">
-        <f t="shared" ref="H8" si="3">G8/(C8+D8-E8)*100</f>
-        <v>22.951690134167745</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="28">
+      <c r="H9" s="39">
+        <f>(F9/C9)*100</f>
+        <v>26.557100069119109</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="28">
         <v>43282</v>
       </c>
-      <c r="C9" s="29">
-        <f>F8</f>
+      <c r="C10" s="29">
+        <f>G9</f>
         <v>3890.13</v>
       </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>262.44</v>
+      </c>
+      <c r="G10" s="29">
+        <f>C10+D10+F10-E10</f>
         <v>4152.57</v>
       </c>
-      <c r="G9" s="30">
-        <f t="shared" si="2"/>
-        <v>262.4399999999996</v>
-      </c>
-      <c r="H9" s="39">
-        <f t="shared" ref="H9" si="4">G9/(C9+D9-E9)*100</f>
-        <v>6.746304108088923</v>
-      </c>
-      <c r="I9" s="31">
+      <c r="H10" s="39">
+        <f>(F10/C10)*100</f>
+        <v>6.7463041080889328</v>
+      </c>
+      <c r="I10" s="31">
         <v>5015.3999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="28">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="28">
         <v>43313</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="31">
-        <v>6449.8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="28">
-        <v>43344</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="39"/>
       <c r="I11" s="31">
-        <v>8294.4500000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+        <v>6449.8</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="28">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="39"/>
       <c r="I12" s="31">
-        <v>10666.66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>8294.4500000000007</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="28">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="39"/>
       <c r="I13" s="31">
-        <v>13717.33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>10666.66</v>
+      </c>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="28">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="39"/>
       <c r="I14" s="31">
-        <v>17640.48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>13717.33</v>
+      </c>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="28">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="39"/>
       <c r="I15" s="31">
-        <v>22685.66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>17640.48</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="28">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="39"/>
       <c r="I16" s="31">
-        <v>29173.759999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>22685.66</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="28">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="39"/>
       <c r="I17" s="31">
-        <v>37517.449999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>29173.759999999998</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="28">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="39"/>
       <c r="I18" s="31">
-        <v>48247.44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>37517.449999999997</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="28">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="39"/>
       <c r="I19" s="31">
-        <v>62046.21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>48247.44</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="28">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="39"/>
       <c r="I20" s="31">
+        <v>62046.21</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="28">
+        <v>43617</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="31">
         <v>79791.429999999993</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="26" t="s">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37">
-        <f>SUM(D4:D20)</f>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37">
+        <f>SUM(D5:D21)</f>
         <v>1917.35</v>
       </c>
-      <c r="E21" s="37">
-        <f>SUM(E4:E20)</f>
+      <c r="E22" s="37">
+        <f>SUM(E5:E21)</f>
         <v>540</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="38">
-        <f>AVERAGE(H4:H20)</f>
-        <v>41.084882886192915</v>
-      </c>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="38">
+        <f>AVERAGE(H5:H21)</f>
+        <v>16.446741858389057</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
   <phoneticPr fontId="9"/>
+  <conditionalFormatting sqref="B4:J4 J5:J21">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="aboveAverage" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="$G$10"/>
+        <cfvo type="formula" val="$G$10"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J21">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1510,11 +2094,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
@@ -1528,22 +2110,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -1906,12 +2488,6 @@
       </c>
     </row>
     <row r="21" spans="2:7" hidden="1"/>
-    <row r="22" spans="2:7">
-      <c r="F22" s="18">
-        <f>SUBTOTAL(9,F8:F21)</f>
-        <v>270</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="B3:G21">
     <filterColumn colId="2">
@@ -2122,17 +2698,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -2254,17 +2830,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -2320,17 +2896,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -2850,11 +3426,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -2863,6 +3434,11 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
@@ -9,12 +9,13 @@
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
     <sheet name="OPERATIONS" sheetId="4" r:id="rId2"/>
-    <sheet name="May 2018" sheetId="2" r:id="rId3"/>
+    <sheet name="June 2018" sheetId="5" r:id="rId3"/>
+    <sheet name="May 2018" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -354,10 +355,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>Rate/Month(%)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>Target</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -368,6 +365,249 @@
   <si>
     <t>Status</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t> 2018.06.15 20:29:27</t>
+  </si>
+  <si>
+    <t>Archived orders</t>
+  </si>
+  <si>
+    <t>1 753.12</t>
+  </si>
+  <si>
+    <t> 2018.05.23 07:40:42</t>
+  </si>
+  <si>
+    <t> 2018.06.13 06:26:35</t>
+  </si>
+  <si>
+    <t> 2018.05.23 13:36:26</t>
+  </si>
+  <si>
+    <t> 2018.06.27 02:39:26</t>
+  </si>
+  <si>
+    <t> 2018.05.29 06:14:16</t>
+  </si>
+  <si>
+    <t>eurcadm</t>
+  </si>
+  <si>
+    <t> 2018.06.01 18:10:00</t>
+  </si>
+  <si>
+    <t> 2018.06.04 12:47:29</t>
+  </si>
+  <si>
+    <t>nzdusdm</t>
+  </si>
+  <si>
+    <t> 2018.06.05 15:22:47</t>
+  </si>
+  <si>
+    <t> 2018.06.05 12:32:12</t>
+  </si>
+  <si>
+    <t>W-ZOTAVND-VND-60859180</t>
+  </si>
+  <si>
+    <t> 2018.06.05 15:27:52</t>
+  </si>
+  <si>
+    <t>eurnzdm</t>
+  </si>
+  <si>
+    <t> 2018.06.07 13:30:32</t>
+  </si>
+  <si>
+    <t> 2018.06.08 06:12:02</t>
+  </si>
+  <si>
+    <t> 2018.06.08 08:24:42</t>
+  </si>
+  <si>
+    <t> 2018.06.11 01:37:32</t>
+  </si>
+  <si>
+    <t>W-CC-USD-61123802</t>
+  </si>
+  <si>
+    <t> 2018.06.11 05:31:34</t>
+  </si>
+  <si>
+    <t> 2018.06.15 07:32:37</t>
+  </si>
+  <si>
+    <t> 2018.06.11 06:32:54</t>
+  </si>
+  <si>
+    <t> 2018.06.15 11:40:28</t>
+  </si>
+  <si>
+    <t> 2018.06.13 12:22:26</t>
+  </si>
+  <si>
+    <t> 2018.06.14 00:01:52</t>
+  </si>
+  <si>
+    <t> 2018.06.14 07:01:23</t>
+  </si>
+  <si>
+    <t> 2018.06.14 09:16:09</t>
+  </si>
+  <si>
+    <t> 2018.06.14 09:13:20</t>
+  </si>
+  <si>
+    <t>chfjpym</t>
+  </si>
+  <si>
+    <t> 2018.06.14 14:16:02</t>
+  </si>
+  <si>
+    <t> 2018.06.15 11:39:59</t>
+  </si>
+  <si>
+    <t> 2018.06.15 12:50:16</t>
+  </si>
+  <si>
+    <t> 2018.06.15 11:40:51</t>
+  </si>
+  <si>
+    <t> 2018.06.15 13:18:53</t>
+  </si>
+  <si>
+    <t> 2018.06.15 12:55:17</t>
+  </si>
+  <si>
+    <t> 2018.06.15 14:31:26</t>
+  </si>
+  <si>
+    <t> 2018.06.18 05:26:54</t>
+  </si>
+  <si>
+    <t> 2018.06.19 07:07:18</t>
+  </si>
+  <si>
+    <t> 2018.06.19 04:24:42</t>
+  </si>
+  <si>
+    <t>gbpaudm</t>
+  </si>
+  <si>
+    <t> 2018.06.19 06:59:59</t>
+  </si>
+  <si>
+    <t> 2018.06.19 07:00:11</t>
+  </si>
+  <si>
+    <t> 2018.06.19 10:46:10</t>
+  </si>
+  <si>
+    <t> 2018.06.19 07:40:58</t>
+  </si>
+  <si>
+    <t> 2018.06.19 10:45:55</t>
+  </si>
+  <si>
+    <t> 2018.06.19 10:46:31</t>
+  </si>
+  <si>
+    <t> 2018.06.21 06:56:59</t>
+  </si>
+  <si>
+    <t> 2018.06.20 03:29:39</t>
+  </si>
+  <si>
+    <t>D-H2PVND-VND-61681746</t>
+  </si>
+  <si>
+    <t> 2018.06.20 06:04:53</t>
+  </si>
+  <si>
+    <t> 2018.06.21 06:31:29</t>
+  </si>
+  <si>
+    <t> 2018.06.20 15:23:02</t>
+  </si>
+  <si>
+    <t> 2018.06.21 12:49:49</t>
+  </si>
+  <si>
+    <t> 2018.06.21 06:31:38</t>
+  </si>
+  <si>
+    <t> 2018.06.21 09:19:04</t>
+  </si>
+  <si>
+    <t> 2018.06.21 08:44:01</t>
+  </si>
+  <si>
+    <t> 2018.06.21 12:49:24</t>
+  </si>
+  <si>
+    <t> 2018.06.21 11:21:46</t>
+  </si>
+  <si>
+    <t> 2018.06.21 13:25:52</t>
+  </si>
+  <si>
+    <t> 2018.06.21 20:15:10</t>
+  </si>
+  <si>
+    <t> 2018.06.22 14:20:35</t>
+  </si>
+  <si>
+    <t> 2018.06.22 01:49:46</t>
+  </si>
+  <si>
+    <t> 2018.06.22 14:20:23</t>
+  </si>
+  <si>
+    <t> 2018.06.22 09:26:32</t>
+  </si>
+  <si>
+    <t> 2018.06.22 14:33:01</t>
+  </si>
+  <si>
+    <t> 2018.06.25 00:29:15</t>
+  </si>
+  <si>
+    <t> 2018.06.29 16:09:18</t>
+  </si>
+  <si>
+    <t> 2018.06.27 06:12:44</t>
+  </si>
+  <si>
+    <t> 2018.06.27 06:12:58</t>
+  </si>
+  <si>
+    <t> 2018.06.27 06:13:17</t>
+  </si>
+  <si>
+    <t> 2018.06.29 15:44:04</t>
+  </si>
+  <si>
+    <t> 2018.06.27 20:33:17</t>
+  </si>
+  <si>
+    <t> 2018.06.29 04:41:35</t>
+  </si>
+  <si>
+    <t> 2018.06.29 06:22:14</t>
+  </si>
+  <si>
+    <t>W-H2PVND-VND-62249801</t>
+  </si>
+  <si>
+    <t>Deposit/Withdrawal: 2 182.66</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -375,17 +615,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -425,7 +665,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -444,7 +684,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -738,9 +978,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,55 +1054,124 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -870,7 +1179,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -886,55 +1195,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -955,364 +1215,6 @@
         <patternFill patternType="lightUp">
           <fgColor theme="7" tint="0.39994506668294322"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="5" tint="0.79995117038483843"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1591,7 +1493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1603,27 +1505,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="10.42578125" style="18" customWidth="1"/>
     <col min="3" max="8" width="14" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="18"/>
+    <col min="9" max="9" width="11.5703125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="26" t="s">
@@ -1645,20 +1547,20 @@
         <v>106</v>
       </c>
       <c r="H3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>111</v>
+      <c r="J3" s="44" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="28">
         <v>43101</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="43">
         <v>881.13</v>
       </c>
       <c r="D4" s="29">
@@ -1671,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="29">
-        <f>C4+D4+F4-E4</f>
+        <f t="shared" ref="G4:G10" si="0">C4+D4+F4-E4</f>
         <v>881.13</v>
       </c>
       <c r="H4" s="39">
-        <f>(F4/C4)*100</f>
+        <f t="shared" ref="H4:H10" si="1">(F4/C4)*100</f>
         <v>0</v>
       </c>
       <c r="I4" s="29">
@@ -1700,11 +1602,11 @@
         <v>40.92</v>
       </c>
       <c r="G5" s="29">
-        <f>C5+D5+F5-E5</f>
+        <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
       <c r="H5" s="39">
-        <f>(F5/C5)*100</f>
+        <f t="shared" si="1"/>
         <v>4.6440366347757989</v>
       </c>
       <c r="I5" s="29">
@@ -1730,11 +1632,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="29">
-        <f>C6+D6+F6-E6</f>
+        <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
       <c r="H6" s="39">
-        <f>(F6/C6)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="29">
@@ -1760,11 +1662,11 @@
         <v>119.16</v>
       </c>
       <c r="G7" s="29">
-        <f>C7+D7+F7-E7</f>
+        <f t="shared" si="0"/>
         <v>1441.2100000000003</v>
       </c>
       <c r="H7" s="39">
-        <f>(F7/C7)*100</f>
+        <f t="shared" si="1"/>
         <v>9.0132748383192762</v>
       </c>
       <c r="I7" s="29">
@@ -1790,11 +1692,11 @@
         <v>745.39</v>
       </c>
       <c r="G8" s="29">
-        <f>C8+D8+F8-E8</f>
+        <f t="shared" si="0"/>
         <v>2734.4100000000003</v>
       </c>
       <c r="H8" s="39">
-        <f>(F8/C8)*100</f>
+        <f t="shared" si="1"/>
         <v>51.71973550003122</v>
       </c>
       <c r="I8" s="29">
@@ -1820,11 +1722,11 @@
         <v>726.18</v>
       </c>
       <c r="G9" s="29">
-        <f>C9+D9+F9-E9</f>
+        <f t="shared" si="0"/>
         <v>3890.13</v>
       </c>
       <c r="H9" s="39">
-        <f>(F9/C9)*100</f>
+        <f t="shared" si="1"/>
         <v>26.557100069119109</v>
       </c>
       <c r="I9" s="29">
@@ -1850,11 +1752,11 @@
         <v>262.44</v>
       </c>
       <c r="G10" s="29">
-        <f>C10+D10+F10-E10</f>
+        <f t="shared" si="0"/>
         <v>4152.57</v>
       </c>
       <c r="H10" s="39">
-        <f>(F10/C10)*100</f>
+        <f t="shared" si="1"/>
         <v>6.7463041080889328</v>
       </c>
       <c r="I10" s="31">
@@ -2029,7 +1931,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="37">
@@ -2061,15 +1963,15 @@
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B4:J4 J5:J21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="aboveAverage" dxfId="3" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="colorScale" priority="1">
@@ -2096,36 +1998,38 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="18"/>
+    <col min="6" max="7" width="13.140625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -2512,13 +2416,1529 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A1" s="61">
+        <v>43252</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B2" s="65">
+        <v>130907515</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B3" s="67">
+        <v>137714682</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="55">
+        <v>147.316</v>
+      </c>
+      <c r="H3" s="55">
+        <v>0</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="55">
+        <v>147.66900000000001</v>
+      </c>
+      <c r="L3" s="55">
+        <v>0</v>
+      </c>
+      <c r="M3" s="55">
+        <v>-0.4</v>
+      </c>
+      <c r="N3" s="68">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B4" s="65">
+        <v>137763688</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1.93411</v>
+      </c>
+      <c r="H4" s="53">
+        <v>0</v>
+      </c>
+      <c r="I4" s="53">
+        <v>0</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="53">
+        <v>1.93946</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0</v>
+      </c>
+      <c r="M4" s="53">
+        <v>-21.8</v>
+      </c>
+      <c r="N4" s="69">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B5" s="67">
+        <v>138022429</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="55">
+        <v>1.51084</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="55">
+        <v>1.5121899999999999</v>
+      </c>
+      <c r="L5" s="55">
+        <v>0</v>
+      </c>
+      <c r="M5" s="55">
+        <v>-1.66</v>
+      </c>
+      <c r="N5" s="68">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B6" s="65">
+        <v>138393922</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.70413000000000003</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0.70118000000000003</v>
+      </c>
+      <c r="L6" s="53">
+        <v>0</v>
+      </c>
+      <c r="M6" s="53">
+        <v>-0.22</v>
+      </c>
+      <c r="N6" s="69">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B7" s="67">
+        <v>138461980</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="70">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B8" s="65">
+        <v>138475841</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="53">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1.6656299999999999</v>
+      </c>
+      <c r="H8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53">
+        <v>0</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="53">
+        <v>1.67709</v>
+      </c>
+      <c r="L8" s="53">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <v>-2.39</v>
+      </c>
+      <c r="N8" s="69">
+        <v>48.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B9" s="67">
+        <v>138654225</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="55">
+        <v>1.6786099999999999</v>
+      </c>
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="55">
+        <v>1.6778999999999999</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0</v>
+      </c>
+      <c r="N9" s="68">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B10" s="65">
+        <v>138723413</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="66">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B11" s="67">
+        <v>138732442</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="55">
+        <v>1.90551</v>
+      </c>
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="55">
+        <v>1.90669</v>
+      </c>
+      <c r="L11" s="55">
+        <v>0</v>
+      </c>
+      <c r="M11" s="55">
+        <v>-0.4</v>
+      </c>
+      <c r="N11" s="68">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B12" s="65">
+        <v>138736541</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="53">
+        <v>1.9080299999999999</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0</v>
+      </c>
+      <c r="I12" s="53">
+        <v>0</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="53">
+        <v>1.9093899999999999</v>
+      </c>
+      <c r="L12" s="53">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <v>-4.54</v>
+      </c>
+      <c r="N12" s="69">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B13" s="67">
+        <v>138897659</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="55">
+        <v>1.3014600000000001</v>
+      </c>
+      <c r="H13" s="55">
+        <v>0</v>
+      </c>
+      <c r="I13" s="55">
+        <v>0</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="55">
+        <v>1.29772</v>
+      </c>
+      <c r="L13" s="55">
+        <v>0</v>
+      </c>
+      <c r="M13" s="55">
+        <v>-0.88</v>
+      </c>
+      <c r="N13" s="68">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B14" s="65">
+        <v>138953312</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="53">
+        <v>147.58099999999999</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="53">
+        <v>147.79400000000001</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0</v>
+      </c>
+      <c r="M14" s="53">
+        <v>0</v>
+      </c>
+      <c r="N14" s="69">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B15" s="67">
+        <v>138963274</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="55">
+        <v>111.79300000000001</v>
+      </c>
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <v>0</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="55">
+        <v>111.069</v>
+      </c>
+      <c r="L15" s="55">
+        <v>0</v>
+      </c>
+      <c r="M15" s="55">
+        <v>0</v>
+      </c>
+      <c r="N15" s="68">
+        <v>32.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B16" s="65">
+        <v>139069945</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="53">
+        <v>1.52217</v>
+      </c>
+      <c r="H16" s="53">
+        <v>0</v>
+      </c>
+      <c r="I16" s="53">
+        <v>0</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="53">
+        <v>1.5281100000000001</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0</v>
+      </c>
+      <c r="M16" s="53">
+        <v>0</v>
+      </c>
+      <c r="N16" s="69">
+        <v>-31.59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B17" s="67">
+        <v>139070001</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="55">
+        <v>1.90944</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="I17" s="55">
+        <v>0</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="55">
+        <v>1.9113</v>
+      </c>
+      <c r="L17" s="55">
+        <v>0</v>
+      </c>
+      <c r="M17" s="55">
+        <v>0</v>
+      </c>
+      <c r="N17" s="68">
+        <v>-7.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B18" s="65">
+        <v>139076560</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0.13</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="53">
+        <v>1.66998</v>
+      </c>
+      <c r="H18" s="53">
+        <v>0</v>
+      </c>
+      <c r="I18" s="53">
+        <v>0</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="53">
+        <v>1.67113</v>
+      </c>
+      <c r="L18" s="53">
+        <v>0</v>
+      </c>
+      <c r="M18" s="53">
+        <v>0</v>
+      </c>
+      <c r="N18" s="69">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B19" s="67">
+        <v>139121598</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="55">
+        <v>1.67015</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="55">
+        <v>1.6797599999999999</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0</v>
+      </c>
+      <c r="M19" s="55">
+        <v>-0.97</v>
+      </c>
+      <c r="N19" s="68">
+        <v>66.22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B20" s="65">
+        <v>139177488</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0.06</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="53">
+        <v>1.7922199999999999</v>
+      </c>
+      <c r="H20" s="53">
+        <v>0</v>
+      </c>
+      <c r="I20" s="53">
+        <v>0</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="53">
+        <v>1.79392</v>
+      </c>
+      <c r="L20" s="53">
+        <v>0</v>
+      </c>
+      <c r="M20" s="53">
+        <v>0</v>
+      </c>
+      <c r="N20" s="69">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B21" s="67">
+        <v>139189288</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="55">
+        <v>1.79284</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
+        <v>0</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="55">
+        <v>1.78762</v>
+      </c>
+      <c r="L21" s="55">
+        <v>0</v>
+      </c>
+      <c r="M21" s="55">
+        <v>0</v>
+      </c>
+      <c r="N21" s="68">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B22" s="65">
+        <v>139193605</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="53">
+        <v>1.7907599999999999</v>
+      </c>
+      <c r="H22" s="53">
+        <v>0</v>
+      </c>
+      <c r="I22" s="53">
+        <v>0</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="53">
+        <v>1.7876399999999999</v>
+      </c>
+      <c r="L22" s="53">
+        <v>0</v>
+      </c>
+      <c r="M22" s="53">
+        <v>0</v>
+      </c>
+      <c r="N22" s="69">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B23" s="67">
+        <v>139209052</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="55">
+        <v>144.608</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0</v>
+      </c>
+      <c r="I23" s="55">
+        <v>0</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="55">
+        <v>145.274</v>
+      </c>
+      <c r="L23" s="55">
+        <v>0</v>
+      </c>
+      <c r="M23" s="55">
+        <v>-0.08</v>
+      </c>
+      <c r="N23" s="68">
+        <v>60.22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B24" s="65">
+        <v>139249180</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="66">
+        <v>699.54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B25" s="67">
+        <v>139254304</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="55">
+        <v>1.9072100000000001</v>
+      </c>
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="55">
+        <v>1.9213800000000001</v>
+      </c>
+      <c r="L25" s="55">
+        <v>0</v>
+      </c>
+      <c r="M25" s="55">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="N25" s="68">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B26" s="65">
+        <v>139288612</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="53">
+        <v>145.35</v>
+      </c>
+      <c r="H26" s="53">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53">
+        <v>0</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="53">
+        <v>146.04</v>
+      </c>
+      <c r="L26" s="53">
+        <v>0</v>
+      </c>
+      <c r="M26" s="53">
+        <v>-0.03</v>
+      </c>
+      <c r="N26" s="69">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B27" s="67">
+        <v>139320132</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="55">
+        <v>1.9212400000000001</v>
+      </c>
+      <c r="H27" s="55">
+        <v>0</v>
+      </c>
+      <c r="I27" s="55">
+        <v>0</v>
+      </c>
+      <c r="J27" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="55">
+        <v>1.91825</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0</v>
+      </c>
+      <c r="M27" s="55">
+        <v>0</v>
+      </c>
+      <c r="N27" s="68">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B28" s="65">
+        <v>139321846</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="53">
+        <v>0.13</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="53">
+        <v>145</v>
+      </c>
+      <c r="H28" s="53">
+        <v>0</v>
+      </c>
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="53">
+        <v>146.07</v>
+      </c>
+      <c r="L28" s="53">
+        <v>0</v>
+      </c>
+      <c r="M28" s="53">
+        <v>0</v>
+      </c>
+      <c r="N28" s="69">
+        <v>126.17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B29" s="67">
+        <v>139344009</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="55">
+        <v>1.9267300000000001</v>
+      </c>
+      <c r="H29" s="55">
+        <v>0</v>
+      </c>
+      <c r="I29" s="55">
+        <v>0</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="55">
+        <v>1.9274500000000001</v>
+      </c>
+      <c r="L29" s="55">
+        <v>0</v>
+      </c>
+      <c r="M29" s="55">
+        <v>0</v>
+      </c>
+      <c r="N29" s="68">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B30" s="65">
+        <v>139373451</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="53">
+        <v>145.71899999999999</v>
+      </c>
+      <c r="H30" s="53">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53">
+        <v>0</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="53">
+        <v>146.01400000000001</v>
+      </c>
+      <c r="L30" s="53">
+        <v>0</v>
+      </c>
+      <c r="M30" s="53">
+        <v>-0.02</v>
+      </c>
+      <c r="N30" s="69">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B31" s="67">
+        <v>139381854</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="55">
+        <v>0.08</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="55">
+        <v>145.947</v>
+      </c>
+      <c r="H31" s="55">
+        <v>0</v>
+      </c>
+      <c r="I31" s="55">
+        <v>0</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="55">
+        <v>146.01</v>
+      </c>
+      <c r="L31" s="55">
+        <v>0</v>
+      </c>
+      <c r="M31" s="55">
+        <v>0</v>
+      </c>
+      <c r="N31" s="68">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B32" s="65">
+        <v>139407314</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="53">
+        <v>1.32681</v>
+      </c>
+      <c r="H32" s="53">
+        <v>0</v>
+      </c>
+      <c r="I32" s="53">
+        <v>0</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="53">
+        <v>1.33399</v>
+      </c>
+      <c r="L32" s="53">
+        <v>0</v>
+      </c>
+      <c r="M32" s="53">
+        <v>0</v>
+      </c>
+      <c r="N32" s="69">
+        <v>-26.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B33" s="67">
+        <v>139426625</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="55">
+        <v>145.5</v>
+      </c>
+      <c r="H33" s="55">
+        <v>0</v>
+      </c>
+      <c r="I33" s="55">
+        <v>0</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" s="55">
+        <v>146.16900000000001</v>
+      </c>
+      <c r="L33" s="55">
+        <v>0</v>
+      </c>
+      <c r="M33" s="55">
+        <v>-0.23</v>
+      </c>
+      <c r="N33" s="68">
+        <v>120.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B34" s="65">
+        <v>139619569</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="53">
+        <v>1.16625</v>
+      </c>
+      <c r="H34" s="53">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53">
+        <v>0</v>
+      </c>
+      <c r="J34" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="K34" s="53">
+        <v>1.16649</v>
+      </c>
+      <c r="L34" s="53">
+        <v>0</v>
+      </c>
+      <c r="M34" s="53">
+        <v>0</v>
+      </c>
+      <c r="N34" s="69">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B35" s="67">
+        <v>139619621</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="55">
+        <v>0.08</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="55">
+        <v>1.1663300000000001</v>
+      </c>
+      <c r="H35" s="55">
+        <v>0</v>
+      </c>
+      <c r="I35" s="55">
+        <v>0</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="55">
+        <v>1.16723</v>
+      </c>
+      <c r="L35" s="55">
+        <v>0</v>
+      </c>
+      <c r="M35" s="55">
+        <v>-2.87</v>
+      </c>
+      <c r="N35" s="68">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B36" s="65">
+        <v>139682129</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="53">
+        <v>144.619</v>
+      </c>
+      <c r="H36" s="53">
+        <v>0</v>
+      </c>
+      <c r="I36" s="53">
+        <v>0</v>
+      </c>
+      <c r="J36" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="53">
+        <v>145.21700000000001</v>
+      </c>
+      <c r="L36" s="53">
+        <v>0</v>
+      </c>
+      <c r="M36" s="53">
+        <v>-0.04</v>
+      </c>
+      <c r="N36" s="69">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B37" s="67">
+        <v>139780262</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="70">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B38" s="71"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="57">
+        <v>0</v>
+      </c>
+      <c r="M38" s="57">
+        <v>-37.619999999999997</v>
+      </c>
+      <c r="N38" s="72">
+        <v>763.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
+      <c r="B39" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74">
+        <v>726.18</v>
+      </c>
+      <c r="N39" s="75"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E37:M37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
@@ -2698,17 +4118,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -2723,17 +4143,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -2830,17 +4250,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -2896,17 +4316,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -3003,17 +4423,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -3069,17 +4489,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -3135,17 +4555,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -3365,32 +4785,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -3402,30 +4822,35 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46">
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50">
         <v>745.39</v>
       </c>
-      <c r="N26" s="47"/>
+      <c r="N26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -3434,11 +4859,6 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="193">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -615,17 +618,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;%&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -665,7 +668,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -684,7 +687,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -978,7 +981,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1054,35 +1057,107 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1099,78 +1174,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1182,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="30">
     <dxf>
       <font>
         <b/>
@@ -1195,6 +1198,328 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1AA631"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0F22B1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1493,7 +1818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,13 +1830,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="10.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
     <col min="3" max="8" width="14" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="9" max="9" width="11.625" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -1581,9 +1906,12 @@
         <v>0</v>
       </c>
       <c r="I4" s="29">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19"/>
+        <f>C4+D4+(0.28*C4)</f>
+        <v>1127.8463999999999</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="28">
@@ -1610,9 +1938,12 @@
         <v>4.6440366347757989</v>
       </c>
       <c r="I5" s="29">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19"/>
+        <f t="shared" ref="I5:I10" si="2">C5+D5+(0.28*C5)</f>
+        <v>1527.8464000000001</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="28">
@@ -1640,9 +1971,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="29">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19"/>
+        <f t="shared" si="2"/>
+        <v>1692.2240000000002</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="28">
@@ -1670,9 +2004,12 @@
         <v>9.0132748383192762</v>
       </c>
       <c r="I7" s="29">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19"/>
+        <f t="shared" si="2"/>
+        <v>1692.2240000000002</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="28">
@@ -1700,9 +2037,12 @@
         <v>51.71973550003122</v>
       </c>
       <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19"/>
+        <f t="shared" si="2"/>
+        <v>2662.5588000000007</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="28">
@@ -1730,9 +2070,12 @@
         <v>26.557100069119109</v>
       </c>
       <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19"/>
+        <f t="shared" si="2"/>
+        <v>4199.5848000000005</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="28">
@@ -1759,8 +2102,9 @@
         <f t="shared" si="1"/>
         <v>6.7463041080889328</v>
       </c>
-      <c r="I10" s="31">
-        <v>5015.3999999999996</v>
+      <c r="I10" s="29">
+        <f t="shared" si="2"/>
+        <v>4979.3664000000008</v>
       </c>
       <c r="J10" s="19"/>
     </row>
@@ -1774,9 +2118,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="29"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="31">
-        <v>6449.8</v>
-      </c>
+      <c r="I11" s="29"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10">
@@ -1789,9 +2131,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="29"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="31">
-        <v>8294.4500000000007</v>
-      </c>
+      <c r="I12" s="31"/>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10">
@@ -1804,9 +2144,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="29"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="31">
-        <v>10666.66</v>
-      </c>
+      <c r="I13" s="31"/>
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:10">
@@ -1819,9 +2157,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="29"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="31">
-        <v>13717.33</v>
-      </c>
+      <c r="I14" s="31"/>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10">
@@ -1834,9 +2170,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="29"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="31">
-        <v>17640.48</v>
-      </c>
+      <c r="I15" s="31"/>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10">
@@ -1849,9 +2183,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="29"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="31">
-        <v>22685.66</v>
-      </c>
+      <c r="I16" s="31"/>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10">
@@ -1864,9 +2196,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="29"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="31">
-        <v>29173.759999999998</v>
-      </c>
+      <c r="I17" s="31"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10">
@@ -1879,9 +2209,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="29"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="31">
-        <v>37517.449999999997</v>
-      </c>
+      <c r="I18" s="31"/>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10">
@@ -1894,9 +2222,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="29"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="31">
-        <v>48247.44</v>
-      </c>
+      <c r="I19" s="31"/>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10">
@@ -1909,9 +2235,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="29"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="31">
-        <v>62046.21</v>
-      </c>
+      <c r="I20" s="31"/>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10">
@@ -1924,9 +2248,7 @@
       <c r="F21" s="30"/>
       <c r="G21" s="29"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="31">
-        <v>79791.429999999993</v>
-      </c>
+      <c r="I21" s="31"/>
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10">
@@ -1962,24 +2284,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
-  <conditionalFormatting sqref="B4:J4 J5:J21">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="B4:J4 J5:J21 H12:H21 H5:I11">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="aboveAverage" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="$G$10"/>
         <cfvo type="formula" val="$G$10"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="28.6"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2002,34 +2333,34 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="13.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="18" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="6" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -2420,1491 +2751,1491 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A1" s="61">
+      <c r="A1" s="50">
         <v>43252</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B2" s="65">
+    <row r="2" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B2" s="54">
         <v>130907515</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="66" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="55" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B3" s="67">
+    <row r="3" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B3" s="56">
         <v>137714682</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="47">
         <v>0.1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>147.316</v>
       </c>
-      <c r="H3" s="55">
-        <v>0</v>
-      </c>
-      <c r="I3" s="55">
-        <v>0</v>
-      </c>
-      <c r="J3" s="56" t="s">
+      <c r="H3" s="47">
+        <v>0</v>
+      </c>
+      <c r="I3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="47">
         <v>147.66900000000001</v>
       </c>
-      <c r="L3" s="55">
-        <v>0</v>
-      </c>
-      <c r="M3" s="55">
+      <c r="L3" s="47">
+        <v>0</v>
+      </c>
+      <c r="M3" s="47">
         <v>-0.4</v>
       </c>
-      <c r="N3" s="68">
+      <c r="N3" s="57">
         <v>31.93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B4" s="65">
+    <row r="4" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B4" s="54">
         <v>137763688</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="45">
         <v>0.1</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="45">
         <v>1.93411</v>
       </c>
-      <c r="H4" s="53">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53">
-        <v>0</v>
-      </c>
-      <c r="J4" s="54" t="s">
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0</v>
+      </c>
+      <c r="J4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="45">
         <v>1.93946</v>
       </c>
-      <c r="L4" s="53">
-        <v>0</v>
-      </c>
-      <c r="M4" s="53">
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
         <v>-21.8</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="58">
         <v>36.47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B5" s="67">
+    <row r="5" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B5" s="56">
         <v>138022429</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="47">
         <v>0.06</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="47">
         <v>1.51084</v>
       </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0</v>
-      </c>
-      <c r="J5" s="56" t="s">
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="47">
         <v>1.5121899999999999</v>
       </c>
-      <c r="L5" s="55">
-        <v>0</v>
-      </c>
-      <c r="M5" s="55">
+      <c r="L5" s="47">
+        <v>0</v>
+      </c>
+      <c r="M5" s="47">
         <v>-1.66</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="57">
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B6" s="65">
+    <row r="6" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B6" s="54">
         <v>138393922</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <v>0.08</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="45">
         <v>0.70413000000000003</v>
       </c>
-      <c r="H6" s="53">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53">
-        <v>0</v>
-      </c>
-      <c r="J6" s="54" t="s">
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="45">
         <v>0.70118000000000003</v>
       </c>
-      <c r="L6" s="53">
-        <v>0</v>
-      </c>
-      <c r="M6" s="53">
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45">
         <v>-0.22</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="58">
         <v>23.6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B7" s="67">
+    <row r="7" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B7" s="56">
         <v>138461980</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="70">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="59">
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B8" s="65">
+    <row r="8" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B8" s="54">
         <v>138475841</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="45">
         <v>0.06</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="45">
         <v>1.6656299999999999</v>
       </c>
-      <c r="H8" s="53">
-        <v>0</v>
-      </c>
-      <c r="I8" s="53">
-        <v>0</v>
-      </c>
-      <c r="J8" s="54" t="s">
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="45">
         <v>1.67709</v>
       </c>
-      <c r="L8" s="53">
-        <v>0</v>
-      </c>
-      <c r="M8" s="53">
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45">
         <v>-2.39</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="58">
         <v>48.47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B9" s="67">
+    <row r="9" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B9" s="56">
         <v>138654225</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="47">
         <v>0.05</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="47">
         <v>1.6786099999999999</v>
       </c>
-      <c r="H9" s="55">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55">
-        <v>0</v>
-      </c>
-      <c r="J9" s="56" t="s">
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="I9" s="47">
+        <v>0</v>
+      </c>
+      <c r="J9" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="47">
         <v>1.6778999999999999</v>
       </c>
-      <c r="L9" s="55">
-        <v>0</v>
-      </c>
-      <c r="M9" s="55">
-        <v>0</v>
-      </c>
-      <c r="N9" s="68">
+      <c r="L9" s="47">
+        <v>0</v>
+      </c>
+      <c r="M9" s="47">
+        <v>0</v>
+      </c>
+      <c r="N9" s="57">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B10" s="65">
+    <row r="10" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B10" s="54">
         <v>138723413</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="66">
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="55">
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B11" s="67">
+    <row r="11" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B11" s="56">
         <v>138732442</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="47">
         <v>0.01</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="47">
         <v>1.90551</v>
       </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
-      <c r="J11" s="56" t="s">
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
+        <v>0</v>
+      </c>
+      <c r="J11" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="47">
         <v>1.90669</v>
       </c>
-      <c r="L11" s="55">
-        <v>0</v>
-      </c>
-      <c r="M11" s="55">
+      <c r="L11" s="47">
+        <v>0</v>
+      </c>
+      <c r="M11" s="47">
         <v>-0.4</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="57">
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B12" s="65">
+    <row r="12" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B12" s="54">
         <v>138736541</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="45">
         <v>0.12</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="45">
         <v>1.9080299999999999</v>
       </c>
-      <c r="H12" s="53">
-        <v>0</v>
-      </c>
-      <c r="I12" s="53">
-        <v>0</v>
-      </c>
-      <c r="J12" s="54" t="s">
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="45">
         <v>1.9093899999999999</v>
       </c>
-      <c r="L12" s="53">
-        <v>0</v>
-      </c>
-      <c r="M12" s="53">
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="45">
         <v>-4.54</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="58">
         <v>11.35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B13" s="67">
+    <row r="13" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B13" s="56">
         <v>138897659</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="47">
         <v>0.12</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="47">
         <v>1.3014600000000001</v>
       </c>
-      <c r="H13" s="55">
-        <v>0</v>
-      </c>
-      <c r="I13" s="55">
-        <v>0</v>
-      </c>
-      <c r="J13" s="56" t="s">
+      <c r="H13" s="47">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="47">
         <v>1.29772</v>
       </c>
-      <c r="L13" s="55">
-        <v>0</v>
-      </c>
-      <c r="M13" s="55">
+      <c r="L13" s="47">
+        <v>0</v>
+      </c>
+      <c r="M13" s="47">
         <v>-0.88</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="57">
         <v>34.58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B14" s="65">
+    <row r="14" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B14" s="54">
         <v>138953312</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="45">
         <v>0.05</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="45">
         <v>147.58099999999999</v>
       </c>
-      <c r="H14" s="53">
-        <v>0</v>
-      </c>
-      <c r="I14" s="53">
-        <v>0</v>
-      </c>
-      <c r="J14" s="54" t="s">
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <v>0</v>
+      </c>
+      <c r="J14" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="45">
         <v>147.79400000000001</v>
       </c>
-      <c r="L14" s="53">
-        <v>0</v>
-      </c>
-      <c r="M14" s="53">
-        <v>0</v>
-      </c>
-      <c r="N14" s="69">
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+      <c r="M14" s="45">
+        <v>0</v>
+      </c>
+      <c r="N14" s="58">
         <v>9.68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B15" s="67">
+    <row r="15" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B15" s="56">
         <v>138963274</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="47">
         <v>0.05</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="47">
         <v>111.79300000000001</v>
       </c>
-      <c r="H15" s="55">
-        <v>0</v>
-      </c>
-      <c r="I15" s="55">
-        <v>0</v>
-      </c>
-      <c r="J15" s="56" t="s">
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="47">
         <v>111.069</v>
       </c>
-      <c r="L15" s="55">
-        <v>0</v>
-      </c>
-      <c r="M15" s="55">
-        <v>0</v>
-      </c>
-      <c r="N15" s="68">
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="57">
         <v>32.78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B16" s="65">
+    <row r="16" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B16" s="54">
         <v>139069945</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="45">
         <v>1.52217</v>
       </c>
-      <c r="H16" s="53">
-        <v>0</v>
-      </c>
-      <c r="I16" s="53">
-        <v>0</v>
-      </c>
-      <c r="J16" s="54" t="s">
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="45">
         <v>1.5281100000000001</v>
       </c>
-      <c r="L16" s="53">
-        <v>0</v>
-      </c>
-      <c r="M16" s="53">
-        <v>0</v>
-      </c>
-      <c r="N16" s="69">
+      <c r="L16" s="45">
+        <v>0</v>
+      </c>
+      <c r="M16" s="45">
+        <v>0</v>
+      </c>
+      <c r="N16" s="58">
         <v>-31.59</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B17" s="67">
+    <row r="17" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B17" s="56">
         <v>139070001</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="47">
         <v>0.06</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="47">
         <v>1.90944</v>
       </c>
-      <c r="H17" s="55">
-        <v>0</v>
-      </c>
-      <c r="I17" s="55">
-        <v>0</v>
-      </c>
-      <c r="J17" s="56" t="s">
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="47">
         <v>1.9113</v>
       </c>
-      <c r="L17" s="55">
-        <v>0</v>
-      </c>
-      <c r="M17" s="55">
-        <v>0</v>
-      </c>
-      <c r="N17" s="68">
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="57">
         <v>-7.75</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B18" s="65">
+    <row r="18" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B18" s="54">
         <v>139076560</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="45">
         <v>0.13</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="45">
         <v>1.66998</v>
       </c>
-      <c r="H18" s="53">
-        <v>0</v>
-      </c>
-      <c r="I18" s="53">
-        <v>0</v>
-      </c>
-      <c r="J18" s="54" t="s">
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="45">
         <v>1.67113</v>
       </c>
-      <c r="L18" s="53">
-        <v>0</v>
-      </c>
-      <c r="M18" s="53">
-        <v>0</v>
-      </c>
-      <c r="N18" s="69">
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+      <c r="M18" s="45">
+        <v>0</v>
+      </c>
+      <c r="N18" s="58">
         <v>10.39</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B19" s="67">
+    <row r="19" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B19" s="56">
         <v>139121598</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="47">
         <v>0.1</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="47">
         <v>1.67015</v>
       </c>
-      <c r="H19" s="55">
-        <v>0</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0</v>
-      </c>
-      <c r="J19" s="56" t="s">
+      <c r="H19" s="47">
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
+        <v>0</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="47">
         <v>1.6797599999999999</v>
       </c>
-      <c r="L19" s="55">
-        <v>0</v>
-      </c>
-      <c r="M19" s="55">
+      <c r="L19" s="47">
+        <v>0</v>
+      </c>
+      <c r="M19" s="47">
         <v>-0.97</v>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="57">
         <v>66.22</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B20" s="65">
+    <row r="20" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B20" s="54">
         <v>139177488</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="45">
         <v>0.06</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="45">
         <v>1.7922199999999999</v>
       </c>
-      <c r="H20" s="53">
-        <v>0</v>
-      </c>
-      <c r="I20" s="53">
-        <v>0</v>
-      </c>
-      <c r="J20" s="54" t="s">
+      <c r="H20" s="45">
+        <v>0</v>
+      </c>
+      <c r="I20" s="45">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="45">
         <v>1.79392</v>
       </c>
-      <c r="L20" s="53">
-        <v>0</v>
-      </c>
-      <c r="M20" s="53">
-        <v>0</v>
-      </c>
-      <c r="N20" s="69">
+      <c r="L20" s="45">
+        <v>0</v>
+      </c>
+      <c r="M20" s="45">
+        <v>0</v>
+      </c>
+      <c r="N20" s="58">
         <v>7.51</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B21" s="67">
+    <row r="21" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B21" s="56">
         <v>139189288</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="47">
         <v>0.06</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="47">
         <v>1.79284</v>
       </c>
-      <c r="H21" s="55">
-        <v>0</v>
-      </c>
-      <c r="I21" s="55">
-        <v>0</v>
-      </c>
-      <c r="J21" s="56" t="s">
+      <c r="H21" s="47">
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="47">
         <v>1.78762</v>
       </c>
-      <c r="L21" s="55">
-        <v>0</v>
-      </c>
-      <c r="M21" s="55">
-        <v>0</v>
-      </c>
-      <c r="N21" s="68">
+      <c r="L21" s="47">
+        <v>0</v>
+      </c>
+      <c r="M21" s="47">
+        <v>0</v>
+      </c>
+      <c r="N21" s="57">
         <v>23.07</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B22" s="65">
+    <row r="22" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B22" s="54">
         <v>139193605</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="45">
         <v>0.05</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="45">
         <v>1.7907599999999999</v>
       </c>
-      <c r="H22" s="53">
-        <v>0</v>
-      </c>
-      <c r="I22" s="53">
-        <v>0</v>
-      </c>
-      <c r="J22" s="54" t="s">
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="45">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="45">
         <v>1.7876399999999999</v>
       </c>
-      <c r="L22" s="53">
-        <v>0</v>
-      </c>
-      <c r="M22" s="53">
-        <v>0</v>
-      </c>
-      <c r="N22" s="69">
+      <c r="L22" s="45">
+        <v>0</v>
+      </c>
+      <c r="M22" s="45">
+        <v>0</v>
+      </c>
+      <c r="N22" s="58">
         <v>11.49</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B23" s="67">
+    <row r="23" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B23" s="56">
         <v>139209052</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="47">
         <v>0.1</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="47">
         <v>144.608</v>
       </c>
-      <c r="H23" s="55">
-        <v>0</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0</v>
-      </c>
-      <c r="J23" s="56" t="s">
+      <c r="H23" s="47">
+        <v>0</v>
+      </c>
+      <c r="I23" s="47">
+        <v>0</v>
+      </c>
+      <c r="J23" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="47">
         <v>145.274</v>
       </c>
-      <c r="L23" s="55">
-        <v>0</v>
-      </c>
-      <c r="M23" s="55">
+      <c r="L23" s="47">
+        <v>0</v>
+      </c>
+      <c r="M23" s="47">
         <v>-0.08</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="57">
         <v>60.22</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B24" s="65">
+    <row r="24" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B24" s="54">
         <v>139249180</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="66">
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="55">
         <v>699.54</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B25" s="67">
+    <row r="25" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B25" s="56">
         <v>139254304</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="47">
         <v>0.06</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="47">
         <v>1.9072100000000001</v>
       </c>
-      <c r="H25" s="55">
-        <v>0</v>
-      </c>
-      <c r="I25" s="55">
-        <v>0</v>
-      </c>
-      <c r="J25" s="56" t="s">
+      <c r="H25" s="47">
+        <v>0</v>
+      </c>
+      <c r="I25" s="47">
+        <v>0</v>
+      </c>
+      <c r="J25" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="47">
         <v>1.9213800000000001</v>
       </c>
-      <c r="L25" s="55">
-        <v>0</v>
-      </c>
-      <c r="M25" s="55">
+      <c r="L25" s="47">
+        <v>0</v>
+      </c>
+      <c r="M25" s="47">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="N25" s="68">
+      <c r="N25" s="57">
         <v>58.1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B26" s="65">
+    <row r="26" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B26" s="54">
         <v>139288612</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="45">
         <v>0.05</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="45">
         <v>145.35</v>
       </c>
-      <c r="H26" s="53">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
-        <v>0</v>
-      </c>
-      <c r="J26" s="54" t="s">
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+      <c r="I26" s="45">
+        <v>0</v>
+      </c>
+      <c r="J26" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="45">
         <v>146.04</v>
       </c>
-      <c r="L26" s="53">
-        <v>0</v>
-      </c>
-      <c r="M26" s="53">
+      <c r="L26" s="45">
+        <v>0</v>
+      </c>
+      <c r="M26" s="45">
         <v>-0.03</v>
       </c>
-      <c r="N26" s="69">
+      <c r="N26" s="58">
         <v>31.29</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B27" s="67">
+    <row r="27" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B27" s="56">
         <v>139320132</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="47">
         <v>0.05</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="47">
         <v>1.9212400000000001</v>
       </c>
-      <c r="H27" s="55">
-        <v>0</v>
-      </c>
-      <c r="I27" s="55">
-        <v>0</v>
-      </c>
-      <c r="J27" s="56" t="s">
+      <c r="H27" s="47">
+        <v>0</v>
+      </c>
+      <c r="I27" s="47">
+        <v>0</v>
+      </c>
+      <c r="J27" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="47">
         <v>1.91825</v>
       </c>
-      <c r="L27" s="55">
-        <v>0</v>
-      </c>
-      <c r="M27" s="55">
-        <v>0</v>
-      </c>
-      <c r="N27" s="68">
+      <c r="L27" s="47">
+        <v>0</v>
+      </c>
+      <c r="M27" s="47">
+        <v>0</v>
+      </c>
+      <c r="N27" s="57">
         <v>10.23</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B28" s="65">
+    <row r="28" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B28" s="54">
         <v>139321846</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="45">
         <v>0.13</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="45">
         <v>145</v>
       </c>
-      <c r="H28" s="53">
-        <v>0</v>
-      </c>
-      <c r="I28" s="53">
-        <v>0</v>
-      </c>
-      <c r="J28" s="54" t="s">
+      <c r="H28" s="45">
+        <v>0</v>
+      </c>
+      <c r="I28" s="45">
+        <v>0</v>
+      </c>
+      <c r="J28" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="45">
         <v>146.07</v>
       </c>
-      <c r="L28" s="53">
-        <v>0</v>
-      </c>
-      <c r="M28" s="53">
-        <v>0</v>
-      </c>
-      <c r="N28" s="69">
+      <c r="L28" s="45">
+        <v>0</v>
+      </c>
+      <c r="M28" s="45">
+        <v>0</v>
+      </c>
+      <c r="N28" s="58">
         <v>126.17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B29" s="67">
+    <row r="29" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B29" s="56">
         <v>139344009</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="47">
         <v>0.05</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="47">
         <v>1.9267300000000001</v>
       </c>
-      <c r="H29" s="55">
-        <v>0</v>
-      </c>
-      <c r="I29" s="55">
-        <v>0</v>
-      </c>
-      <c r="J29" s="56" t="s">
+      <c r="H29" s="47">
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="55">
+      <c r="K29" s="47">
         <v>1.9274500000000001</v>
       </c>
-      <c r="L29" s="55">
-        <v>0</v>
-      </c>
-      <c r="M29" s="55">
-        <v>0</v>
-      </c>
-      <c r="N29" s="68">
+      <c r="L29" s="47">
+        <v>0</v>
+      </c>
+      <c r="M29" s="47">
+        <v>0</v>
+      </c>
+      <c r="N29" s="57">
         <v>2.48</v>
       </c>
     </row>
-    <row r="30" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B30" s="65">
+    <row r="30" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B30" s="54">
         <v>139373451</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="45">
         <v>0.1</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="45">
         <v>145.71899999999999</v>
       </c>
-      <c r="H30" s="53">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53">
-        <v>0</v>
-      </c>
-      <c r="J30" s="54" t="s">
+      <c r="H30" s="45">
+        <v>0</v>
+      </c>
+      <c r="I30" s="45">
+        <v>0</v>
+      </c>
+      <c r="J30" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="45">
         <v>146.01400000000001</v>
       </c>
-      <c r="L30" s="53">
-        <v>0</v>
-      </c>
-      <c r="M30" s="53">
+      <c r="L30" s="45">
+        <v>0</v>
+      </c>
+      <c r="M30" s="45">
         <v>-0.02</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="58">
         <v>26.8</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B31" s="67">
+    <row r="31" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B31" s="56">
         <v>139381854</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="47">
         <v>0.08</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="47">
         <v>145.947</v>
       </c>
-      <c r="H31" s="55">
-        <v>0</v>
-      </c>
-      <c r="I31" s="55">
-        <v>0</v>
-      </c>
-      <c r="J31" s="56" t="s">
+      <c r="H31" s="47">
+        <v>0</v>
+      </c>
+      <c r="I31" s="47">
+        <v>0</v>
+      </c>
+      <c r="J31" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="K31" s="55">
+      <c r="K31" s="47">
         <v>146.01</v>
       </c>
-      <c r="L31" s="55">
-        <v>0</v>
-      </c>
-      <c r="M31" s="55">
-        <v>0</v>
-      </c>
-      <c r="N31" s="68">
+      <c r="L31" s="47">
+        <v>0</v>
+      </c>
+      <c r="M31" s="47">
+        <v>0</v>
+      </c>
+      <c r="N31" s="57">
         <v>4.58</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B32" s="65">
+    <row r="32" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B32" s="54">
         <v>139407314</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="45">
         <v>0.05</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="45">
         <v>1.32681</v>
       </c>
-      <c r="H32" s="53">
-        <v>0</v>
-      </c>
-      <c r="I32" s="53">
-        <v>0</v>
-      </c>
-      <c r="J32" s="54" t="s">
+      <c r="H32" s="45">
+        <v>0</v>
+      </c>
+      <c r="I32" s="45">
+        <v>0</v>
+      </c>
+      <c r="J32" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="45">
         <v>1.33399</v>
       </c>
-      <c r="L32" s="53">
-        <v>0</v>
-      </c>
-      <c r="M32" s="53">
-        <v>0</v>
-      </c>
-      <c r="N32" s="69">
+      <c r="L32" s="45">
+        <v>0</v>
+      </c>
+      <c r="M32" s="45">
+        <v>0</v>
+      </c>
+      <c r="N32" s="58">
         <v>-26.91</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B33" s="67">
+    <row r="33" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B33" s="56">
         <v>139426625</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="47">
         <v>0.2</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="47">
         <v>145.5</v>
       </c>
-      <c r="H33" s="55">
-        <v>0</v>
-      </c>
-      <c r="I33" s="55">
-        <v>0</v>
-      </c>
-      <c r="J33" s="56" t="s">
+      <c r="H33" s="47">
+        <v>0</v>
+      </c>
+      <c r="I33" s="47">
+        <v>0</v>
+      </c>
+      <c r="J33" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="K33" s="55">
+      <c r="K33" s="47">
         <v>146.16900000000001</v>
       </c>
-      <c r="L33" s="55">
-        <v>0</v>
-      </c>
-      <c r="M33" s="55">
+      <c r="L33" s="47">
+        <v>0</v>
+      </c>
+      <c r="M33" s="47">
         <v>-0.23</v>
       </c>
-      <c r="N33" s="68">
+      <c r="N33" s="57">
         <v>120.79</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B34" s="65">
+    <row r="34" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B34" s="54">
         <v>139619569</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="45">
         <v>0.08</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="45">
         <v>1.16625</v>
       </c>
-      <c r="H34" s="53">
-        <v>0</v>
-      </c>
-      <c r="I34" s="53">
-        <v>0</v>
-      </c>
-      <c r="J34" s="54" t="s">
+      <c r="H34" s="45">
+        <v>0</v>
+      </c>
+      <c r="I34" s="45">
+        <v>0</v>
+      </c>
+      <c r="J34" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="45">
         <v>1.16649</v>
       </c>
-      <c r="L34" s="53">
-        <v>0</v>
-      </c>
-      <c r="M34" s="53">
-        <v>0</v>
-      </c>
-      <c r="N34" s="69">
+      <c r="L34" s="45">
+        <v>0</v>
+      </c>
+      <c r="M34" s="45">
+        <v>0</v>
+      </c>
+      <c r="N34" s="58">
         <v>-1.92</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B35" s="67">
+    <row r="35" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B35" s="56">
         <v>139619621</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="47">
         <v>0.08</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="47">
         <v>1.1663300000000001</v>
       </c>
-      <c r="H35" s="55">
-        <v>0</v>
-      </c>
-      <c r="I35" s="55">
-        <v>0</v>
-      </c>
-      <c r="J35" s="56" t="s">
+      <c r="H35" s="47">
+        <v>0</v>
+      </c>
+      <c r="I35" s="47">
+        <v>0</v>
+      </c>
+      <c r="J35" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="K35" s="55">
+      <c r="K35" s="47">
         <v>1.16723</v>
       </c>
-      <c r="L35" s="55">
-        <v>0</v>
-      </c>
-      <c r="M35" s="55">
+      <c r="L35" s="47">
+        <v>0</v>
+      </c>
+      <c r="M35" s="47">
         <v>-2.87</v>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="57">
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B36" s="65">
+    <row r="36" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B36" s="54">
         <v>139682129</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="45">
         <v>0.05</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="45">
         <v>144.619</v>
       </c>
-      <c r="H36" s="53">
-        <v>0</v>
-      </c>
-      <c r="I36" s="53">
-        <v>0</v>
-      </c>
-      <c r="J36" s="54" t="s">
+      <c r="H36" s="45">
+        <v>0</v>
+      </c>
+      <c r="I36" s="45">
+        <v>0</v>
+      </c>
+      <c r="J36" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="45">
         <v>145.21700000000001</v>
       </c>
-      <c r="L36" s="53">
-        <v>0</v>
-      </c>
-      <c r="M36" s="53">
+      <c r="L36" s="45">
+        <v>0</v>
+      </c>
+      <c r="M36" s="45">
         <v>-0.04</v>
       </c>
-      <c r="N36" s="69">
+      <c r="N36" s="58">
         <v>27.01</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B37" s="67">
+    <row r="37" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B37" s="56">
         <v>139780262</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="70">
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="59">
         <v>-150</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B38" s="71"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="57">
-        <v>0</v>
-      </c>
-      <c r="M38" s="57">
+    <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="49">
+        <v>0</v>
+      </c>
+      <c r="M38" s="49">
         <v>-37.619999999999997</v>
       </c>
-      <c r="N38" s="72">
+      <c r="N38" s="60">
         <v>763.8</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74">
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65">
         <v>726.18</v>
       </c>
-      <c r="N39" s="75"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -3913,17 +4244,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E37:M37"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E37:M37"/>
   </mergeCells>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3936,9 +4268,9 @@
       <selection activeCell="A29" sqref="A29:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
@@ -4118,17 +4450,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4143,17 +4475,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4250,17 +4582,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4316,17 +4648,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4423,17 +4755,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4489,17 +4821,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -4555,17 +4887,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -4785,32 +5117,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -4822,35 +5154,30 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50">
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74">
         <v>745.39</v>
       </c>
-      <c r="N26" s="51"/>
+      <c r="N26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -4859,6 +5186,11 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="194">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1134,6 +1137,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1149,32 +1158,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1182,323 +1185,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF1AA631"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FF0F22B1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF0F22B1"/>
@@ -1818,7 +1505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1906,11 +1593,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="29">
-        <f>C4+D4+(0.28*C4)</f>
-        <v>1127.8463999999999</v>
+        <f>C4+D4+(0.286*C4)</f>
+        <v>1133.13318</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1938,11 +1625,11 @@
         <v>4.6440366347757989</v>
       </c>
       <c r="I5" s="29">
-        <f t="shared" ref="I5:I10" si="2">C5+D5+(0.28*C5)</f>
-        <v>1527.8464000000001</v>
+        <f t="shared" ref="I5:I10" si="2">C5+D5+(0.286*C5)</f>
+        <v>1533.13318</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1972,10 +1659,10 @@
       </c>
       <c r="I6" s="29">
         <f t="shared" si="2"/>
-        <v>1692.2240000000002</v>
+        <v>1700.1563000000001</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -2005,10 +1692,10 @@
       </c>
       <c r="I7" s="29">
         <f t="shared" si="2"/>
-        <v>1692.2240000000002</v>
+        <v>1700.1563000000001</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -2038,7 +1725,7 @@
       </c>
       <c r="I8" s="29">
         <f t="shared" si="2"/>
-        <v>2662.5588000000007</v>
+        <v>2671.2060600000004</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>192</v>
@@ -2071,7 +1758,7 @@
       </c>
       <c r="I9" s="29">
         <f t="shared" si="2"/>
-        <v>4199.5848000000005</v>
+        <v>4215.9912600000007</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>192</v>
@@ -2104,7 +1791,7 @@
       </c>
       <c r="I10" s="29">
         <f t="shared" si="2"/>
-        <v>4979.3664000000008</v>
+        <v>5002.7071800000003</v>
       </c>
       <c r="J10" s="19"/>
     </row>
@@ -2285,10 +1972,10 @@
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B4:J4 J5:J21 H12:H21 H5:I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2329,9 +2016,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
@@ -2807,17 +2492,17 @@
       <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="55" t="s">
         <v>114</v>
       </c>
@@ -2996,17 +2681,17 @@
       <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
       <c r="N7" s="59">
         <v>-100</v>
       </c>
@@ -3103,17 +2788,17 @@
       <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
       <c r="N10" s="55">
         <v>-20</v>
       </c>
@@ -3661,17 +3346,17 @@
       <c r="D24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="55">
         <v>699.54</v>
       </c>
@@ -4178,32 +3863,32 @@
       <c r="D37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="59">
         <v>-150</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="49">
         <v>0</v>
       </c>
@@ -4215,27 +3900,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65" t="s">
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65">
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67">
         <v>726.18</v>
       </c>
-      <c r="N39" s="66"/>
+      <c r="N39" s="68"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -4244,16 +3929,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E24:M24"/>
     <mergeCell ref="E37:M37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4264,9 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD67"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
@@ -4450,17 +4133,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4475,17 +4158,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4582,17 +4265,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4648,17 +4331,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4755,17 +4438,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4821,17 +4504,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -4887,17 +4570,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -5117,32 +4800,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -5154,30 +4837,35 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74">
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73">
         <v>745.39</v>
       </c>
-      <c r="N26" s="75"/>
+      <c r="N26" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -5186,11 +4874,6 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1137,26 +1137,29 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1175,9 +1178,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1185,29 +1185,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF0F22B1"/>
@@ -1505,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1513,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1521,8 +1499,9 @@
   <cols>
     <col min="1" max="1" width="9.125" style="18"/>
     <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
-    <col min="3" max="8" width="14" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="18" customWidth="1"/>
+    <col min="3" max="7" width="14" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14" style="18" customWidth="1"/>
     <col min="10" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
@@ -1558,11 +1537,11 @@
       <c r="G3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>110</v>
@@ -1588,13 +1567,13 @@
         <f t="shared" ref="G4:G10" si="0">C4+D4+F4-E4</f>
         <v>881.13</v>
       </c>
-      <c r="H4" s="39">
-        <f t="shared" ref="H4:H10" si="1">(F4/C4)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="29">
+      <c r="H4" s="29">
         <f>C4+D4+(0.286*C4)</f>
         <v>1133.13318</v>
+      </c>
+      <c r="I4" s="39">
+        <f t="shared" ref="I4:I10" si="1">(F4/C4)*100</f>
+        <v>0</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>193</v>
@@ -1620,13 +1599,13 @@
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="29">
+        <f>C5+D5+(0.286*C5)</f>
+        <v>1533.13318</v>
+      </c>
+      <c r="I5" s="39">
         <f t="shared" si="1"/>
         <v>4.6440366347757989</v>
-      </c>
-      <c r="I5" s="29">
-        <f t="shared" ref="I5:I10" si="2">C5+D5+(0.286*C5)</f>
-        <v>1533.13318</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>193</v>
@@ -1653,13 +1632,13 @@
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="29">
+        <f>C6+D6+(0.286*C6)</f>
+        <v>1700.1563000000001</v>
+      </c>
+      <c r="I6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="I6" s="29">
-        <f t="shared" si="2"/>
-        <v>1700.1563000000001</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>193</v>
@@ -1686,13 +1665,13 @@
         <f t="shared" si="0"/>
         <v>1441.2100000000003</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="29">
+        <f>C7+D7+(0.286*C7)</f>
+        <v>1700.1563000000001</v>
+      </c>
+      <c r="I7" s="39">
         <f t="shared" si="1"/>
         <v>9.0132748383192762</v>
-      </c>
-      <c r="I7" s="29">
-        <f t="shared" si="2"/>
-        <v>1700.1563000000001</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>193</v>
@@ -1719,13 +1698,13 @@
         <f t="shared" si="0"/>
         <v>2734.4100000000003</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="29">
+        <f>C8+D8+(0.286*C8)</f>
+        <v>2671.2060600000004</v>
+      </c>
+      <c r="I8" s="39">
         <f t="shared" si="1"/>
         <v>51.71973550003122</v>
-      </c>
-      <c r="I8" s="29">
-        <f t="shared" si="2"/>
-        <v>2671.2060600000004</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>192</v>
@@ -1752,16 +1731,16 @@
         <f t="shared" si="0"/>
         <v>3890.13</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="29">
+        <f>C9+D9+(0.286*C9)</f>
+        <v>4215.9912600000007</v>
+      </c>
+      <c r="I9" s="39">
         <f t="shared" si="1"/>
         <v>26.557100069119109</v>
       </c>
-      <c r="I9" s="29">
-        <f t="shared" si="2"/>
-        <v>4215.9912600000007</v>
-      </c>
       <c r="J9" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -1779,203 +1758,71 @@
         <v>0</v>
       </c>
       <c r="F10" s="30">
-        <v>262.44</v>
+        <v>350.89</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>4152.57</v>
-      </c>
-      <c r="H10" s="39">
+        <v>4241.0200000000004</v>
+      </c>
+      <c r="H10" s="29">
+        <f>C10+D10+(0.286*C10)</f>
+        <v>5002.7071800000003</v>
+      </c>
+      <c r="I10" s="39">
         <f t="shared" si="1"/>
-        <v>6.7463041080889328</v>
-      </c>
-      <c r="I10" s="29">
-        <f t="shared" si="2"/>
-        <v>5002.7071800000003</v>
+        <v>9.0200070434664124</v>
       </c>
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="28">
-        <v>43313</v>
-      </c>
+      <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="28">
-        <v>43344</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37">
+        <f>SUM(D5:D11)</f>
+        <v>1917.35</v>
+      </c>
+      <c r="E12" s="37">
+        <f>SUM(E5:E11)</f>
+        <v>540</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="38">
+        <f>AVERAGE(I5:I11)</f>
+        <v>16.825692347618634</v>
+      </c>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="28">
-        <v>43374</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="28">
-        <v>43405</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="28">
-        <v>43435</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="28">
-        <v>43466</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="28">
-        <v>43497</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="28">
-        <v>43525</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="28">
-        <v>43556</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="28">
-        <v>43586</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="28">
-        <v>43617</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37">
-        <f>SUM(D5:D21)</f>
-        <v>1917.35</v>
-      </c>
-      <c r="E22" s="37">
-        <f>SUM(E5:E21)</f>
-        <v>540</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="38">
-        <f>AVERAGE(H5:H21)</f>
-        <v>16.446741858389057</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32"/>
+      <c r="I13" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
-  <conditionalFormatting sqref="B4:J4 J5:J21 H12:H21 H5:I11">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <conditionalFormatting sqref="H5:I10 B4:I4 I11 J4:J11">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1989,8 +1836,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H21">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I4:I11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="28.6"/>
@@ -2002,7 +1849,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2492,17 +2339,17 @@
       <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="55" t="s">
         <v>114</v>
       </c>
@@ -2681,17 +2528,17 @@
       <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="59">
         <v>-100</v>
       </c>
@@ -2788,17 +2635,17 @@
       <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
       <c r="N10" s="55">
         <v>-20</v>
       </c>
@@ -3346,17 +3193,17 @@
       <c r="D24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
       <c r="N24" s="55">
         <v>699.54</v>
       </c>
@@ -3863,32 +3710,32 @@
       <c r="D37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
       <c r="N37" s="59">
         <v>-150</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
       <c r="L38" s="49">
         <v>0</v>
       </c>
@@ -3900,27 +3747,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67">
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65">
         <v>726.18</v>
       </c>
-      <c r="N39" s="68"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -3929,16 +3776,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E37:M37"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E37:M37"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,17 +3980,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4158,17 +4005,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4265,17 +4112,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4331,17 +4178,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4438,17 +4285,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4504,17 +4351,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -4570,17 +4417,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -4800,32 +4647,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -4837,35 +4684,30 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73">
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74">
         <v>745.39</v>
       </c>
-      <c r="N26" s="74"/>
+      <c r="N26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -4874,6 +4716,11 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="195">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -343,14 +343,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>withdraw</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>Balance</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>Profit</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -614,6 +606,15 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>TAY-Capital</t>
   </si>
 </sst>
 </file>
@@ -621,17 +622,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -671,7 +672,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -690,7 +691,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -727,8 +728,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF1616AA"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,8 +766,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -980,13 +999,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,29 +1231,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,6 +1305,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,6 +1353,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="7" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1212,8 +1411,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1616AA"/>
       <color rgb="FF1AA631"/>
-      <color rgb="FF1616AA"/>
       <color rgb="FF0F22B1"/>
     </mruColors>
   </colors>
@@ -1491,21 +1690,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="10.42578125" style="18" customWidth="1"/>
     <col min="3" max="7" width="14" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="18"/>
+    <col min="10" max="12" width="9.140625" style="18"/>
+    <col min="13" max="13" width="18.5703125" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:13" ht="15.75" thickTop="1">
       <c r="B2" s="40" t="s">
         <v>104</v>
       </c>
@@ -1517,8 +1721,12 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="L2" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="79"/>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="26" t="s">
         <v>72</v>
       </c>
@@ -1529,25 +1737,27 @@
         <v>75</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="I3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="L3" s="77"/>
+      <c r="M3" s="80"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="28">
         <v>43101</v>
       </c>
@@ -1568,18 +1778,20 @@
         <v>881.13</v>
       </c>
       <c r="H4" s="29">
-        <f>C4+D4+(0.286*C4)</f>
+        <f t="shared" ref="H4:H10" si="1">C4+D4+(0.286*C4)</f>
         <v>1133.13318</v>
       </c>
       <c r="I4" s="39">
-        <f t="shared" ref="I4:I10" si="1">(F4/C4)*100</f>
+        <f t="shared" ref="I4:I10" si="2">(F4/C4)*100</f>
         <v>0</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>191</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="80"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="28">
         <v>43132</v>
       </c>
@@ -1600,18 +1812,20 @@
         <v>1322.0500000000002</v>
       </c>
       <c r="H5" s="29">
-        <f>C5+D5+(0.286*C5)</f>
+        <f t="shared" si="1"/>
         <v>1533.13318</v>
       </c>
       <c r="I5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6440366347757989</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>191</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="28">
         <v>43160</v>
       </c>
@@ -1633,18 +1847,20 @@
         <v>1322.0500000000002</v>
       </c>
       <c r="H6" s="29">
-        <f>C6+D6+(0.286*C6)</f>
+        <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
       <c r="I6" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>191</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="28">
         <v>43191</v>
       </c>
@@ -1666,18 +1882,20 @@
         <v>1441.2100000000003</v>
       </c>
       <c r="H7" s="29">
-        <f>C7+D7+(0.286*C7)</f>
+        <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
       <c r="I7" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0132748383192762</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>191</v>
+      </c>
+      <c r="L7" s="77"/>
+      <c r="M7" s="80"/>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="28">
         <v>43221</v>
       </c>
@@ -1699,18 +1917,20 @@
         <v>2734.4100000000003</v>
       </c>
       <c r="H8" s="29">
-        <f>C8+D8+(0.286*C8)</f>
+        <f t="shared" si="1"/>
         <v>2671.2060600000004</v>
       </c>
       <c r="I8" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.71973550003122</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>190</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="80"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1">
       <c r="B9" s="28">
         <v>43252</v>
       </c>
@@ -1732,18 +1952,20 @@
         <v>3890.13</v>
       </c>
       <c r="H9" s="29">
-        <f>C9+D9+(0.286*C9)</f>
+        <f t="shared" si="1"/>
         <v>4215.9912600000007</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.557100069119109</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>191</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickTop="1">
       <c r="B10" s="28">
         <v>43282</v>
       </c>
@@ -1758,23 +1980,29 @@
         <v>0</v>
       </c>
       <c r="F10" s="30">
-        <v>350.89</v>
+        <v>359.86</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>4241.0200000000004</v>
+        <v>4249.99</v>
       </c>
       <c r="H10" s="29">
-        <f>C10+D10+(0.286*C10)</f>
+        <f t="shared" si="1"/>
         <v>5002.7071800000003</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" si="1"/>
-        <v>9.0200070434664124</v>
+        <f t="shared" si="2"/>
+        <v>9.2505905972293974</v>
       </c>
       <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="L10" s="83">
+        <v>43282</v>
+      </c>
+      <c r="M10" s="84">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -1784,10 +2012,16 @@
       <c r="H11" s="31"/>
       <c r="I11" s="39"/>
       <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="L11" s="85">
+        <v>43313</v>
+      </c>
+      <c r="M11" s="86">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37">
@@ -1798,16 +2032,25 @@
         <f>SUM(E5:E11)</f>
         <v>540</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="61">
+        <f>SUM(F4:F11)</f>
+        <v>1991.5100000000002</v>
+      </c>
       <c r="G12" s="36"/>
       <c r="H12" s="27"/>
       <c r="I12" s="38">
         <f>AVERAGE(I5:I11)</f>
-        <v>16.825692347618634</v>
+        <v>16.864122939912466</v>
       </c>
       <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="L12" s="85">
+        <v>43344</v>
+      </c>
+      <c r="M12" s="86">
+        <v>11576.57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="35"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -1815,8 +2058,474 @@
       <c r="F13" s="33"/>
       <c r="G13" s="32"/>
       <c r="I13" s="34"/>
-    </row>
+      <c r="L13" s="85">
+        <v>43374</v>
+      </c>
+      <c r="M13" s="86">
+        <v>14887.47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="L14" s="85">
+        <v>43405</v>
+      </c>
+      <c r="M14" s="86">
+        <v>19145.29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="L15" s="85">
+        <v>43435</v>
+      </c>
+      <c r="M15" s="86">
+        <v>24620.84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="L16" s="85">
+        <v>43466</v>
+      </c>
+      <c r="M16" s="86">
+        <v>31662.400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13">
+      <c r="L17" s="85">
+        <v>43497</v>
+      </c>
+      <c r="M17" s="86">
+        <v>40717.85</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13">
+      <c r="L18" s="85">
+        <v>43525</v>
+      </c>
+      <c r="M18" s="86">
+        <v>52363.15</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13">
+      <c r="L19" s="85">
+        <v>43556</v>
+      </c>
+      <c r="M19" s="86">
+        <v>67339.009999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="12:13">
+      <c r="L20" s="85">
+        <v>43586</v>
+      </c>
+      <c r="M20" s="86">
+        <v>86597.97</v>
+      </c>
+    </row>
+    <row r="21" spans="12:13">
+      <c r="L21" s="87">
+        <v>43617</v>
+      </c>
+      <c r="M21" s="86">
+        <v>111364.99</v>
+      </c>
+    </row>
+    <row r="22" spans="12:13">
+      <c r="L22" s="85">
+        <v>43647</v>
+      </c>
+      <c r="M22" s="86">
+        <v>143215.38</v>
+      </c>
+    </row>
+    <row r="23" spans="12:13">
+      <c r="L23" s="85">
+        <v>43678</v>
+      </c>
+      <c r="M23" s="86">
+        <v>184174.98</v>
+      </c>
+    </row>
+    <row r="24" spans="12:13">
+      <c r="L24" s="85">
+        <v>43709</v>
+      </c>
+      <c r="M24" s="86">
+        <v>236849.02</v>
+      </c>
+    </row>
+    <row r="25" spans="12:13">
+      <c r="L25" s="85">
+        <v>43739</v>
+      </c>
+      <c r="M25" s="86">
+        <v>304587.84999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="12:13">
+      <c r="L26" s="85">
+        <v>43770</v>
+      </c>
+      <c r="M26" s="86">
+        <v>391699.97</v>
+      </c>
+    </row>
+    <row r="27" spans="12:13">
+      <c r="L27" s="85">
+        <v>43800</v>
+      </c>
+      <c r="M27" s="86">
+        <v>503726.16</v>
+      </c>
+    </row>
+    <row r="28" spans="12:13">
+      <c r="L28" s="85">
+        <v>43831</v>
+      </c>
+      <c r="M28" s="86">
+        <v>647791.84</v>
+      </c>
+    </row>
+    <row r="29" spans="12:13">
+      <c r="L29" s="85">
+        <v>43862</v>
+      </c>
+      <c r="M29" s="86">
+        <v>833060.31</v>
+      </c>
+    </row>
+    <row r="30" spans="12:13">
+      <c r="L30" s="85">
+        <v>43891</v>
+      </c>
+      <c r="M30" s="86">
+        <v>1071315.56</v>
+      </c>
+    </row>
+    <row r="31" spans="12:13">
+      <c r="L31" s="85">
+        <v>43922</v>
+      </c>
+      <c r="M31" s="86">
+        <v>1377711.81</v>
+      </c>
+    </row>
+    <row r="32" spans="12:13">
+      <c r="L32" s="85">
+        <v>43952</v>
+      </c>
+      <c r="M32" s="86">
+        <v>1771737.38</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" s="87">
+        <v>43983</v>
+      </c>
+      <c r="M33" s="86">
+        <v>2278454.2799999998</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="85">
+        <v>44013</v>
+      </c>
+      <c r="M34" s="86">
+        <v>2930092.2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13">
+      <c r="L35" s="85">
+        <v>44044</v>
+      </c>
+      <c r="M35" s="86">
+        <v>3768098.57</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13">
+      <c r="L36" s="85">
+        <v>44075</v>
+      </c>
+      <c r="M36" s="86">
+        <v>4845774.76</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13">
+      <c r="L37" s="85">
+        <v>44105</v>
+      </c>
+      <c r="M37" s="86">
+        <v>6231666.3399999999</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13">
+      <c r="L38" s="85">
+        <v>44136</v>
+      </c>
+      <c r="M38" s="86">
+        <v>8013922.9100000001</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13">
+      <c r="L39" s="85">
+        <v>44166</v>
+      </c>
+      <c r="M39" s="86">
+        <v>10305904.859999999</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13">
+      <c r="L40" s="85">
+        <v>44197</v>
+      </c>
+      <c r="M40" s="86">
+        <v>13253393.65</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13">
+      <c r="L41" s="85">
+        <v>44228</v>
+      </c>
+      <c r="M41" s="86">
+        <v>17043864.239999998</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13">
+      <c r="L42" s="85">
+        <v>44256</v>
+      </c>
+      <c r="M42" s="86">
+        <v>21918409.41</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13">
+      <c r="L43" s="85">
+        <v>44287</v>
+      </c>
+      <c r="M43" s="86">
+        <v>28187074.5</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13">
+      <c r="L44" s="85">
+        <v>44317</v>
+      </c>
+      <c r="M44" s="86">
+        <v>36248577.810000002</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13">
+      <c r="L45" s="87">
+        <v>44348</v>
+      </c>
+      <c r="M45" s="86">
+        <v>46615671.07</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13">
+      <c r="L46" s="85">
+        <v>44378</v>
+      </c>
+      <c r="M46" s="86">
+        <v>59947752.990000002</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13">
+      <c r="L47" s="85">
+        <v>44409</v>
+      </c>
+      <c r="M47" s="86">
+        <v>77092810.349999994</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13">
+      <c r="L48" s="85">
+        <v>44440</v>
+      </c>
+      <c r="M48" s="86">
+        <v>99141354.109999999</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13">
+      <c r="L49" s="85">
+        <v>44470</v>
+      </c>
+      <c r="M49" s="86">
+        <v>127495781.39</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13">
+      <c r="L50" s="85">
+        <v>44501</v>
+      </c>
+      <c r="M50" s="86">
+        <v>163959574.86000001</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13">
+      <c r="L51" s="85">
+        <v>44531</v>
+      </c>
+      <c r="M51" s="86">
+        <v>210852013.27000001</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13">
+      <c r="L52" s="85">
+        <v>44562</v>
+      </c>
+      <c r="M52" s="86">
+        <v>271155689.06999999</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13">
+      <c r="L53" s="85">
+        <v>44593</v>
+      </c>
+      <c r="M53" s="86">
+        <v>348706216.13999999</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13">
+      <c r="L54" s="85">
+        <v>44621</v>
+      </c>
+      <c r="M54" s="86">
+        <v>448436193.95999998</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13">
+      <c r="L55" s="85">
+        <v>44652</v>
+      </c>
+      <c r="M55" s="86">
+        <v>576688945.42999995</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13">
+      <c r="L56" s="85">
+        <v>44682</v>
+      </c>
+      <c r="M56" s="86">
+        <v>741621983.82000005</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13">
+      <c r="L57" s="87">
+        <v>44713</v>
+      </c>
+      <c r="M57" s="86">
+        <v>953725871.19000006</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13">
+      <c r="L58" s="85">
+        <v>44743</v>
+      </c>
+      <c r="M58" s="86">
+        <v>1226491470.3499999</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13">
+      <c r="L59" s="85">
+        <v>44774</v>
+      </c>
+      <c r="M59" s="86">
+        <v>1577268030.8800001</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13">
+      <c r="L60" s="85">
+        <v>44805</v>
+      </c>
+      <c r="M60" s="86">
+        <v>2028366687.71</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13">
+      <c r="L61" s="85">
+        <v>44835</v>
+      </c>
+      <c r="M61" s="86">
+        <v>2608479560.3899999</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13">
+      <c r="L62" s="85">
+        <v>44866</v>
+      </c>
+      <c r="M62" s="86">
+        <v>3354504714.6599998</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13">
+      <c r="L63" s="85">
+        <v>44896</v>
+      </c>
+      <c r="M63" s="86">
+        <v>4313893063.0500002</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13">
+      <c r="L64" s="85">
+        <v>44927</v>
+      </c>
+      <c r="M64" s="86">
+        <v>5547666479.0900002</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13">
+      <c r="L65" s="85">
+        <v>44958</v>
+      </c>
+      <c r="M65" s="86">
+        <v>7134299092.1099997</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13">
+      <c r="L66" s="85">
+        <v>44986</v>
+      </c>
+      <c r="M66" s="86">
+        <v>9174708632.4500008</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13">
+      <c r="L67" s="85">
+        <v>45017</v>
+      </c>
+      <c r="M67" s="86">
+        <v>11798675301.33</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13">
+      <c r="L68" s="85">
+        <v>45047</v>
+      </c>
+      <c r="M68" s="86">
+        <v>15173096437.51</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13">
+      <c r="L69" s="85">
+        <v>45078</v>
+      </c>
+      <c r="M69" s="86">
+        <v>19512602018.639999</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" ht="15.75" thickBot="1">
+      <c r="L70" s="88">
+        <v>45108</v>
+      </c>
+      <c r="M70" s="89">
+        <v>25093206195.970001</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" ht="15.75" thickTop="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:M9"/>
+  </mergeCells>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="H5:I10 B4:I4 I11 J4:J11">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
@@ -1848,7 +2557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
@@ -1865,34 +2574,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="18"/>
+    <col min="6" max="7" width="13.140625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -2283,7 +2992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
       <c r="A1" s="50">
@@ -2329,37 +3038,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B2" s="54">
         <v>130907515</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B3" s="56">
         <v>137714682</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>38</v>
@@ -2380,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K3" s="47">
         <v>147.66900000000001</v>
@@ -2395,12 +3104,12 @@
         <v>31.93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B4" s="54">
         <v>137763688</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>38</v>
@@ -2421,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K4" s="45">
         <v>1.93946</v>
@@ -2436,12 +3145,12 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B5" s="56">
         <v>138022429</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>38</v>
@@ -2450,7 +3159,7 @@
         <v>0.06</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="47">
         <v>1.51084</v>
@@ -2462,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" s="47">
         <v>1.5121899999999999</v>
@@ -2477,12 +3186,12 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B6" s="54">
         <v>138393922</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>8</v>
@@ -2491,7 +3200,7 @@
         <v>0.08</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="45">
         <v>0.70413000000000003</v>
@@ -2503,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="45">
         <v>0.70118000000000003</v>
@@ -2518,37 +3227,37 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B7" s="56">
         <v>138461980</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="E7" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="59">
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B8" s="54">
         <v>138475841</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>38</v>
@@ -2557,7 +3266,7 @@
         <v>0.06</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="45">
         <v>1.6656299999999999</v>
@@ -2569,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K8" s="45">
         <v>1.67709</v>
@@ -2584,12 +3293,12 @@
         <v>48.47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B9" s="56">
         <v>138654225</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>8</v>
@@ -2598,7 +3307,7 @@
         <v>0.05</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G9" s="47">
         <v>1.6786099999999999</v>
@@ -2610,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K9" s="47">
         <v>1.6778999999999999</v>
@@ -2625,37 +3334,37 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B10" s="54">
         <v>138723413</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="E10" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="55">
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B11" s="56">
         <v>138732442</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>38</v>
@@ -2676,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K11" s="47">
         <v>1.90669</v>
@@ -2691,12 +3400,12 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B12" s="54">
         <v>138736541</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>38</v>
@@ -2717,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K12" s="45">
         <v>1.9093899999999999</v>
@@ -2732,12 +3441,12 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B13" s="56">
         <v>138897659</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>8</v>
@@ -2758,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13" s="47">
         <v>1.29772</v>
@@ -2773,12 +3482,12 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B14" s="54">
         <v>138953312</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>38</v>
@@ -2799,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K14" s="45">
         <v>147.79400000000001</v>
@@ -2814,12 +3523,12 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B15" s="56">
         <v>138963274</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>8</v>
@@ -2828,7 +3537,7 @@
         <v>0.05</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="47">
         <v>111.79300000000001</v>
@@ -2840,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15" s="47">
         <v>111.069</v>
@@ -2855,12 +3564,12 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B16" s="54">
         <v>139069945</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>8</v>
@@ -2869,7 +3578,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G16" s="45">
         <v>1.52217</v>
@@ -2881,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K16" s="45">
         <v>1.5281100000000001</v>
@@ -2896,12 +3605,12 @@
         <v>-31.59</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="17" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B17" s="56">
         <v>139070001</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>8</v>
@@ -2922,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K17" s="47">
         <v>1.9113</v>
@@ -2937,12 +3646,12 @@
         <v>-7.75</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="18" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B18" s="54">
         <v>139076560</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>38</v>
@@ -2951,7 +3660,7 @@
         <v>0.13</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G18" s="45">
         <v>1.66998</v>
@@ -2963,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K18" s="45">
         <v>1.67113</v>
@@ -2978,12 +3687,12 @@
         <v>10.39</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B19" s="56">
         <v>139121598</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>38</v>
@@ -2992,7 +3701,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G19" s="47">
         <v>1.67015</v>
@@ -3004,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K19" s="47">
         <v>1.6797599999999999</v>
@@ -3019,12 +3728,12 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B20" s="54">
         <v>139177488</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>38</v>
@@ -3033,7 +3742,7 @@
         <v>0.06</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G20" s="45">
         <v>1.7922199999999999</v>
@@ -3045,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K20" s="45">
         <v>1.79392</v>
@@ -3060,12 +3769,12 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="21" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B21" s="56">
         <v>139189288</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>8</v>
@@ -3074,7 +3783,7 @@
         <v>0.06</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G21" s="47">
         <v>1.79284</v>
@@ -3086,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K21" s="47">
         <v>1.78762</v>
@@ -3101,12 +3810,12 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="22" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B22" s="54">
         <v>139193605</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>8</v>
@@ -3115,7 +3824,7 @@
         <v>0.05</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" s="45">
         <v>1.7907599999999999</v>
@@ -3127,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K22" s="45">
         <v>1.7876399999999999</v>
@@ -3142,12 +3851,12 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="23" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B23" s="56">
         <v>139209052</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>38</v>
@@ -3168,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K23" s="47">
         <v>145.274</v>
@@ -3183,37 +3892,37 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="24" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B24" s="54">
         <v>139249180</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
+      <c r="E24" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
       <c r="N24" s="55">
         <v>699.54</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="25" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B25" s="56">
         <v>139254304</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>38</v>
@@ -3234,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K25" s="47">
         <v>1.9213800000000001</v>
@@ -3249,12 +3958,12 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="26" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B26" s="54">
         <v>139288612</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>38</v>
@@ -3275,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K26" s="45">
         <v>146.04</v>
@@ -3290,12 +3999,12 @@
         <v>31.29</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="27" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B27" s="56">
         <v>139320132</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>8</v>
@@ -3316,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="47">
         <v>1.91825</v>
@@ -3331,12 +4040,12 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="28" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B28" s="54">
         <v>139321846</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>38</v>
@@ -3357,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K28" s="45">
         <v>146.07</v>
@@ -3372,12 +4081,12 @@
         <v>126.17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="29" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B29" s="56">
         <v>139344009</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>38</v>
@@ -3398,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K29" s="47">
         <v>1.9274500000000001</v>
@@ -3413,12 +4122,12 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="30" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="30" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B30" s="54">
         <v>139373451</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>38</v>
@@ -3439,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K30" s="45">
         <v>146.01400000000001</v>
@@ -3454,12 +4163,12 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="31" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B31" s="56">
         <v>139381854</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>38</v>
@@ -3480,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K31" s="47">
         <v>146.01</v>
@@ -3495,12 +4204,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="32" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B32" s="54">
         <v>139407314</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>8</v>
@@ -3521,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K32" s="45">
         <v>1.33399</v>
@@ -3536,12 +4245,12 @@
         <v>-26.91</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B33" s="56">
         <v>139426625</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>38</v>
@@ -3562,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K33" s="47">
         <v>146.16900000000001</v>
@@ -3577,12 +4286,12 @@
         <v>120.79</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B34" s="54">
         <v>139619569</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>8</v>
@@ -3603,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K34" s="45">
         <v>1.16649</v>
@@ -3618,12 +4327,12 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B35" s="56">
         <v>139619621</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>38</v>
@@ -3644,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K35" s="47">
         <v>1.16723</v>
@@ -3659,12 +4368,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B36" s="54">
         <v>139682129</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D36" s="45" t="s">
         <v>38</v>
@@ -3685,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K36" s="45">
         <v>145.21700000000001</v>
@@ -3700,42 +4409,42 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B37" s="56">
         <v>139780262</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
+      <c r="E37" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
       <c r="N37" s="59">
         <v>-150</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
       <c r="L38" s="49">
         <v>0</v>
       </c>
@@ -3747,31 +4456,31 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65" t="s">
+      <c r="B39" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65">
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66">
         <v>726.18</v>
       </c>
-      <c r="N39" s="66"/>
+      <c r="N39" s="67"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3798,9 +4507,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
@@ -3980,17 +4689,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4005,17 +4714,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4112,17 +4821,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4178,17 +4887,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4285,17 +4994,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4351,17 +5060,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -4417,17 +5126,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -4647,32 +5356,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -4684,27 +5393,27 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74">
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75">
         <v>745.39</v>
       </c>
-      <c r="N26" s="75"/>
+      <c r="N26" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -735,7 +735,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +757,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,7 +1151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,7 +1247,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,84 +1300,157 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="7" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF0F22B1"/>
@@ -1682,7 +1748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1690,11 +1756,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M71"/>
+  <dimension ref="B1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -1721,10 +1785,10 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="79"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="26" t="s">
@@ -1745,808 +1809,844 @@
       <c r="G3" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>106</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="80"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="28">
+      <c r="B4" s="89">
         <v>43101</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="90">
         <v>881.13</v>
       </c>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="29">
-        <f t="shared" ref="G4:G10" si="0">C4+D4+F4-E4</f>
+      <c r="D4" s="90">
+        <v>0</v>
+      </c>
+      <c r="E4" s="90">
+        <v>0</v>
+      </c>
+      <c r="F4" s="91">
+        <v>0</v>
+      </c>
+      <c r="G4" s="90">
+        <f t="shared" ref="G4:G11" si="0">C4+D4+F4-E4</f>
         <v>881.13</v>
       </c>
-      <c r="H4" s="29">
-        <f t="shared" ref="H4:H10" si="1">C4+D4+(0.286*C4)</f>
+      <c r="H4" s="90">
+        <f t="shared" ref="H4:H11" si="1">C4+D4+(0.286*C4)</f>
         <v>1133.13318</v>
       </c>
-      <c r="I4" s="39">
-        <f t="shared" ref="I4:I10" si="2">(F4/C4)*100</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="92">
+        <f t="shared" ref="I4:I11" si="2">(F4/C4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="80"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="28">
+      <c r="B5" s="89">
         <v>43132</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="90">
         <v>881.13</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="90">
         <v>400</v>
       </c>
-      <c r="E5" s="29">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="E5" s="90">
+        <v>0</v>
+      </c>
+      <c r="F5" s="91">
         <v>40.92</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="90">
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="90">
         <f t="shared" si="1"/>
         <v>1533.13318</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="92">
         <f t="shared" si="2"/>
         <v>4.6440366347757989</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="80"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="28">
+      <c r="B6" s="89">
         <v>43160</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="90">
         <f>G5</f>
         <v>1322.0500000000002</v>
       </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
+      <c r="D6" s="90">
+        <v>0</v>
+      </c>
+      <c r="E6" s="90">
+        <v>0</v>
+      </c>
+      <c r="F6" s="91">
+        <v>0</v>
+      </c>
+      <c r="G6" s="90">
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="90">
         <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="80"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="28">
+      <c r="B7" s="89">
         <v>43191</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="90">
         <f>G6</f>
         <v>1322.0500000000002</v>
       </c>
-      <c r="D7" s="29">
-        <v>0</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="D7" s="90">
+        <v>0</v>
+      </c>
+      <c r="E7" s="90">
+        <v>0</v>
+      </c>
+      <c r="F7" s="91">
         <v>119.16</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="90">
         <f t="shared" si="0"/>
         <v>1441.2100000000003</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="90">
         <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="92">
         <f t="shared" si="2"/>
         <v>9.0132748383192762</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="28">
+      <c r="B8" s="89">
         <v>43221</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="90">
         <f>G7</f>
         <v>1441.2100000000003</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="90">
         <v>817.81</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="90">
         <v>270</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="91">
         <v>745.39</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="90">
         <f t="shared" si="0"/>
         <v>2734.4100000000003</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="90">
         <f t="shared" si="1"/>
         <v>2671.2060600000004</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="92">
         <f t="shared" si="2"/>
         <v>51.71973550003122</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="80"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B9" s="28">
+      <c r="B9" s="89">
         <v>43252</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="90">
         <f>G8</f>
         <v>2734.4100000000003</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="90">
         <v>699.54</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="90">
         <v>270</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="91">
         <v>726.18</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="90">
         <f t="shared" si="0"/>
         <v>3890.13</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="90">
         <f t="shared" si="1"/>
         <v>4215.9912600000007</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="92">
         <f t="shared" si="2"/>
         <v>26.557100069119109</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickTop="1">
-      <c r="B10" s="28">
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B10" s="89">
         <v>43282</v>
       </c>
-      <c r="C10" s="29">
-        <f>G9</f>
-        <v>3890.13</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>359.86</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="C10" s="90">
+        <f>G8</f>
+        <v>2734.4100000000003</v>
+      </c>
+      <c r="D10" s="90">
+        <v>0</v>
+      </c>
+      <c r="E10" s="90">
+        <v>0</v>
+      </c>
+      <c r="F10" s="91">
+        <v>398.59</v>
+      </c>
+      <c r="G10" s="90">
+        <f t="shared" ref="G10" si="3">C10+D10+F10-E10</f>
+        <v>3133.0000000000005</v>
+      </c>
+      <c r="H10" s="90">
+        <f t="shared" ref="H10" si="4">C10+D10+(0.286*C10)</f>
+        <v>3516.4512600000003</v>
+      </c>
+      <c r="I10" s="92">
+        <f t="shared" ref="I10:I11" si="5">(F10/C10)*100</f>
+        <v>14.576819131000834</v>
+      </c>
+      <c r="J10" s="93"/>
+      <c r="L10" s="61">
+        <v>43282</v>
+      </c>
+      <c r="M10" s="62">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickTop="1">
+      <c r="B11" s="28">
+        <v>43282</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>5169.93</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>50.76</v>
+      </c>
+      <c r="G11" s="29">
         <f t="shared" si="0"/>
-        <v>4249.99</v>
-      </c>
-      <c r="H10" s="29">
-        <f t="shared" si="1"/>
-        <v>5002.7071800000003</v>
-      </c>
-      <c r="I10" s="39">
-        <f t="shared" si="2"/>
-        <v>9.2505905972293974</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="L10" s="83">
+        <v>5220.6900000000005</v>
+      </c>
+      <c r="H11" s="29">
+        <f>C11+D11+(0.286*(C11+D11))</f>
+        <v>6648.5299800000003</v>
+      </c>
+      <c r="I11" s="92">
+        <f>(F11/(C11+D11))*100</f>
+        <v>0.98183147547452276</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="L11" s="61">
         <v>43282</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M11" s="62">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="19"/>
-      <c r="L11" s="85">
+    <row r="12" spans="2:13">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="19"/>
+      <c r="L12" s="63">
         <v>43313</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M12" s="64">
         <v>9002</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="26" t="s">
+    <row r="13" spans="2:13">
+      <c r="B13" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37">
-        <f>SUM(D5:D11)</f>
-        <v>1917.35</v>
-      </c>
-      <c r="E12" s="37">
-        <f>SUM(E5:E11)</f>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37">
+        <f>SUM(D5:D12)</f>
+        <v>7087.2800000000007</v>
+      </c>
+      <c r="E13" s="37">
+        <f>SUM(E5:E12)</f>
         <v>540</v>
       </c>
-      <c r="F12" s="61">
-        <f>SUM(F4:F11)</f>
-        <v>1991.5100000000002</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="38">
-        <f>AVERAGE(I5:I11)</f>
-        <v>16.864122939912466</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="L12" s="85">
+      <c r="F13" s="60">
+        <f>SUM(F4:F12)</f>
+        <v>2081</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="38">
+        <f>AVERAGE(I5:I12)</f>
+        <v>15.356113949817251</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="L13" s="63">
         <v>43344</v>
       </c>
-      <c r="M12" s="86">
+      <c r="M13" s="64">
         <v>11576.57</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="35"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="I13" s="34"/>
-      <c r="L13" s="85">
+    <row r="14" spans="2:13">
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="34"/>
+      <c r="L14" s="63">
         <v>43374</v>
       </c>
-      <c r="M13" s="86">
+      <c r="M14" s="64">
         <v>14887.47</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="L14" s="85">
+    <row r="15" spans="2:13">
+      <c r="L15" s="63">
         <v>43405</v>
       </c>
-      <c r="M14" s="86">
+      <c r="M15" s="64">
         <v>19145.29</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="L15" s="85">
+    <row r="16" spans="2:13">
+      <c r="L16" s="63">
         <v>43435</v>
       </c>
-      <c r="M15" s="86">
+      <c r="M16" s="64">
         <v>24620.84</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="L16" s="85">
+    <row r="17" spans="12:13">
+      <c r="L17" s="63">
         <v>43466</v>
       </c>
-      <c r="M16" s="86">
+      <c r="M17" s="64">
         <v>31662.400000000001</v>
       </c>
     </row>
-    <row r="17" spans="12:13">
-      <c r="L17" s="85">
+    <row r="18" spans="12:13">
+      <c r="L18" s="63">
         <v>43497</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M18" s="64">
         <v>40717.85</v>
       </c>
     </row>
-    <row r="18" spans="12:13">
-      <c r="L18" s="85">
+    <row r="19" spans="12:13">
+      <c r="L19" s="63">
         <v>43525</v>
       </c>
-      <c r="M18" s="86">
+      <c r="M19" s="64">
         <v>52363.15</v>
       </c>
     </row>
-    <row r="19" spans="12:13">
-      <c r="L19" s="85">
+    <row r="20" spans="12:13">
+      <c r="L20" s="63">
         <v>43556</v>
       </c>
-      <c r="M19" s="86">
+      <c r="M20" s="64">
         <v>67339.009999999995</v>
       </c>
     </row>
-    <row r="20" spans="12:13">
-      <c r="L20" s="85">
+    <row r="21" spans="12:13">
+      <c r="L21" s="63">
         <v>43586</v>
       </c>
-      <c r="M20" s="86">
+      <c r="M21" s="64">
         <v>86597.97</v>
       </c>
     </row>
-    <row r="21" spans="12:13">
-      <c r="L21" s="87">
+    <row r="22" spans="12:13">
+      <c r="L22" s="65">
         <v>43617</v>
       </c>
-      <c r="M21" s="86">
+      <c r="M22" s="64">
         <v>111364.99</v>
       </c>
     </row>
-    <row r="22" spans="12:13">
-      <c r="L22" s="85">
+    <row r="23" spans="12:13">
+      <c r="L23" s="63">
         <v>43647</v>
       </c>
-      <c r="M22" s="86">
+      <c r="M23" s="64">
         <v>143215.38</v>
       </c>
     </row>
-    <row r="23" spans="12:13">
-      <c r="L23" s="85">
+    <row r="24" spans="12:13">
+      <c r="L24" s="63">
         <v>43678</v>
       </c>
-      <c r="M23" s="86">
+      <c r="M24" s="64">
         <v>184174.98</v>
       </c>
     </row>
-    <row r="24" spans="12:13">
-      <c r="L24" s="85">
+    <row r="25" spans="12:13">
+      <c r="L25" s="63">
         <v>43709</v>
       </c>
-      <c r="M24" s="86">
+      <c r="M25" s="64">
         <v>236849.02</v>
       </c>
     </row>
-    <row r="25" spans="12:13">
-      <c r="L25" s="85">
+    <row r="26" spans="12:13">
+      <c r="L26" s="63">
         <v>43739</v>
       </c>
-      <c r="M25" s="86">
+      <c r="M26" s="64">
         <v>304587.84999999998</v>
       </c>
     </row>
-    <row r="26" spans="12:13">
-      <c r="L26" s="85">
+    <row r="27" spans="12:13">
+      <c r="L27" s="63">
         <v>43770</v>
       </c>
-      <c r="M26" s="86">
+      <c r="M27" s="64">
         <v>391699.97</v>
       </c>
     </row>
-    <row r="27" spans="12:13">
-      <c r="L27" s="85">
+    <row r="28" spans="12:13">
+      <c r="L28" s="63">
         <v>43800</v>
       </c>
-      <c r="M27" s="86">
+      <c r="M28" s="64">
         <v>503726.16</v>
       </c>
     </row>
-    <row r="28" spans="12:13">
-      <c r="L28" s="85">
+    <row r="29" spans="12:13">
+      <c r="L29" s="63">
         <v>43831</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M29" s="64">
         <v>647791.84</v>
       </c>
     </row>
-    <row r="29" spans="12:13">
-      <c r="L29" s="85">
+    <row r="30" spans="12:13">
+      <c r="L30" s="63">
         <v>43862</v>
       </c>
-      <c r="M29" s="86">
+      <c r="M30" s="64">
         <v>833060.31</v>
       </c>
     </row>
-    <row r="30" spans="12:13">
-      <c r="L30" s="85">
+    <row r="31" spans="12:13">
+      <c r="L31" s="63">
         <v>43891</v>
       </c>
-      <c r="M30" s="86">
+      <c r="M31" s="64">
         <v>1071315.56</v>
       </c>
     </row>
-    <row r="31" spans="12:13">
-      <c r="L31" s="85">
+    <row r="32" spans="12:13">
+      <c r="L32" s="63">
         <v>43922</v>
       </c>
-      <c r="M31" s="86">
+      <c r="M32" s="64">
         <v>1377711.81</v>
       </c>
     </row>
-    <row r="32" spans="12:13">
-      <c r="L32" s="85">
+    <row r="33" spans="12:13">
+      <c r="L33" s="63">
         <v>43952</v>
       </c>
-      <c r="M32" s="86">
+      <c r="M33" s="64">
         <v>1771737.38</v>
       </c>
     </row>
-    <row r="33" spans="12:13">
-      <c r="L33" s="87">
+    <row r="34" spans="12:13">
+      <c r="L34" s="65">
         <v>43983</v>
       </c>
-      <c r="M33" s="86">
+      <c r="M34" s="64">
         <v>2278454.2799999998</v>
       </c>
     </row>
-    <row r="34" spans="12:13">
-      <c r="L34" s="85">
+    <row r="35" spans="12:13">
+      <c r="L35" s="63">
         <v>44013</v>
       </c>
-      <c r="M34" s="86">
+      <c r="M35" s="64">
         <v>2930092.2</v>
       </c>
     </row>
-    <row r="35" spans="12:13">
-      <c r="L35" s="85">
+    <row r="36" spans="12:13">
+      <c r="L36" s="63">
         <v>44044</v>
       </c>
-      <c r="M35" s="86">
+      <c r="M36" s="64">
         <v>3768098.57</v>
       </c>
     </row>
-    <row r="36" spans="12:13">
-      <c r="L36" s="85">
+    <row r="37" spans="12:13">
+      <c r="L37" s="63">
         <v>44075</v>
       </c>
-      <c r="M36" s="86">
+      <c r="M37" s="64">
         <v>4845774.76</v>
       </c>
     </row>
-    <row r="37" spans="12:13">
-      <c r="L37" s="85">
+    <row r="38" spans="12:13">
+      <c r="L38" s="63">
         <v>44105</v>
       </c>
-      <c r="M37" s="86">
+      <c r="M38" s="64">
         <v>6231666.3399999999</v>
       </c>
     </row>
-    <row r="38" spans="12:13">
-      <c r="L38" s="85">
+    <row r="39" spans="12:13">
+      <c r="L39" s="63">
         <v>44136</v>
       </c>
-      <c r="M38" s="86">
+      <c r="M39" s="64">
         <v>8013922.9100000001</v>
       </c>
     </row>
-    <row r="39" spans="12:13">
-      <c r="L39" s="85">
+    <row r="40" spans="12:13">
+      <c r="L40" s="63">
         <v>44166</v>
       </c>
-      <c r="M39" s="86">
+      <c r="M40" s="64">
         <v>10305904.859999999</v>
       </c>
     </row>
-    <row r="40" spans="12:13">
-      <c r="L40" s="85">
+    <row r="41" spans="12:13">
+      <c r="L41" s="63">
         <v>44197</v>
       </c>
-      <c r="M40" s="86">
+      <c r="M41" s="64">
         <v>13253393.65</v>
       </c>
     </row>
-    <row r="41" spans="12:13">
-      <c r="L41" s="85">
+    <row r="42" spans="12:13">
+      <c r="L42" s="63">
         <v>44228</v>
       </c>
-      <c r="M41" s="86">
+      <c r="M42" s="64">
         <v>17043864.239999998</v>
       </c>
     </row>
-    <row r="42" spans="12:13">
-      <c r="L42" s="85">
+    <row r="43" spans="12:13">
+      <c r="L43" s="63">
         <v>44256</v>
       </c>
-      <c r="M42" s="86">
+      <c r="M43" s="64">
         <v>21918409.41</v>
       </c>
     </row>
-    <row r="43" spans="12:13">
-      <c r="L43" s="85">
+    <row r="44" spans="12:13">
+      <c r="L44" s="63">
         <v>44287</v>
       </c>
-      <c r="M43" s="86">
+      <c r="M44" s="64">
         <v>28187074.5</v>
       </c>
     </row>
-    <row r="44" spans="12:13">
-      <c r="L44" s="85">
+    <row r="45" spans="12:13">
+      <c r="L45" s="63">
         <v>44317</v>
       </c>
-      <c r="M44" s="86">
+      <c r="M45" s="64">
         <v>36248577.810000002</v>
       </c>
     </row>
-    <row r="45" spans="12:13">
-      <c r="L45" s="87">
+    <row r="46" spans="12:13">
+      <c r="L46" s="65">
         <v>44348</v>
       </c>
-      <c r="M45" s="86">
+      <c r="M46" s="64">
         <v>46615671.07</v>
       </c>
     </row>
-    <row r="46" spans="12:13">
-      <c r="L46" s="85">
+    <row r="47" spans="12:13">
+      <c r="L47" s="63">
         <v>44378</v>
       </c>
-      <c r="M46" s="86">
+      <c r="M47" s="64">
         <v>59947752.990000002</v>
       </c>
     </row>
-    <row r="47" spans="12:13">
-      <c r="L47" s="85">
+    <row r="48" spans="12:13">
+      <c r="L48" s="63">
         <v>44409</v>
       </c>
-      <c r="M47" s="86">
+      <c r="M48" s="64">
         <v>77092810.349999994</v>
       </c>
     </row>
-    <row r="48" spans="12:13">
-      <c r="L48" s="85">
+    <row r="49" spans="12:13">
+      <c r="L49" s="63">
         <v>44440</v>
       </c>
-      <c r="M48" s="86">
+      <c r="M49" s="64">
         <v>99141354.109999999</v>
       </c>
     </row>
-    <row r="49" spans="12:13">
-      <c r="L49" s="85">
+    <row r="50" spans="12:13">
+      <c r="L50" s="63">
         <v>44470</v>
       </c>
-      <c r="M49" s="86">
+      <c r="M50" s="64">
         <v>127495781.39</v>
       </c>
     </row>
-    <row r="50" spans="12:13">
-      <c r="L50" s="85">
+    <row r="51" spans="12:13">
+      <c r="L51" s="63">
         <v>44501</v>
       </c>
-      <c r="M50" s="86">
+      <c r="M51" s="64">
         <v>163959574.86000001</v>
       </c>
     </row>
-    <row r="51" spans="12:13">
-      <c r="L51" s="85">
+    <row r="52" spans="12:13">
+      <c r="L52" s="63">
         <v>44531</v>
       </c>
-      <c r="M51" s="86">
+      <c r="M52" s="64">
         <v>210852013.27000001</v>
       </c>
     </row>
-    <row r="52" spans="12:13">
-      <c r="L52" s="85">
+    <row r="53" spans="12:13">
+      <c r="L53" s="63">
         <v>44562</v>
       </c>
-      <c r="M52" s="86">
+      <c r="M53" s="64">
         <v>271155689.06999999</v>
       </c>
     </row>
-    <row r="53" spans="12:13">
-      <c r="L53" s="85">
+    <row r="54" spans="12:13">
+      <c r="L54" s="63">
         <v>44593</v>
       </c>
-      <c r="M53" s="86">
+      <c r="M54" s="64">
         <v>348706216.13999999</v>
       </c>
     </row>
-    <row r="54" spans="12:13">
-      <c r="L54" s="85">
+    <row r="55" spans="12:13">
+      <c r="L55" s="63">
         <v>44621</v>
       </c>
-      <c r="M54" s="86">
+      <c r="M55" s="64">
         <v>448436193.95999998</v>
       </c>
     </row>
-    <row r="55" spans="12:13">
-      <c r="L55" s="85">
+    <row r="56" spans="12:13">
+      <c r="L56" s="63">
         <v>44652</v>
       </c>
-      <c r="M55" s="86">
+      <c r="M56" s="64">
         <v>576688945.42999995</v>
       </c>
     </row>
-    <row r="56" spans="12:13">
-      <c r="L56" s="85">
+    <row r="57" spans="12:13">
+      <c r="L57" s="63">
         <v>44682</v>
       </c>
-      <c r="M56" s="86">
+      <c r="M57" s="64">
         <v>741621983.82000005</v>
       </c>
     </row>
-    <row r="57" spans="12:13">
-      <c r="L57" s="87">
+    <row r="58" spans="12:13">
+      <c r="L58" s="65">
         <v>44713</v>
       </c>
-      <c r="M57" s="86">
+      <c r="M58" s="64">
         <v>953725871.19000006</v>
       </c>
     </row>
-    <row r="58" spans="12:13">
-      <c r="L58" s="85">
+    <row r="59" spans="12:13">
+      <c r="L59" s="63">
         <v>44743</v>
       </c>
-      <c r="M58" s="86">
+      <c r="M59" s="64">
         <v>1226491470.3499999</v>
       </c>
     </row>
-    <row r="59" spans="12:13">
-      <c r="L59" s="85">
+    <row r="60" spans="12:13">
+      <c r="L60" s="63">
         <v>44774</v>
       </c>
-      <c r="M59" s="86">
+      <c r="M60" s="64">
         <v>1577268030.8800001</v>
       </c>
     </row>
-    <row r="60" spans="12:13">
-      <c r="L60" s="85">
+    <row r="61" spans="12:13">
+      <c r="L61" s="63">
         <v>44805</v>
       </c>
-      <c r="M60" s="86">
+      <c r="M61" s="64">
         <v>2028366687.71</v>
       </c>
     </row>
-    <row r="61" spans="12:13">
-      <c r="L61" s="85">
+    <row r="62" spans="12:13">
+      <c r="L62" s="63">
         <v>44835</v>
       </c>
-      <c r="M61" s="86">
+      <c r="M62" s="64">
         <v>2608479560.3899999</v>
       </c>
     </row>
-    <row r="62" spans="12:13">
-      <c r="L62" s="85">
+    <row r="63" spans="12:13">
+      <c r="L63" s="63">
         <v>44866</v>
       </c>
-      <c r="M62" s="86">
+      <c r="M63" s="64">
         <v>3354504714.6599998</v>
       </c>
     </row>
-    <row r="63" spans="12:13">
-      <c r="L63" s="85">
+    <row r="64" spans="12:13">
+      <c r="L64" s="63">
         <v>44896</v>
       </c>
-      <c r="M63" s="86">
+      <c r="M64" s="64">
         <v>4313893063.0500002</v>
       </c>
     </row>
-    <row r="64" spans="12:13">
-      <c r="L64" s="85">
+    <row r="65" spans="12:13">
+      <c r="L65" s="63">
         <v>44927</v>
       </c>
-      <c r="M64" s="86">
+      <c r="M65" s="64">
         <v>5547666479.0900002</v>
       </c>
     </row>
-    <row r="65" spans="12:13">
-      <c r="L65" s="85">
+    <row r="66" spans="12:13">
+      <c r="L66" s="63">
         <v>44958</v>
       </c>
-      <c r="M65" s="86">
+      <c r="M66" s="64">
         <v>7134299092.1099997</v>
       </c>
     </row>
-    <row r="66" spans="12:13">
-      <c r="L66" s="85">
+    <row r="67" spans="12:13">
+      <c r="L67" s="63">
         <v>44986</v>
       </c>
-      <c r="M66" s="86">
+      <c r="M67" s="64">
         <v>9174708632.4500008</v>
       </c>
     </row>
-    <row r="67" spans="12:13">
-      <c r="L67" s="85">
+    <row r="68" spans="12:13">
+      <c r="L68" s="63">
         <v>45017</v>
       </c>
-      <c r="M67" s="86">
+      <c r="M68" s="64">
         <v>11798675301.33</v>
       </c>
     </row>
-    <row r="68" spans="12:13">
-      <c r="L68" s="85">
+    <row r="69" spans="12:13">
+      <c r="L69" s="63">
         <v>45047</v>
       </c>
-      <c r="M68" s="86">
+      <c r="M69" s="64">
         <v>15173096437.51</v>
       </c>
     </row>
-    <row r="69" spans="12:13">
-      <c r="L69" s="85">
+    <row r="70" spans="12:13">
+      <c r="L70" s="63">
         <v>45078</v>
       </c>
-      <c r="M69" s="86">
+      <c r="M70" s="64">
         <v>19512602018.639999</v>
       </c>
     </row>
-    <row r="70" spans="12:13" ht="15.75" thickBot="1">
-      <c r="L70" s="88">
+    <row r="71" spans="12:13" ht="15.75" thickBot="1">
+      <c r="L71" s="66">
         <v>45108</v>
       </c>
-      <c r="M70" s="89">
+      <c r="M71" s="67">
         <v>25093206195.970001</v>
       </c>
     </row>
-    <row r="71" spans="12:13" ht="15.75" thickTop="1"/>
+    <row r="72" spans="12:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L2:M9"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
-  <conditionalFormatting sqref="H5:I10 B4:I4 I11 J4:J11">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="H5:I9 B4:I4 I12 J4:J9 J11:J12 H11">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="formula" val="$G$10"/>
-        <cfvo type="formula" val="$G$10"/>
+        <cfvo type="formula" val="$G$11"/>
+        <cfvo type="formula" val="$G$11"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I11">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="I4:I9 I12">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="28.6"/>
@@ -2557,8 +2657,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11">
+  <conditionalFormatting sqref="H10:J10 I11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="28.6"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J12">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2586,22 +2706,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -2995,1488 +3115,1488 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A1" s="50">
+      <c r="A1" s="49">
         <v>43252</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B2" s="54">
+      <c r="B2" s="53">
         <v>130907515</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="55" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="54" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B3" s="56">
+      <c r="B3" s="55">
         <v>137714682</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>0.1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <v>147.316</v>
       </c>
-      <c r="H3" s="47">
-        <v>0</v>
-      </c>
-      <c r="I3" s="47">
-        <v>0</v>
-      </c>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="46">
+        <v>0</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>147.66900000000001</v>
       </c>
-      <c r="L3" s="47">
-        <v>0</v>
-      </c>
-      <c r="M3" s="47">
+      <c r="L3" s="46">
+        <v>0</v>
+      </c>
+      <c r="M3" s="46">
         <v>-0.4</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="56">
         <v>31.93</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>137763688</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.1</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>1.93411</v>
       </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="45">
-        <v>0</v>
-      </c>
-      <c r="J4" s="46" t="s">
+      <c r="H4" s="44">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44">
+        <v>0</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="44">
         <v>1.93946</v>
       </c>
-      <c r="L4" s="45">
-        <v>0</v>
-      </c>
-      <c r="M4" s="45">
+      <c r="L4" s="44">
+        <v>0</v>
+      </c>
+      <c r="M4" s="44">
         <v>-21.8</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="57">
         <v>36.47</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>138022429</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>0.06</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="46">
         <v>1.51084</v>
       </c>
-      <c r="H5" s="47">
-        <v>0</v>
-      </c>
-      <c r="I5" s="47">
-        <v>0</v>
-      </c>
-      <c r="J5" s="48" t="s">
+      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="46">
         <v>1.5121899999999999</v>
       </c>
-      <c r="L5" s="47">
-        <v>0</v>
-      </c>
-      <c r="M5" s="47">
+      <c r="L5" s="46">
+        <v>0</v>
+      </c>
+      <c r="M5" s="46">
         <v>-1.66</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="56">
         <v>6.25</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>138393922</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>0.08</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>0.70413000000000003</v>
       </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0</v>
-      </c>
-      <c r="J6" s="46" t="s">
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="44">
         <v>0.70118000000000003</v>
       </c>
-      <c r="L6" s="45">
-        <v>0</v>
-      </c>
-      <c r="M6" s="45">
+      <c r="L6" s="44">
+        <v>0</v>
+      </c>
+      <c r="M6" s="44">
         <v>-0.22</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="57">
         <v>23.6</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>138461980</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="59">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="58">
         <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>138475841</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.06</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>1.6656299999999999</v>
       </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0</v>
-      </c>
-      <c r="J8" s="46" t="s">
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="44">
         <v>1.67709</v>
       </c>
-      <c r="L8" s="45">
-        <v>0</v>
-      </c>
-      <c r="M8" s="45">
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="44">
         <v>-2.39</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="57">
         <v>48.47</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>138654225</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>0.05</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="46">
         <v>1.6786099999999999</v>
       </c>
-      <c r="H9" s="47">
-        <v>0</v>
-      </c>
-      <c r="I9" s="47">
-        <v>0</v>
-      </c>
-      <c r="J9" s="48" t="s">
+      <c r="H9" s="46">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46">
+        <v>0</v>
+      </c>
+      <c r="J9" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="46">
         <v>1.6778999999999999</v>
       </c>
-      <c r="L9" s="47">
-        <v>0</v>
-      </c>
-      <c r="M9" s="47">
-        <v>0</v>
-      </c>
-      <c r="N9" s="57">
+      <c r="L9" s="46">
+        <v>0</v>
+      </c>
+      <c r="M9" s="46">
+        <v>0</v>
+      </c>
+      <c r="N9" s="56">
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>138723413</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="55">
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="54">
         <v>-20</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>138732442</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>0.01</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <v>1.90551</v>
       </c>
-      <c r="H11" s="47">
-        <v>0</v>
-      </c>
-      <c r="I11" s="47">
-        <v>0</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="H11" s="46">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="46">
         <v>1.90669</v>
       </c>
-      <c r="L11" s="47">
-        <v>0</v>
-      </c>
-      <c r="M11" s="47">
+      <c r="L11" s="46">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
         <v>-0.4</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="56">
         <v>0.82</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <v>138736541</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.12</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>1.9080299999999999</v>
       </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0</v>
-      </c>
-      <c r="J12" s="46" t="s">
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="44">
         <v>1.9093899999999999</v>
       </c>
-      <c r="L12" s="45">
-        <v>0</v>
-      </c>
-      <c r="M12" s="45">
+      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="M12" s="44">
         <v>-4.54</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="57">
         <v>11.35</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>138897659</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>0.12</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="46">
         <v>1.3014600000000001</v>
       </c>
-      <c r="H13" s="47">
-        <v>0</v>
-      </c>
-      <c r="I13" s="47">
-        <v>0</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="46">
+        <v>0</v>
+      </c>
+      <c r="I13" s="46">
+        <v>0</v>
+      </c>
+      <c r="J13" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="46">
         <v>1.29772</v>
       </c>
-      <c r="L13" s="47">
-        <v>0</v>
-      </c>
-      <c r="M13" s="47">
+      <c r="L13" s="46">
+        <v>0</v>
+      </c>
+      <c r="M13" s="46">
         <v>-0.88</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="56">
         <v>34.58</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>138953312</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.05</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>147.58099999999999</v>
       </c>
-      <c r="H14" s="45">
-        <v>0</v>
-      </c>
-      <c r="I14" s="45">
-        <v>0</v>
-      </c>
-      <c r="J14" s="46" t="s">
+      <c r="H14" s="44">
+        <v>0</v>
+      </c>
+      <c r="I14" s="44">
+        <v>0</v>
+      </c>
+      <c r="J14" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="44">
         <v>147.79400000000001</v>
       </c>
-      <c r="L14" s="45">
-        <v>0</v>
-      </c>
-      <c r="M14" s="45">
-        <v>0</v>
-      </c>
-      <c r="N14" s="58">
+      <c r="L14" s="44">
+        <v>0</v>
+      </c>
+      <c r="M14" s="44">
+        <v>0</v>
+      </c>
+      <c r="N14" s="57">
         <v>9.68</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>138963274</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <v>0.05</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="46">
         <v>111.79300000000001</v>
       </c>
-      <c r="H15" s="47">
-        <v>0</v>
-      </c>
-      <c r="I15" s="47">
-        <v>0</v>
-      </c>
-      <c r="J15" s="48" t="s">
+      <c r="H15" s="46">
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="46">
         <v>111.069</v>
       </c>
-      <c r="L15" s="47">
-        <v>0</v>
-      </c>
-      <c r="M15" s="47">
-        <v>0</v>
-      </c>
-      <c r="N15" s="57">
+      <c r="L15" s="46">
+        <v>0</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0</v>
+      </c>
+      <c r="N15" s="56">
         <v>32.78</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <v>139069945</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <v>1.52217</v>
       </c>
-      <c r="H16" s="45">
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
-        <v>0</v>
-      </c>
-      <c r="J16" s="46" t="s">
+      <c r="H16" s="44">
+        <v>0</v>
+      </c>
+      <c r="I16" s="44">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="44">
         <v>1.5281100000000001</v>
       </c>
-      <c r="L16" s="45">
-        <v>0</v>
-      </c>
-      <c r="M16" s="45">
-        <v>0</v>
-      </c>
-      <c r="N16" s="58">
+      <c r="L16" s="44">
+        <v>0</v>
+      </c>
+      <c r="M16" s="44">
+        <v>0</v>
+      </c>
+      <c r="N16" s="57">
         <v>-31.59</v>
       </c>
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>139070001</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <v>0.06</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="46">
         <v>1.90944</v>
       </c>
-      <c r="H17" s="47">
-        <v>0</v>
-      </c>
-      <c r="I17" s="47">
-        <v>0</v>
-      </c>
-      <c r="J17" s="48" t="s">
+      <c r="H17" s="46">
+        <v>0</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="46">
         <v>1.9113</v>
       </c>
-      <c r="L17" s="47">
-        <v>0</v>
-      </c>
-      <c r="M17" s="47">
-        <v>0</v>
-      </c>
-      <c r="N17" s="57">
+      <c r="L17" s="46">
+        <v>0</v>
+      </c>
+      <c r="M17" s="46">
+        <v>0</v>
+      </c>
+      <c r="N17" s="56">
         <v>-7.75</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <v>139076560</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <v>0.13</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <v>1.66998</v>
       </c>
-      <c r="H18" s="45">
-        <v>0</v>
-      </c>
-      <c r="I18" s="45">
-        <v>0</v>
-      </c>
-      <c r="J18" s="46" t="s">
+      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="I18" s="44">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="44">
         <v>1.67113</v>
       </c>
-      <c r="L18" s="45">
-        <v>0</v>
-      </c>
-      <c r="M18" s="45">
-        <v>0</v>
-      </c>
-      <c r="N18" s="58">
+      <c r="L18" s="44">
+        <v>0</v>
+      </c>
+      <c r="M18" s="44">
+        <v>0</v>
+      </c>
+      <c r="N18" s="57">
         <v>10.39</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B19" s="56">
+      <c r="B19" s="55">
         <v>139121598</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>0.1</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="46">
         <v>1.67015</v>
       </c>
-      <c r="H19" s="47">
-        <v>0</v>
-      </c>
-      <c r="I19" s="47">
-        <v>0</v>
-      </c>
-      <c r="J19" s="48" t="s">
+      <c r="H19" s="46">
+        <v>0</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="46">
         <v>1.6797599999999999</v>
       </c>
-      <c r="L19" s="47">
-        <v>0</v>
-      </c>
-      <c r="M19" s="47">
+      <c r="L19" s="46">
+        <v>0</v>
+      </c>
+      <c r="M19" s="46">
         <v>-0.97</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="56">
         <v>66.22</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B20" s="54">
+      <c r="B20" s="53">
         <v>139177488</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <v>0.06</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="44">
         <v>1.7922199999999999</v>
       </c>
-      <c r="H20" s="45">
-        <v>0</v>
-      </c>
-      <c r="I20" s="45">
-        <v>0</v>
-      </c>
-      <c r="J20" s="46" t="s">
+      <c r="H20" s="44">
+        <v>0</v>
+      </c>
+      <c r="I20" s="44">
+        <v>0</v>
+      </c>
+      <c r="J20" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="44">
         <v>1.79392</v>
       </c>
-      <c r="L20" s="45">
-        <v>0</v>
-      </c>
-      <c r="M20" s="45">
-        <v>0</v>
-      </c>
-      <c r="N20" s="58">
+      <c r="L20" s="44">
+        <v>0</v>
+      </c>
+      <c r="M20" s="44">
+        <v>0</v>
+      </c>
+      <c r="N20" s="57">
         <v>7.51</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B21" s="56">
+      <c r="B21" s="55">
         <v>139189288</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <v>0.06</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="46">
         <v>1.79284</v>
       </c>
-      <c r="H21" s="47">
-        <v>0</v>
-      </c>
-      <c r="I21" s="47">
-        <v>0</v>
-      </c>
-      <c r="J21" s="48" t="s">
+      <c r="H21" s="46">
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="46">
         <v>1.78762</v>
       </c>
-      <c r="L21" s="47">
-        <v>0</v>
-      </c>
-      <c r="M21" s="47">
-        <v>0</v>
-      </c>
-      <c r="N21" s="57">
+      <c r="L21" s="46">
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <v>0</v>
+      </c>
+      <c r="N21" s="56">
         <v>23.07</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B22" s="54">
+      <c r="B22" s="53">
         <v>139193605</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="44">
         <v>0.05</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="44">
         <v>1.7907599999999999</v>
       </c>
-      <c r="H22" s="45">
-        <v>0</v>
-      </c>
-      <c r="I22" s="45">
-        <v>0</v>
-      </c>
-      <c r="J22" s="46" t="s">
+      <c r="H22" s="44">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
+        <v>0</v>
+      </c>
+      <c r="J22" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="44">
         <v>1.7876399999999999</v>
       </c>
-      <c r="L22" s="45">
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="58">
+      <c r="L22" s="44">
+        <v>0</v>
+      </c>
+      <c r="M22" s="44">
+        <v>0</v>
+      </c>
+      <c r="N22" s="57">
         <v>11.49</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B23" s="56">
+      <c r="B23" s="55">
         <v>139209052</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="46">
         <v>0.1</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="46">
         <v>144.608</v>
       </c>
-      <c r="H23" s="47">
-        <v>0</v>
-      </c>
-      <c r="I23" s="47">
-        <v>0</v>
-      </c>
-      <c r="J23" s="48" t="s">
+      <c r="H23" s="46">
+        <v>0</v>
+      </c>
+      <c r="I23" s="46">
+        <v>0</v>
+      </c>
+      <c r="J23" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="46">
         <v>145.274</v>
       </c>
-      <c r="L23" s="47">
-        <v>0</v>
-      </c>
-      <c r="M23" s="47">
+      <c r="L23" s="46">
+        <v>0</v>
+      </c>
+      <c r="M23" s="46">
         <v>-0.08</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="56">
         <v>60.22</v>
       </c>
     </row>
     <row r="24" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B24" s="54">
+      <c r="B24" s="53">
         <v>139249180</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="55">
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="54">
         <v>699.54</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>139254304</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="46">
         <v>0.06</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="46">
         <v>1.9072100000000001</v>
       </c>
-      <c r="H25" s="47">
-        <v>0</v>
-      </c>
-      <c r="I25" s="47">
-        <v>0</v>
-      </c>
-      <c r="J25" s="48" t="s">
+      <c r="H25" s="46">
+        <v>0</v>
+      </c>
+      <c r="I25" s="46">
+        <v>0</v>
+      </c>
+      <c r="J25" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="46">
         <v>1.9213800000000001</v>
       </c>
-      <c r="L25" s="47">
-        <v>0</v>
-      </c>
-      <c r="M25" s="47">
+      <c r="L25" s="46">
+        <v>0</v>
+      </c>
+      <c r="M25" s="46">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N25" s="56">
         <v>58.1</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B26" s="54">
+      <c r="B26" s="53">
         <v>139288612</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="44">
         <v>0.05</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <v>145.35</v>
       </c>
-      <c r="H26" s="45">
-        <v>0</v>
-      </c>
-      <c r="I26" s="45">
-        <v>0</v>
-      </c>
-      <c r="J26" s="46" t="s">
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
+        <v>0</v>
+      </c>
+      <c r="J26" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="44">
         <v>146.04</v>
       </c>
-      <c r="L26" s="45">
-        <v>0</v>
-      </c>
-      <c r="M26" s="45">
+      <c r="L26" s="44">
+        <v>0</v>
+      </c>
+      <c r="M26" s="44">
         <v>-0.03</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N26" s="57">
         <v>31.29</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <v>139320132</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="46">
         <v>0.05</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="46">
         <v>1.9212400000000001</v>
       </c>
-      <c r="H27" s="47">
-        <v>0</v>
-      </c>
-      <c r="I27" s="47">
-        <v>0</v>
-      </c>
-      <c r="J27" s="48" t="s">
+      <c r="H27" s="46">
+        <v>0</v>
+      </c>
+      <c r="I27" s="46">
+        <v>0</v>
+      </c>
+      <c r="J27" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="46">
         <v>1.91825</v>
       </c>
-      <c r="L27" s="47">
-        <v>0</v>
-      </c>
-      <c r="M27" s="47">
-        <v>0</v>
-      </c>
-      <c r="N27" s="57">
+      <c r="L27" s="46">
+        <v>0</v>
+      </c>
+      <c r="M27" s="46">
+        <v>0</v>
+      </c>
+      <c r="N27" s="56">
         <v>10.23</v>
       </c>
     </row>
     <row r="28" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B28" s="54">
+      <c r="B28" s="53">
         <v>139321846</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="44">
         <v>0.13</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="44">
         <v>145</v>
       </c>
-      <c r="H28" s="45">
-        <v>0</v>
-      </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
-      <c r="J28" s="46" t="s">
+      <c r="H28" s="44">
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
+        <v>0</v>
+      </c>
+      <c r="J28" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="44">
         <v>146.07</v>
       </c>
-      <c r="L28" s="45">
-        <v>0</v>
-      </c>
-      <c r="M28" s="45">
-        <v>0</v>
-      </c>
-      <c r="N28" s="58">
+      <c r="L28" s="44">
+        <v>0</v>
+      </c>
+      <c r="M28" s="44">
+        <v>0</v>
+      </c>
+      <c r="N28" s="57">
         <v>126.17</v>
       </c>
     </row>
     <row r="29" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <v>139344009</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <v>0.05</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="46">
         <v>1.9267300000000001</v>
       </c>
-      <c r="H29" s="47">
-        <v>0</v>
-      </c>
-      <c r="I29" s="47">
-        <v>0</v>
-      </c>
-      <c r="J29" s="48" t="s">
+      <c r="H29" s="46">
+        <v>0</v>
+      </c>
+      <c r="I29" s="46">
+        <v>0</v>
+      </c>
+      <c r="J29" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="46">
         <v>1.9274500000000001</v>
       </c>
-      <c r="L29" s="47">
-        <v>0</v>
-      </c>
-      <c r="M29" s="47">
-        <v>0</v>
-      </c>
-      <c r="N29" s="57">
+      <c r="L29" s="46">
+        <v>0</v>
+      </c>
+      <c r="M29" s="46">
+        <v>0</v>
+      </c>
+      <c r="N29" s="56">
         <v>2.48</v>
       </c>
     </row>
     <row r="30" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B30" s="54">
+      <c r="B30" s="53">
         <v>139373451</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="44">
         <v>0.1</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="44">
         <v>145.71899999999999</v>
       </c>
-      <c r="H30" s="45">
-        <v>0</v>
-      </c>
-      <c r="I30" s="45">
-        <v>0</v>
-      </c>
-      <c r="J30" s="46" t="s">
+      <c r="H30" s="44">
+        <v>0</v>
+      </c>
+      <c r="I30" s="44">
+        <v>0</v>
+      </c>
+      <c r="J30" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="44">
         <v>146.01400000000001</v>
       </c>
-      <c r="L30" s="45">
-        <v>0</v>
-      </c>
-      <c r="M30" s="45">
+      <c r="L30" s="44">
+        <v>0</v>
+      </c>
+      <c r="M30" s="44">
         <v>-0.02</v>
       </c>
-      <c r="N30" s="58">
+      <c r="N30" s="57">
         <v>26.8</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B31" s="56">
+      <c r="B31" s="55">
         <v>139381854</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="46">
         <v>0.08</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="46">
         <v>145.947</v>
       </c>
-      <c r="H31" s="47">
-        <v>0</v>
-      </c>
-      <c r="I31" s="47">
-        <v>0</v>
-      </c>
-      <c r="J31" s="48" t="s">
+      <c r="H31" s="46">
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <v>0</v>
+      </c>
+      <c r="J31" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="46">
         <v>146.01</v>
       </c>
-      <c r="L31" s="47">
-        <v>0</v>
-      </c>
-      <c r="M31" s="47">
-        <v>0</v>
-      </c>
-      <c r="N31" s="57">
+      <c r="L31" s="46">
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <v>0</v>
+      </c>
+      <c r="N31" s="56">
         <v>4.58</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B32" s="54">
+      <c r="B32" s="53">
         <v>139407314</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="44">
         <v>0.05</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="44">
         <v>1.32681</v>
       </c>
-      <c r="H32" s="45">
-        <v>0</v>
-      </c>
-      <c r="I32" s="45">
-        <v>0</v>
-      </c>
-      <c r="J32" s="46" t="s">
+      <c r="H32" s="44">
+        <v>0</v>
+      </c>
+      <c r="I32" s="44">
+        <v>0</v>
+      </c>
+      <c r="J32" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="44">
         <v>1.33399</v>
       </c>
-      <c r="L32" s="45">
-        <v>0</v>
-      </c>
-      <c r="M32" s="45">
-        <v>0</v>
-      </c>
-      <c r="N32" s="58">
+      <c r="L32" s="44">
+        <v>0</v>
+      </c>
+      <c r="M32" s="44">
+        <v>0</v>
+      </c>
+      <c r="N32" s="57">
         <v>-26.91</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B33" s="56">
+      <c r="B33" s="55">
         <v>139426625</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="46">
         <v>0.2</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="46">
         <v>145.5</v>
       </c>
-      <c r="H33" s="47">
-        <v>0</v>
-      </c>
-      <c r="I33" s="47">
-        <v>0</v>
-      </c>
-      <c r="J33" s="48" t="s">
+      <c r="H33" s="46">
+        <v>0</v>
+      </c>
+      <c r="I33" s="46">
+        <v>0</v>
+      </c>
+      <c r="J33" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="46">
         <v>146.16900000000001</v>
       </c>
-      <c r="L33" s="47">
-        <v>0</v>
-      </c>
-      <c r="M33" s="47">
+      <c r="L33" s="46">
+        <v>0</v>
+      </c>
+      <c r="M33" s="46">
         <v>-0.23</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="56">
         <v>120.79</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B34" s="54">
+      <c r="B34" s="53">
         <v>139619569</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="44">
         <v>0.08</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="44">
         <v>1.16625</v>
       </c>
-      <c r="H34" s="45">
-        <v>0</v>
-      </c>
-      <c r="I34" s="45">
-        <v>0</v>
-      </c>
-      <c r="J34" s="46" t="s">
+      <c r="H34" s="44">
+        <v>0</v>
+      </c>
+      <c r="I34" s="44">
+        <v>0</v>
+      </c>
+      <c r="J34" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="44">
         <v>1.16649</v>
       </c>
-      <c r="L34" s="45">
-        <v>0</v>
-      </c>
-      <c r="M34" s="45">
-        <v>0</v>
-      </c>
-      <c r="N34" s="58">
+      <c r="L34" s="44">
+        <v>0</v>
+      </c>
+      <c r="M34" s="44">
+        <v>0</v>
+      </c>
+      <c r="N34" s="57">
         <v>-1.92</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B35" s="56">
+      <c r="B35" s="55">
         <v>139619621</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="46">
         <v>0.08</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="46">
         <v>1.1663300000000001</v>
       </c>
-      <c r="H35" s="47">
-        <v>0</v>
-      </c>
-      <c r="I35" s="47">
-        <v>0</v>
-      </c>
-      <c r="J35" s="48" t="s">
+      <c r="H35" s="46">
+        <v>0</v>
+      </c>
+      <c r="I35" s="46">
+        <v>0</v>
+      </c>
+      <c r="J35" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="47">
+      <c r="K35" s="46">
         <v>1.16723</v>
       </c>
-      <c r="L35" s="47">
-        <v>0</v>
-      </c>
-      <c r="M35" s="47">
+      <c r="L35" s="46">
+        <v>0</v>
+      </c>
+      <c r="M35" s="46">
         <v>-2.87</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="56">
         <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B36" s="54">
+      <c r="B36" s="53">
         <v>139682129</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="44">
         <v>0.05</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="44">
         <v>144.619</v>
       </c>
-      <c r="H36" s="45">
-        <v>0</v>
-      </c>
-      <c r="I36" s="45">
-        <v>0</v>
-      </c>
-      <c r="J36" s="46" t="s">
+      <c r="H36" s="44">
+        <v>0</v>
+      </c>
+      <c r="I36" s="44">
+        <v>0</v>
+      </c>
+      <c r="J36" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="K36" s="45">
+      <c r="K36" s="44">
         <v>145.21700000000001</v>
       </c>
-      <c r="L36" s="45">
-        <v>0</v>
-      </c>
-      <c r="M36" s="45">
+      <c r="L36" s="44">
+        <v>0</v>
+      </c>
+      <c r="M36" s="44">
         <v>-0.04</v>
       </c>
-      <c r="N36" s="58">
+      <c r="N36" s="57">
         <v>27.01</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B37" s="56">
+      <c r="B37" s="55">
         <v>139780262</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="59">
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="58">
         <v>-150</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="49">
-        <v>0</v>
-      </c>
-      <c r="M38" s="49">
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="48">
+        <v>0</v>
+      </c>
+      <c r="M38" s="48">
         <v>-37.619999999999997</v>
       </c>
-      <c r="N38" s="60">
+      <c r="N38" s="59">
         <v>763.8</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66">
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80">
         <v>726.18</v>
       </c>
-      <c r="N39" s="67"/>
+      <c r="N39" s="81"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -4485,16 +4605,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E24:M24"/>
     <mergeCell ref="E37:M37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4689,17 +4809,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4714,17 +4834,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4821,17 +4941,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4887,17 +5007,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4994,17 +5114,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -5060,17 +5180,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -5126,17 +5246,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -5356,32 +5476,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -5393,30 +5513,35 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75">
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86">
         <v>745.39</v>
       </c>
-      <c r="N26" s="76"/>
+      <c r="N26" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -5425,11 +5550,6 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="193">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -602,9 +602,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
   </si>
   <si>
     <t>Withdraw</t>
-  </si>
-  <si>
-    <t>TAY-Capital</t>
   </si>
 </sst>
 </file>
@@ -622,17 +616,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;%&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -672,7 +666,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -691,7 +685,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -728,14 +722,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FF1616AA"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,20 +748,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -993,165 +969,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,27 +1045,15 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1298,57 +1110,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1368,23 +1158,76 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF0F22B1"/>
@@ -1448,6 +1291,199 @@
         <patternFill patternType="lightUp">
           <fgColor theme="7" tint="0.39994506668294322"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <fgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <fgColor rgb="FF1616AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <fgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0F22B1"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <fgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1748,7 +1784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1756,41 +1792,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M72"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="10.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
     <col min="3" max="7" width="14" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="18" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="18"/>
-    <col min="13" max="13" width="18.5703125" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="18"/>
+    <col min="10" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:13" ht="15.75" thickTop="1">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="L2" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="69"/>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="26" t="s">
         <v>72</v>
       </c>
@@ -1801,842 +1834,350 @@
         <v>75</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>106</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="89">
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" s="73">
         <v>43101</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="74">
         <v>881.13</v>
       </c>
-      <c r="D4" s="90">
-        <v>0</v>
-      </c>
-      <c r="E4" s="90">
-        <v>0</v>
-      </c>
-      <c r="F4" s="91">
-        <v>0</v>
-      </c>
-      <c r="G4" s="90">
-        <f t="shared" ref="G4:G11" si="0">C4+D4+F4-E4</f>
+      <c r="D4" s="74">
+        <v>0</v>
+      </c>
+      <c r="E4" s="74">
+        <v>0</v>
+      </c>
+      <c r="F4" s="75">
+        <v>0</v>
+      </c>
+      <c r="G4" s="74">
+        <f t="shared" ref="G4:G9" si="0">C4+D4+F4-E4</f>
         <v>881.13</v>
       </c>
-      <c r="H4" s="90">
-        <f t="shared" ref="H4:H11" si="1">C4+D4+(0.286*C4)</f>
+      <c r="H4" s="74">
+        <f>C4+D4+(0.286*(C4+D4))</f>
         <v>1133.13318</v>
       </c>
-      <c r="I4" s="92">
-        <f t="shared" ref="I4:I11" si="2">(F4/C4)*100</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="89">
+      <c r="I4" s="35">
+        <f>(F4/(C4+D4))*100</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" s="73">
         <v>43132</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="74">
         <v>881.13</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="74">
         <v>400</v>
       </c>
-      <c r="E5" s="90">
-        <v>0</v>
-      </c>
-      <c r="F5" s="91">
+      <c r="E5" s="74">
+        <v>0</v>
+      </c>
+      <c r="F5" s="75">
         <v>40.92</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="74">
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H5" s="90">
-        <f t="shared" si="1"/>
-        <v>1533.13318</v>
-      </c>
-      <c r="I5" s="92">
-        <f t="shared" si="2"/>
-        <v>4.6440366347757989</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="89">
+      <c r="H5" s="74">
+        <f t="shared" ref="H5:H10" si="1">C5+D5+(0.286*(C5+D5))</f>
+        <v>1647.5331800000001</v>
+      </c>
+      <c r="I5" s="35">
+        <f t="shared" ref="I5:I10" si="2">(F5/(C5+D5))*100</f>
+        <v>3.1940552481012849</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1">
+      <c r="B6" s="73">
         <v>43160</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="74">
         <f>G5</f>
         <v>1322.0500000000002</v>
       </c>
-      <c r="D6" s="90">
-        <v>0</v>
-      </c>
-      <c r="E6" s="90">
-        <v>0</v>
-      </c>
-      <c r="F6" s="91">
-        <v>0</v>
-      </c>
-      <c r="G6" s="90">
+      <c r="D6" s="74">
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <v>0</v>
+      </c>
+      <c r="F6" s="75">
+        <v>0</v>
+      </c>
+      <c r="G6" s="74">
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="74">
         <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="89">
+      <c r="J6" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1">
+      <c r="B7" s="73">
         <v>43191</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="74">
         <f>G6</f>
         <v>1322.0500000000002</v>
       </c>
-      <c r="D7" s="90">
-        <v>0</v>
-      </c>
-      <c r="E7" s="90">
-        <v>0</v>
-      </c>
-      <c r="F7" s="91">
+      <c r="D7" s="74">
+        <v>0</v>
+      </c>
+      <c r="E7" s="74">
+        <v>0</v>
+      </c>
+      <c r="F7" s="75">
         <v>119.16</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="74">
         <f t="shared" si="0"/>
         <v>1441.2100000000003</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="74">
         <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="35">
         <f t="shared" si="2"/>
         <v>9.0132748383192762</v>
       </c>
-      <c r="J7" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="89">
+      <c r="J7" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1">
+      <c r="B8" s="73">
         <v>43221</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="74">
         <f>G7</f>
         <v>1441.2100000000003</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="74">
         <v>817.81</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="74">
         <v>270</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="75">
         <v>745.39</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="74">
         <f t="shared" si="0"/>
         <v>2734.4100000000003</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="74">
         <f t="shared" si="1"/>
-        <v>2671.2060600000004</v>
-      </c>
-      <c r="I8" s="92">
+        <v>2905.0997200000006</v>
+      </c>
+      <c r="I8" s="35">
         <f t="shared" si="2"/>
-        <v>51.71973550003122</v>
-      </c>
-      <c r="J8" s="93" t="s">
+        <v>32.996166479269768</v>
+      </c>
+      <c r="J8" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B9" s="89">
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B9" s="73">
         <v>43252</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="74">
         <f>G8</f>
         <v>2734.4100000000003</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="74">
         <v>699.54</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="74">
         <v>270</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="75">
         <v>726.18</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="74">
         <f t="shared" si="0"/>
         <v>3890.13</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="74">
         <f t="shared" si="1"/>
-        <v>4215.9912600000007</v>
-      </c>
-      <c r="I9" s="92">
+        <v>4416.0596999999998</v>
+      </c>
+      <c r="I9" s="35">
         <f t="shared" si="2"/>
-        <v>26.557100069119109</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B10" s="89">
+        <v>21.147075525269727</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15" customHeight="1">
+      <c r="B10" s="73">
         <v>43282</v>
       </c>
-      <c r="C10" s="90">
-        <f>G8</f>
-        <v>2734.4100000000003</v>
-      </c>
-      <c r="D10" s="90">
-        <v>0</v>
-      </c>
-      <c r="E10" s="90">
-        <v>0</v>
-      </c>
-      <c r="F10" s="91">
+      <c r="C10" s="74">
+        <f>G9</f>
+        <v>3890.13</v>
+      </c>
+      <c r="D10" s="74">
+        <v>0</v>
+      </c>
+      <c r="E10" s="74">
+        <v>90</v>
+      </c>
+      <c r="F10" s="75">
         <v>398.59</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="74">
         <f t="shared" ref="G10" si="3">C10+D10+F10-E10</f>
-        <v>3133.0000000000005</v>
-      </c>
-      <c r="H10" s="90">
-        <f t="shared" ref="H10" si="4">C10+D10+(0.286*C10)</f>
-        <v>3516.4512600000003</v>
-      </c>
-      <c r="I10" s="92">
-        <f t="shared" ref="I10:I11" si="5">(F10/C10)*100</f>
-        <v>14.576819131000834</v>
-      </c>
-      <c r="J10" s="93"/>
-      <c r="L10" s="61">
+        <v>4198.72</v>
+      </c>
+      <c r="H10" s="74">
+        <f t="shared" si="1"/>
+        <v>5002.7071800000003</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>10.246187145416734</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B11" s="27">
         <v>43282</v>
       </c>
-      <c r="M10" s="62">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickTop="1">
-      <c r="B11" s="28">
-        <v>43282</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
         <v>5169.93</v>
       </c>
-      <c r="E11" s="29">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
         <v>50.76</v>
       </c>
-      <c r="G11" s="29">
-        <f t="shared" si="0"/>
+      <c r="G11" s="28">
+        <f>(C11+D11+F11)-E11</f>
         <v>5220.6900000000005</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <f>C11+D11+(0.286*(C11+D11))</f>
         <v>6648.5299800000003</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="56">
         <f>(F11/(C11+D11))*100</f>
         <v>0.98183147547452276</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="L11" s="61">
-        <v>43282</v>
-      </c>
-      <c r="M11" s="62">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="39"/>
+      <c r="J11" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="19"/>
-      <c r="L12" s="63">
-        <v>43313</v>
-      </c>
-      <c r="M12" s="64">
-        <v>9002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="26" t="s">
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37">
+      <c r="C13" s="78"/>
+      <c r="D13" s="79">
         <f>SUM(D5:D12)</f>
         <v>7087.2800000000007</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="79">
         <f>SUM(E5:E12)</f>
-        <v>540</v>
-      </c>
-      <c r="F13" s="60">
+        <v>630</v>
+      </c>
+      <c r="F13" s="80">
         <f>SUM(F4:F12)</f>
         <v>2081</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="38">
+      <c r="G13" s="78"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="76">
         <f>AVERAGE(I5:I12)</f>
-        <v>15.356113949817251</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="L13" s="63">
-        <v>43344</v>
-      </c>
-      <c r="M13" s="64">
-        <v>11576.57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="I14" s="34"/>
-      <c r="L14" s="63">
-        <v>43374</v>
-      </c>
-      <c r="M14" s="64">
-        <v>14887.47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="L15" s="63">
-        <v>43405</v>
-      </c>
-      <c r="M15" s="64">
-        <v>19145.29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="L16" s="63">
-        <v>43435</v>
-      </c>
-      <c r="M16" s="64">
-        <v>24620.84</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13">
-      <c r="L17" s="63">
-        <v>43466</v>
-      </c>
-      <c r="M17" s="64">
-        <v>31662.400000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="12:13">
-      <c r="L18" s="63">
-        <v>43497</v>
-      </c>
-      <c r="M18" s="64">
-        <v>40717.85</v>
-      </c>
-    </row>
-    <row r="19" spans="12:13">
-      <c r="L19" s="63">
-        <v>43525</v>
-      </c>
-      <c r="M19" s="64">
-        <v>52363.15</v>
-      </c>
-    </row>
-    <row r="20" spans="12:13">
-      <c r="L20" s="63">
-        <v>43556</v>
-      </c>
-      <c r="M20" s="64">
-        <v>67339.009999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="12:13">
-      <c r="L21" s="63">
-        <v>43586</v>
-      </c>
-      <c r="M21" s="64">
-        <v>86597.97</v>
-      </c>
-    </row>
-    <row r="22" spans="12:13">
-      <c r="L22" s="65">
-        <v>43617</v>
-      </c>
-      <c r="M22" s="64">
-        <v>111364.99</v>
-      </c>
-    </row>
-    <row r="23" spans="12:13">
-      <c r="L23" s="63">
-        <v>43647</v>
-      </c>
-      <c r="M23" s="64">
-        <v>143215.38</v>
-      </c>
-    </row>
-    <row r="24" spans="12:13">
-      <c r="L24" s="63">
-        <v>43678</v>
-      </c>
-      <c r="M24" s="64">
-        <v>184174.98</v>
-      </c>
-    </row>
-    <row r="25" spans="12:13">
-      <c r="L25" s="63">
-        <v>43709</v>
-      </c>
-      <c r="M25" s="64">
-        <v>236849.02</v>
-      </c>
-    </row>
-    <row r="26" spans="12:13">
-      <c r="L26" s="63">
-        <v>43739</v>
-      </c>
-      <c r="M26" s="64">
-        <v>304587.84999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="12:13">
-      <c r="L27" s="63">
-        <v>43770</v>
-      </c>
-      <c r="M27" s="64">
-        <v>391699.97</v>
-      </c>
-    </row>
-    <row r="28" spans="12:13">
-      <c r="L28" s="63">
-        <v>43800</v>
-      </c>
-      <c r="M28" s="64">
-        <v>503726.16</v>
-      </c>
-    </row>
-    <row r="29" spans="12:13">
-      <c r="L29" s="63">
-        <v>43831</v>
-      </c>
-      <c r="M29" s="64">
-        <v>647791.84</v>
-      </c>
-    </row>
-    <row r="30" spans="12:13">
-      <c r="L30" s="63">
-        <v>43862</v>
-      </c>
-      <c r="M30" s="64">
-        <v>833060.31</v>
-      </c>
-    </row>
-    <row r="31" spans="12:13">
-      <c r="L31" s="63">
-        <v>43891</v>
-      </c>
-      <c r="M31" s="64">
-        <v>1071315.56</v>
-      </c>
-    </row>
-    <row r="32" spans="12:13">
-      <c r="L32" s="63">
-        <v>43922</v>
-      </c>
-      <c r="M32" s="64">
-        <v>1377711.81</v>
-      </c>
-    </row>
-    <row r="33" spans="12:13">
-      <c r="L33" s="63">
-        <v>43952</v>
-      </c>
-      <c r="M33" s="64">
-        <v>1771737.38</v>
-      </c>
-    </row>
-    <row r="34" spans="12:13">
-      <c r="L34" s="65">
-        <v>43983</v>
-      </c>
-      <c r="M34" s="64">
-        <v>2278454.2799999998</v>
-      </c>
-    </row>
-    <row r="35" spans="12:13">
-      <c r="L35" s="63">
-        <v>44013</v>
-      </c>
-      <c r="M35" s="64">
-        <v>2930092.2</v>
-      </c>
-    </row>
-    <row r="36" spans="12:13">
-      <c r="L36" s="63">
-        <v>44044</v>
-      </c>
-      <c r="M36" s="64">
-        <v>3768098.57</v>
-      </c>
-    </row>
-    <row r="37" spans="12:13">
-      <c r="L37" s="63">
-        <v>44075</v>
-      </c>
-      <c r="M37" s="64">
-        <v>4845774.76</v>
-      </c>
-    </row>
-    <row r="38" spans="12:13">
-      <c r="L38" s="63">
-        <v>44105</v>
-      </c>
-      <c r="M38" s="64">
-        <v>6231666.3399999999</v>
-      </c>
-    </row>
-    <row r="39" spans="12:13">
-      <c r="L39" s="63">
-        <v>44136</v>
-      </c>
-      <c r="M39" s="64">
-        <v>8013922.9100000001</v>
-      </c>
-    </row>
-    <row r="40" spans="12:13">
-      <c r="L40" s="63">
-        <v>44166</v>
-      </c>
-      <c r="M40" s="64">
-        <v>10305904.859999999</v>
-      </c>
-    </row>
-    <row r="41" spans="12:13">
-      <c r="L41" s="63">
-        <v>44197</v>
-      </c>
-      <c r="M41" s="64">
-        <v>13253393.65</v>
-      </c>
-    </row>
-    <row r="42" spans="12:13">
-      <c r="L42" s="63">
-        <v>44228</v>
-      </c>
-      <c r="M42" s="64">
-        <v>17043864.239999998</v>
-      </c>
-    </row>
-    <row r="43" spans="12:13">
-      <c r="L43" s="63">
-        <v>44256</v>
-      </c>
-      <c r="M43" s="64">
-        <v>21918409.41</v>
-      </c>
-    </row>
-    <row r="44" spans="12:13">
-      <c r="L44" s="63">
-        <v>44287</v>
-      </c>
-      <c r="M44" s="64">
-        <v>28187074.5</v>
-      </c>
-    </row>
-    <row r="45" spans="12:13">
-      <c r="L45" s="63">
-        <v>44317</v>
-      </c>
-      <c r="M45" s="64">
-        <v>36248577.810000002</v>
-      </c>
-    </row>
-    <row r="46" spans="12:13">
-      <c r="L46" s="65">
-        <v>44348</v>
-      </c>
-      <c r="M46" s="64">
-        <v>46615671.07</v>
-      </c>
-    </row>
-    <row r="47" spans="12:13">
-      <c r="L47" s="63">
-        <v>44378</v>
-      </c>
-      <c r="M47" s="64">
-        <v>59947752.990000002</v>
-      </c>
-    </row>
-    <row r="48" spans="12:13">
-      <c r="L48" s="63">
-        <v>44409</v>
-      </c>
-      <c r="M48" s="64">
-        <v>77092810.349999994</v>
-      </c>
-    </row>
-    <row r="49" spans="12:13">
-      <c r="L49" s="63">
-        <v>44440</v>
-      </c>
-      <c r="M49" s="64">
-        <v>99141354.109999999</v>
-      </c>
-    </row>
-    <row r="50" spans="12:13">
-      <c r="L50" s="63">
-        <v>44470</v>
-      </c>
-      <c r="M50" s="64">
-        <v>127495781.39</v>
-      </c>
-    </row>
-    <row r="51" spans="12:13">
-      <c r="L51" s="63">
-        <v>44501</v>
-      </c>
-      <c r="M51" s="64">
-        <v>163959574.86000001</v>
-      </c>
-    </row>
-    <row r="52" spans="12:13">
-      <c r="L52" s="63">
-        <v>44531</v>
-      </c>
-      <c r="M52" s="64">
-        <v>210852013.27000001</v>
-      </c>
-    </row>
-    <row r="53" spans="12:13">
-      <c r="L53" s="63">
-        <v>44562</v>
-      </c>
-      <c r="M53" s="64">
-        <v>271155689.06999999</v>
-      </c>
-    </row>
-    <row r="54" spans="12:13">
-      <c r="L54" s="63">
-        <v>44593</v>
-      </c>
-      <c r="M54" s="64">
-        <v>348706216.13999999</v>
-      </c>
-    </row>
-    <row r="55" spans="12:13">
-      <c r="L55" s="63">
-        <v>44621</v>
-      </c>
-      <c r="M55" s="64">
-        <v>448436193.95999998</v>
-      </c>
-    </row>
-    <row r="56" spans="12:13">
-      <c r="L56" s="63">
-        <v>44652</v>
-      </c>
-      <c r="M56" s="64">
-        <v>576688945.42999995</v>
-      </c>
-    </row>
-    <row r="57" spans="12:13">
-      <c r="L57" s="63">
-        <v>44682</v>
-      </c>
-      <c r="M57" s="64">
-        <v>741621983.82000005</v>
-      </c>
-    </row>
-    <row r="58" spans="12:13">
-      <c r="L58" s="65">
-        <v>44713</v>
-      </c>
-      <c r="M58" s="64">
-        <v>953725871.19000006</v>
-      </c>
-    </row>
-    <row r="59" spans="12:13">
-      <c r="L59" s="63">
-        <v>44743</v>
-      </c>
-      <c r="M59" s="64">
-        <v>1226491470.3499999</v>
-      </c>
-    </row>
-    <row r="60" spans="12:13">
-      <c r="L60" s="63">
-        <v>44774</v>
-      </c>
-      <c r="M60" s="64">
-        <v>1577268030.8800001</v>
-      </c>
-    </row>
-    <row r="61" spans="12:13">
-      <c r="L61" s="63">
-        <v>44805</v>
-      </c>
-      <c r="M61" s="64">
-        <v>2028366687.71</v>
-      </c>
-    </row>
-    <row r="62" spans="12:13">
-      <c r="L62" s="63">
-        <v>44835</v>
-      </c>
-      <c r="M62" s="64">
-        <v>2608479560.3899999</v>
-      </c>
-    </row>
-    <row r="63" spans="12:13">
-      <c r="L63" s="63">
-        <v>44866</v>
-      </c>
-      <c r="M63" s="64">
-        <v>3354504714.6599998</v>
-      </c>
-    </row>
-    <row r="64" spans="12:13">
-      <c r="L64" s="63">
-        <v>44896</v>
-      </c>
-      <c r="M64" s="64">
-        <v>4313893063.0500002</v>
-      </c>
-    </row>
-    <row r="65" spans="12:13">
-      <c r="L65" s="63">
-        <v>44927</v>
-      </c>
-      <c r="M65" s="64">
-        <v>5547666479.0900002</v>
-      </c>
-    </row>
-    <row r="66" spans="12:13">
-      <c r="L66" s="63">
-        <v>44958</v>
-      </c>
-      <c r="M66" s="64">
-        <v>7134299092.1099997</v>
-      </c>
-    </row>
-    <row r="67" spans="12:13">
-      <c r="L67" s="63">
-        <v>44986</v>
-      </c>
-      <c r="M67" s="64">
-        <v>9174708632.4500008</v>
-      </c>
-    </row>
-    <row r="68" spans="12:13">
-      <c r="L68" s="63">
-        <v>45017</v>
-      </c>
-      <c r="M68" s="64">
-        <v>11798675301.33</v>
-      </c>
-    </row>
-    <row r="69" spans="12:13">
-      <c r="L69" s="63">
-        <v>45047</v>
-      </c>
-      <c r="M69" s="64">
-        <v>15173096437.51</v>
-      </c>
-    </row>
-    <row r="70" spans="12:13">
-      <c r="L70" s="63">
-        <v>45078</v>
-      </c>
-      <c r="M70" s="64">
-        <v>19512602018.639999</v>
-      </c>
-    </row>
-    <row r="71" spans="12:13" ht="15.75" thickBot="1">
-      <c r="L71" s="66">
-        <v>45108</v>
-      </c>
-      <c r="M71" s="67">
-        <v>25093206195.970001</v>
-      </c>
-    </row>
-    <row r="72" spans="12:13" ht="15.75" thickTop="1"/>
+        <v>11.082655815978757</v>
+      </c>
+      <c r="J13" s="81"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
+    <row r="24" ht="15" customHeight="1"/>
+    <row r="25" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:M9"/>
-  </mergeCells>
   <phoneticPr fontId="9"/>
-  <conditionalFormatting sqref="H5:I9 B4:I4 I12 J4:J9 J11:J12 H11">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+  <conditionalFormatting sqref="H5:I9 B4:I4 I12 J4:J9 J11:J12 H5:H11 I5:I10">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="formula" val="$G$11"/>
         <cfvo type="formula" val="$G$11"/>
@@ -2645,8 +2186,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I9 I12">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="I4:I10 I12">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="28.6"/>
@@ -2657,16 +2198,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:J10 I11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="H10:I10 I11">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="28.6"/>
@@ -2675,6 +2216,34 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="$G$11"/>
+        <cfvo type="formula" val="$G$11"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:J10">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="28">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:J13">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2694,34 +2263,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="13.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="18" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="6" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -3110,1493 +2679,1495 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A1" s="49">
+      <c r="A1" s="45">
         <v>43252</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B2" s="53">
+    <row r="2" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B2" s="49">
         <v>130907515</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="54" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B3" s="55">
+    <row r="3" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B3" s="51">
         <v>137714682</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="42">
         <v>0.1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="42">
         <v>147.316</v>
       </c>
-      <c r="H3" s="46">
-        <v>0</v>
-      </c>
-      <c r="I3" s="46">
-        <v>0</v>
-      </c>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="42">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="42">
         <v>147.66900000000001</v>
       </c>
-      <c r="L3" s="46">
-        <v>0</v>
-      </c>
-      <c r="M3" s="46">
+      <c r="L3" s="42">
+        <v>0</v>
+      </c>
+      <c r="M3" s="42">
         <v>-0.4</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="52">
         <v>31.93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B4" s="53">
+    <row r="4" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B4" s="49">
         <v>137763688</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="40">
         <v>0.1</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="40">
         <v>1.93411</v>
       </c>
-      <c r="H4" s="44">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="40">
         <v>1.93946</v>
       </c>
-      <c r="L4" s="44">
-        <v>0</v>
-      </c>
-      <c r="M4" s="44">
+      <c r="L4" s="40">
+        <v>0</v>
+      </c>
+      <c r="M4" s="40">
         <v>-21.8</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="53">
         <v>36.47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B5" s="55">
+    <row r="5" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B5" s="51">
         <v>138022429</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="42">
         <v>0.06</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="42">
         <v>1.51084</v>
       </c>
-      <c r="H5" s="46">
-        <v>0</v>
-      </c>
-      <c r="I5" s="46">
-        <v>0</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="H5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0</v>
+      </c>
+      <c r="J5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="42">
         <v>1.5121899999999999</v>
       </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
+      <c r="L5" s="42">
+        <v>0</v>
+      </c>
+      <c r="M5" s="42">
         <v>-1.66</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="52">
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B6" s="53">
+    <row r="6" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B6" s="49">
         <v>138393922</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <v>0.08</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>0.70413000000000003</v>
       </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="45" t="s">
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="40">
         <v>0.70118000000000003</v>
       </c>
-      <c r="L6" s="44">
-        <v>0</v>
-      </c>
-      <c r="M6" s="44">
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+      <c r="M6" s="40">
         <v>-0.22</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="53">
         <v>23.6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B7" s="55">
+    <row r="7" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B7" s="51">
         <v>138461980</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="58">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="54">
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B8" s="53">
+    <row r="8" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B8" s="49">
         <v>138475841</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="40">
         <v>0.06</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="40">
         <v>1.6656299999999999</v>
       </c>
-      <c r="H8" s="44">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
-        <v>0</v>
-      </c>
-      <c r="J8" s="45" t="s">
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="40">
         <v>1.67709</v>
       </c>
-      <c r="L8" s="44">
-        <v>0</v>
-      </c>
-      <c r="M8" s="44">
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40">
         <v>-2.39</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="53">
         <v>48.47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B9" s="55">
+    <row r="9" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B9" s="51">
         <v>138654225</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="42">
         <v>0.05</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="42">
         <v>1.6786099999999999</v>
       </c>
-      <c r="H9" s="46">
-        <v>0</v>
-      </c>
-      <c r="I9" s="46">
-        <v>0</v>
-      </c>
-      <c r="J9" s="47" t="s">
+      <c r="H9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="42">
         <v>1.6778999999999999</v>
       </c>
-      <c r="L9" s="46">
-        <v>0</v>
-      </c>
-      <c r="M9" s="46">
-        <v>0</v>
-      </c>
-      <c r="N9" s="56">
+      <c r="L9" s="42">
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B10" s="53">
+    <row r="10" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B10" s="49">
         <v>138723413</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="54">
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="50">
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B11" s="55">
+    <row r="11" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B11" s="51">
         <v>138732442</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="42">
         <v>0.01</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="42">
         <v>1.90551</v>
       </c>
-      <c r="H11" s="46">
-        <v>0</v>
-      </c>
-      <c r="I11" s="46">
-        <v>0</v>
-      </c>
-      <c r="J11" s="47" t="s">
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0</v>
+      </c>
+      <c r="J11" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="42">
         <v>1.90669</v>
       </c>
-      <c r="L11" s="46">
-        <v>0</v>
-      </c>
-      <c r="M11" s="46">
+      <c r="L11" s="42">
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
         <v>-0.4</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="52">
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B12" s="53">
+    <row r="12" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B12" s="49">
         <v>138736541</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="40">
         <v>0.12</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="40">
         <v>1.9080299999999999</v>
       </c>
-      <c r="H12" s="44">
-        <v>0</v>
-      </c>
-      <c r="I12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="45" t="s">
+      <c r="H12" s="40">
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <v>0</v>
+      </c>
+      <c r="J12" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="40">
         <v>1.9093899999999999</v>
       </c>
-      <c r="L12" s="44">
-        <v>0</v>
-      </c>
-      <c r="M12" s="44">
+      <c r="L12" s="40">
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
         <v>-4.54</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="53">
         <v>11.35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B13" s="55">
+    <row r="13" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B13" s="51">
         <v>138897659</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="42">
         <v>0.12</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="42">
         <v>1.3014600000000001</v>
       </c>
-      <c r="H13" s="46">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46">
-        <v>0</v>
-      </c>
-      <c r="J13" s="47" t="s">
+      <c r="H13" s="42">
+        <v>0</v>
+      </c>
+      <c r="I13" s="42">
+        <v>0</v>
+      </c>
+      <c r="J13" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="42">
         <v>1.29772</v>
       </c>
-      <c r="L13" s="46">
-        <v>0</v>
-      </c>
-      <c r="M13" s="46">
+      <c r="L13" s="42">
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
         <v>-0.88</v>
       </c>
-      <c r="N13" s="56">
+      <c r="N13" s="52">
         <v>34.58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B14" s="53">
+    <row r="14" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B14" s="49">
         <v>138953312</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="40">
         <v>0.05</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>147.58099999999999</v>
       </c>
-      <c r="H14" s="44">
-        <v>0</v>
-      </c>
-      <c r="I14" s="44">
-        <v>0</v>
-      </c>
-      <c r="J14" s="45" t="s">
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="40">
         <v>147.79400000000001</v>
       </c>
-      <c r="L14" s="44">
-        <v>0</v>
-      </c>
-      <c r="M14" s="44">
-        <v>0</v>
-      </c>
-      <c r="N14" s="57">
+      <c r="L14" s="40">
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <v>0</v>
+      </c>
+      <c r="N14" s="53">
         <v>9.68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B15" s="55">
+    <row r="15" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B15" s="51">
         <v>138963274</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="42">
         <v>0.05</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="42">
         <v>111.79300000000001</v>
       </c>
-      <c r="H15" s="46">
-        <v>0</v>
-      </c>
-      <c r="I15" s="46">
-        <v>0</v>
-      </c>
-      <c r="J15" s="47" t="s">
+      <c r="H15" s="42">
+        <v>0</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0</v>
+      </c>
+      <c r="J15" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="42">
         <v>111.069</v>
       </c>
-      <c r="L15" s="46">
-        <v>0</v>
-      </c>
-      <c r="M15" s="46">
-        <v>0</v>
-      </c>
-      <c r="N15" s="56">
+      <c r="L15" s="42">
+        <v>0</v>
+      </c>
+      <c r="M15" s="42">
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
         <v>32.78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B16" s="53">
+    <row r="16" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B16" s="49">
         <v>139069945</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="40">
         <v>1.52217</v>
       </c>
-      <c r="H16" s="44">
-        <v>0</v>
-      </c>
-      <c r="I16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="45" t="s">
+      <c r="H16" s="40">
+        <v>0</v>
+      </c>
+      <c r="I16" s="40">
+        <v>0</v>
+      </c>
+      <c r="J16" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="40">
         <v>1.5281100000000001</v>
       </c>
-      <c r="L16" s="44">
-        <v>0</v>
-      </c>
-      <c r="M16" s="44">
-        <v>0</v>
-      </c>
-      <c r="N16" s="57">
+      <c r="L16" s="40">
+        <v>0</v>
+      </c>
+      <c r="M16" s="40">
+        <v>0</v>
+      </c>
+      <c r="N16" s="53">
         <v>-31.59</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B17" s="55">
+    <row r="17" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B17" s="51">
         <v>139070001</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="42">
         <v>0.06</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="42">
         <v>1.90944</v>
       </c>
-      <c r="H17" s="46">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46">
-        <v>0</v>
-      </c>
-      <c r="J17" s="47" t="s">
+      <c r="H17" s="42">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <v>0</v>
+      </c>
+      <c r="J17" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="42">
         <v>1.9113</v>
       </c>
-      <c r="L17" s="46">
-        <v>0</v>
-      </c>
-      <c r="M17" s="46">
-        <v>0</v>
-      </c>
-      <c r="N17" s="56">
+      <c r="L17" s="42">
+        <v>0</v>
+      </c>
+      <c r="M17" s="42">
+        <v>0</v>
+      </c>
+      <c r="N17" s="52">
         <v>-7.75</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B18" s="53">
+    <row r="18" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B18" s="49">
         <v>139076560</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="40">
         <v>0.13</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="40">
         <v>1.66998</v>
       </c>
-      <c r="H18" s="44">
-        <v>0</v>
-      </c>
-      <c r="I18" s="44">
-        <v>0</v>
-      </c>
-      <c r="J18" s="45" t="s">
+      <c r="H18" s="40">
+        <v>0</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="40">
         <v>1.67113</v>
       </c>
-      <c r="L18" s="44">
-        <v>0</v>
-      </c>
-      <c r="M18" s="44">
-        <v>0</v>
-      </c>
-      <c r="N18" s="57">
+      <c r="L18" s="40">
+        <v>0</v>
+      </c>
+      <c r="M18" s="40">
+        <v>0</v>
+      </c>
+      <c r="N18" s="53">
         <v>10.39</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B19" s="55">
+    <row r="19" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B19" s="51">
         <v>139121598</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="42">
         <v>0.1</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="42">
         <v>1.67015</v>
       </c>
-      <c r="H19" s="46">
-        <v>0</v>
-      </c>
-      <c r="I19" s="46">
-        <v>0</v>
-      </c>
-      <c r="J19" s="47" t="s">
+      <c r="H19" s="42">
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="42">
         <v>1.6797599999999999</v>
       </c>
-      <c r="L19" s="46">
-        <v>0</v>
-      </c>
-      <c r="M19" s="46">
+      <c r="L19" s="42">
+        <v>0</v>
+      </c>
+      <c r="M19" s="42">
         <v>-0.97</v>
       </c>
-      <c r="N19" s="56">
+      <c r="N19" s="52">
         <v>66.22</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B20" s="53">
+    <row r="20" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B20" s="49">
         <v>139177488</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="40">
         <v>0.06</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="40">
         <v>1.7922199999999999</v>
       </c>
-      <c r="H20" s="44">
-        <v>0</v>
-      </c>
-      <c r="I20" s="44">
-        <v>0</v>
-      </c>
-      <c r="J20" s="45" t="s">
+      <c r="H20" s="40">
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+      <c r="J20" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="40">
         <v>1.79392</v>
       </c>
-      <c r="L20" s="44">
-        <v>0</v>
-      </c>
-      <c r="M20" s="44">
-        <v>0</v>
-      </c>
-      <c r="N20" s="57">
+      <c r="L20" s="40">
+        <v>0</v>
+      </c>
+      <c r="M20" s="40">
+        <v>0</v>
+      </c>
+      <c r="N20" s="53">
         <v>7.51</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B21" s="55">
+    <row r="21" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B21" s="51">
         <v>139189288</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="42">
         <v>0.06</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="42">
         <v>1.79284</v>
       </c>
-      <c r="H21" s="46">
-        <v>0</v>
-      </c>
-      <c r="I21" s="46">
-        <v>0</v>
-      </c>
-      <c r="J21" s="47" t="s">
+      <c r="H21" s="42">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="42">
         <v>1.78762</v>
       </c>
-      <c r="L21" s="46">
-        <v>0</v>
-      </c>
-      <c r="M21" s="46">
-        <v>0</v>
-      </c>
-      <c r="N21" s="56">
+      <c r="L21" s="42">
+        <v>0</v>
+      </c>
+      <c r="M21" s="42">
+        <v>0</v>
+      </c>
+      <c r="N21" s="52">
         <v>23.07</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B22" s="53">
+    <row r="22" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B22" s="49">
         <v>139193605</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="40">
         <v>0.05</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="40">
         <v>1.7907599999999999</v>
       </c>
-      <c r="H22" s="44">
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
-        <v>0</v>
-      </c>
-      <c r="J22" s="45" t="s">
+      <c r="H22" s="40">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="40">
         <v>1.7876399999999999</v>
       </c>
-      <c r="L22" s="44">
-        <v>0</v>
-      </c>
-      <c r="M22" s="44">
-        <v>0</v>
-      </c>
-      <c r="N22" s="57">
+      <c r="L22" s="40">
+        <v>0</v>
+      </c>
+      <c r="M22" s="40">
+        <v>0</v>
+      </c>
+      <c r="N22" s="53">
         <v>11.49</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B23" s="55">
+    <row r="23" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B23" s="51">
         <v>139209052</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="42">
         <v>0.1</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="42">
         <v>144.608</v>
       </c>
-      <c r="H23" s="46">
-        <v>0</v>
-      </c>
-      <c r="I23" s="46">
-        <v>0</v>
-      </c>
-      <c r="J23" s="47" t="s">
+      <c r="H23" s="42">
+        <v>0</v>
+      </c>
+      <c r="I23" s="42">
+        <v>0</v>
+      </c>
+      <c r="J23" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="42">
         <v>145.274</v>
       </c>
-      <c r="L23" s="46">
-        <v>0</v>
-      </c>
-      <c r="M23" s="46">
+      <c r="L23" s="42">
+        <v>0</v>
+      </c>
+      <c r="M23" s="42">
         <v>-0.08</v>
       </c>
-      <c r="N23" s="56">
+      <c r="N23" s="52">
         <v>60.22</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B24" s="53">
+    <row r="24" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B24" s="49">
         <v>139249180</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="54">
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="50">
         <v>699.54</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B25" s="55">
+    <row r="25" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B25" s="51">
         <v>139254304</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="42">
         <v>0.06</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="42">
         <v>1.9072100000000001</v>
       </c>
-      <c r="H25" s="46">
-        <v>0</v>
-      </c>
-      <c r="I25" s="46">
-        <v>0</v>
-      </c>
-      <c r="J25" s="47" t="s">
+      <c r="H25" s="42">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42">
+        <v>0</v>
+      </c>
+      <c r="J25" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="42">
         <v>1.9213800000000001</v>
       </c>
-      <c r="L25" s="46">
-        <v>0</v>
-      </c>
-      <c r="M25" s="46">
+      <c r="L25" s="42">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="N25" s="56">
+      <c r="N25" s="52">
         <v>58.1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B26" s="53">
+    <row r="26" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B26" s="49">
         <v>139288612</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="40">
         <v>0.05</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="40">
         <v>145.35</v>
       </c>
-      <c r="H26" s="44">
-        <v>0</v>
-      </c>
-      <c r="I26" s="44">
-        <v>0</v>
-      </c>
-      <c r="J26" s="45" t="s">
+      <c r="H26" s="40">
+        <v>0</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="J26" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="40">
         <v>146.04</v>
       </c>
-      <c r="L26" s="44">
-        <v>0</v>
-      </c>
-      <c r="M26" s="44">
+      <c r="L26" s="40">
+        <v>0</v>
+      </c>
+      <c r="M26" s="40">
         <v>-0.03</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="53">
         <v>31.29</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B27" s="55">
+    <row r="27" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B27" s="51">
         <v>139320132</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="42">
         <v>0.05</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="42">
         <v>1.9212400000000001</v>
       </c>
-      <c r="H27" s="46">
-        <v>0</v>
-      </c>
-      <c r="I27" s="46">
-        <v>0</v>
-      </c>
-      <c r="J27" s="47" t="s">
+      <c r="H27" s="42">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
+        <v>0</v>
+      </c>
+      <c r="J27" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="42">
         <v>1.91825</v>
       </c>
-      <c r="L27" s="46">
-        <v>0</v>
-      </c>
-      <c r="M27" s="46">
-        <v>0</v>
-      </c>
-      <c r="N27" s="56">
+      <c r="L27" s="42">
+        <v>0</v>
+      </c>
+      <c r="M27" s="42">
+        <v>0</v>
+      </c>
+      <c r="N27" s="52">
         <v>10.23</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B28" s="53">
+    <row r="28" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B28" s="49">
         <v>139321846</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="40">
         <v>0.13</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <v>145</v>
       </c>
-      <c r="H28" s="44">
-        <v>0</v>
-      </c>
-      <c r="I28" s="44">
-        <v>0</v>
-      </c>
-      <c r="J28" s="45" t="s">
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="40">
         <v>146.07</v>
       </c>
-      <c r="L28" s="44">
-        <v>0</v>
-      </c>
-      <c r="M28" s="44">
-        <v>0</v>
-      </c>
-      <c r="N28" s="57">
+      <c r="L28" s="40">
+        <v>0</v>
+      </c>
+      <c r="M28" s="40">
+        <v>0</v>
+      </c>
+      <c r="N28" s="53">
         <v>126.17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B29" s="55">
+    <row r="29" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B29" s="51">
         <v>139344009</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="42">
         <v>0.05</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="42">
         <v>1.9267300000000001</v>
       </c>
-      <c r="H29" s="46">
-        <v>0</v>
-      </c>
-      <c r="I29" s="46">
-        <v>0</v>
-      </c>
-      <c r="J29" s="47" t="s">
+      <c r="H29" s="42">
+        <v>0</v>
+      </c>
+      <c r="I29" s="42">
+        <v>0</v>
+      </c>
+      <c r="J29" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="42">
         <v>1.9274500000000001</v>
       </c>
-      <c r="L29" s="46">
-        <v>0</v>
-      </c>
-      <c r="M29" s="46">
-        <v>0</v>
-      </c>
-      <c r="N29" s="56">
+      <c r="L29" s="42">
+        <v>0</v>
+      </c>
+      <c r="M29" s="42">
+        <v>0</v>
+      </c>
+      <c r="N29" s="52">
         <v>2.48</v>
       </c>
     </row>
-    <row r="30" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B30" s="53">
+    <row r="30" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B30" s="49">
         <v>139373451</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="40">
         <v>0.1</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <v>145.71899999999999</v>
       </c>
-      <c r="H30" s="44">
-        <v>0</v>
-      </c>
-      <c r="I30" s="44">
-        <v>0</v>
-      </c>
-      <c r="J30" s="45" t="s">
+      <c r="H30" s="40">
+        <v>0</v>
+      </c>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="J30" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="40">
         <v>146.01400000000001</v>
       </c>
-      <c r="L30" s="44">
-        <v>0</v>
-      </c>
-      <c r="M30" s="44">
+      <c r="L30" s="40">
+        <v>0</v>
+      </c>
+      <c r="M30" s="40">
         <v>-0.02</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="53">
         <v>26.8</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B31" s="55">
+    <row r="31" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B31" s="51">
         <v>139381854</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="42">
         <v>0.08</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="42">
         <v>145.947</v>
       </c>
-      <c r="H31" s="46">
-        <v>0</v>
-      </c>
-      <c r="I31" s="46">
-        <v>0</v>
-      </c>
-      <c r="J31" s="47" t="s">
+      <c r="H31" s="42">
+        <v>0</v>
+      </c>
+      <c r="I31" s="42">
+        <v>0</v>
+      </c>
+      <c r="J31" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="42">
         <v>146.01</v>
       </c>
-      <c r="L31" s="46">
-        <v>0</v>
-      </c>
-      <c r="M31" s="46">
-        <v>0</v>
-      </c>
-      <c r="N31" s="56">
+      <c r="L31" s="42">
+        <v>0</v>
+      </c>
+      <c r="M31" s="42">
+        <v>0</v>
+      </c>
+      <c r="N31" s="52">
         <v>4.58</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B32" s="53">
+    <row r="32" spans="2:14" s="1" customFormat="1" thickBot="1">
+      <c r="B32" s="49">
         <v>139407314</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="40">
         <v>0.05</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="40">
         <v>1.32681</v>
       </c>
-      <c r="H32" s="44">
-        <v>0</v>
-      </c>
-      <c r="I32" s="44">
-        <v>0</v>
-      </c>
-      <c r="J32" s="45" t="s">
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="40">
+        <v>0</v>
+      </c>
+      <c r="J32" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="40">
         <v>1.33399</v>
       </c>
-      <c r="L32" s="44">
-        <v>0</v>
-      </c>
-      <c r="M32" s="44">
-        <v>0</v>
-      </c>
-      <c r="N32" s="57">
+      <c r="L32" s="40">
+        <v>0</v>
+      </c>
+      <c r="M32" s="40">
+        <v>0</v>
+      </c>
+      <c r="N32" s="53">
         <v>-26.91</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B33" s="55">
+    <row r="33" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B33" s="51">
         <v>139426625</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="42">
         <v>0.2</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="42">
         <v>145.5</v>
       </c>
-      <c r="H33" s="46">
-        <v>0</v>
-      </c>
-      <c r="I33" s="46">
-        <v>0</v>
-      </c>
-      <c r="J33" s="47" t="s">
+      <c r="H33" s="42">
+        <v>0</v>
+      </c>
+      <c r="I33" s="42">
+        <v>0</v>
+      </c>
+      <c r="J33" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="42">
         <v>146.16900000000001</v>
       </c>
-      <c r="L33" s="46">
-        <v>0</v>
-      </c>
-      <c r="M33" s="46">
+      <c r="L33" s="42">
+        <v>0</v>
+      </c>
+      <c r="M33" s="42">
         <v>-0.23</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="52">
         <v>120.79</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B34" s="53">
+    <row r="34" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B34" s="49">
         <v>139619569</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="40">
         <v>0.08</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="40">
         <v>1.16625</v>
       </c>
-      <c r="H34" s="44">
-        <v>0</v>
-      </c>
-      <c r="I34" s="44">
-        <v>0</v>
-      </c>
-      <c r="J34" s="45" t="s">
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="40">
         <v>1.16649</v>
       </c>
-      <c r="L34" s="44">
-        <v>0</v>
-      </c>
-      <c r="M34" s="44">
-        <v>0</v>
-      </c>
-      <c r="N34" s="57">
+      <c r="L34" s="40">
+        <v>0</v>
+      </c>
+      <c r="M34" s="40">
+        <v>0</v>
+      </c>
+      <c r="N34" s="53">
         <v>-1.92</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B35" s="55">
+    <row r="35" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B35" s="51">
         <v>139619621</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="42">
         <v>0.08</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="42">
         <v>1.1663300000000001</v>
       </c>
-      <c r="H35" s="46">
-        <v>0</v>
-      </c>
-      <c r="I35" s="46">
-        <v>0</v>
-      </c>
-      <c r="J35" s="47" t="s">
+      <c r="H35" s="42">
+        <v>0</v>
+      </c>
+      <c r="I35" s="42">
+        <v>0</v>
+      </c>
+      <c r="J35" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="42">
         <v>1.16723</v>
       </c>
-      <c r="L35" s="46">
-        <v>0</v>
-      </c>
-      <c r="M35" s="46">
+      <c r="L35" s="42">
+        <v>0</v>
+      </c>
+      <c r="M35" s="42">
         <v>-2.87</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="52">
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B36" s="53">
+    <row r="36" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B36" s="49">
         <v>139682129</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="40">
         <v>0.05</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <v>144.619</v>
       </c>
-      <c r="H36" s="44">
-        <v>0</v>
-      </c>
-      <c r="I36" s="44">
-        <v>0</v>
-      </c>
-      <c r="J36" s="45" t="s">
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <v>0</v>
+      </c>
+      <c r="J36" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="40">
         <v>145.21700000000001</v>
       </c>
-      <c r="L36" s="44">
-        <v>0</v>
-      </c>
-      <c r="M36" s="44">
+      <c r="L36" s="40">
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
         <v>-0.04</v>
       </c>
-      <c r="N36" s="57">
+      <c r="N36" s="53">
         <v>27.01</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B37" s="55">
+    <row r="37" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B37" s="51">
         <v>139780262</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="58">
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="54">
         <v>-150</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="48">
-        <v>0</v>
-      </c>
-      <c r="M38" s="48">
+    <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="44">
+        <v>0</v>
+      </c>
+      <c r="M38" s="44">
         <v>-37.619999999999997</v>
       </c>
-      <c r="N38" s="59">
+      <c r="N38" s="55">
         <v>763.8</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80">
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61">
         <v>726.18</v>
       </c>
-      <c r="N39" s="81"/>
+      <c r="N39" s="62"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -4605,16 +4176,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E37:M37"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E37:M37"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4625,11 +4196,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
@@ -4809,17 +4382,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4834,17 +4407,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4941,17 +4514,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -5007,17 +4580,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -5114,17 +4687,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -5180,17 +4753,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -5246,17 +4819,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -5476,32 +5049,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -5513,35 +5086,30 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86" t="s">
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86">
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70">
         <v>745.39</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -5550,6 +5118,11 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -24,8 +24,87 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Profit =Balance-Withdraw
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Close =(Open+Deposit+Profit)-Withdraw
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Target =Open+Deposit+(0.286*(Open+Deposit))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rate =((Withdraw+Profit)/(Open+Deposit))*100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pass &gt;= 28.6%
+Fail &lt; 28.6%
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="194">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -340,23 +419,23 @@
   </si>
   <si>
     <t>REVENUE</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Profit</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Target</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Rate</t>
@@ -609,6 +688,9 @@
   </si>
   <si>
     <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -622,7 +704,7 @@
     <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,13 +735,6 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFB4B4BC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -722,8 +797,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,9 +1067,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,9 +1120,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1038,28 +1132,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,9 +1168,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1110,10 +1198,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="15" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,28 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1186,36 +1277,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="lightGray"/>
@@ -1269,221 +1331,6 @@
         <patternFill patternType="lightUp">
           <fgColor theme="7" tint="0.39994506668294322"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <fgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <fgColor rgb="FF1616AA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <fgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0F22B1"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="4" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7" tint="0.39994506668294322"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <fgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1791,13 +1638,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -1811,382 +1658,384 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="73">
+      <c r="B4" s="55">
         <v>43101</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="56">
         <v>881.13</v>
       </c>
-      <c r="D4" s="74">
-        <v>0</v>
-      </c>
-      <c r="E4" s="74">
-        <v>0</v>
-      </c>
-      <c r="F4" s="75">
-        <v>0</v>
-      </c>
-      <c r="G4" s="74">
-        <f t="shared" ref="G4:G9" si="0">C4+D4+F4-E4</f>
+      <c r="D4" s="56">
+        <v>0</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0</v>
+      </c>
+      <c r="G4" s="56">
+        <f>(C4+D4+F4)-E4</f>
         <v>881.13</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="56">
         <f>C4+D4+(0.286*(C4+D4))</f>
         <v>1133.13318</v>
       </c>
-      <c r="I4" s="35">
-        <f>(F4/(C4+D4))*100</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="34">
+        <f>((E4+F4)/(C4+D4))*100</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="54" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
-      <c r="B5" s="73">
+      <c r="B5" s="55">
         <v>43132</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="56">
         <v>881.13</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="56">
         <v>400</v>
       </c>
-      <c r="E5" s="74">
-        <v>0</v>
-      </c>
-      <c r="F5" s="75">
+      <c r="E5" s="56">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
         <v>40.92</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="56">
+        <f t="shared" ref="G5:G10" si="0">(C5+D5+F5)-E5</f>
+        <v>1322.0500000000002</v>
+      </c>
+      <c r="H5" s="56">
+        <f t="shared" ref="H5:H10" si="1">C5+D5+(0.286*(C5+D5))</f>
+        <v>1647.5331800000001</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" ref="I5:I10" si="2">((E5+F5)/(C5+D5))*100</f>
+        <v>3.1940552481012849</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1">
+      <c r="B6" s="55">
+        <v>43160</v>
+      </c>
+      <c r="C6" s="56">
+        <f>G5</f>
+        <v>1322.0500000000002</v>
+      </c>
+      <c r="D6" s="56">
+        <v>0</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="G6" s="56">
         <f t="shared" si="0"/>
         <v>1322.0500000000002</v>
       </c>
-      <c r="H5" s="74">
-        <f t="shared" ref="H5:H10" si="1">C5+D5+(0.286*(C5+D5))</f>
-        <v>1647.5331800000001</v>
-      </c>
-      <c r="I5" s="35">
-        <f t="shared" ref="I5:I10" si="2">(F5/(C5+D5))*100</f>
-        <v>3.1940552481012849</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1">
-      <c r="B6" s="73">
-        <v>43160</v>
-      </c>
-      <c r="C6" s="74">
-        <f>G5</f>
-        <v>1322.0500000000002</v>
-      </c>
-      <c r="D6" s="74">
-        <v>0</v>
-      </c>
-      <c r="E6" s="74">
-        <v>0</v>
-      </c>
-      <c r="F6" s="75">
-        <v>0</v>
-      </c>
-      <c r="G6" s="74">
-        <f t="shared" si="0"/>
-        <v>1322.0500000000002</v>
-      </c>
-      <c r="H6" s="74">
+      <c r="H6" s="56">
         <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="73">
+      <c r="B7" s="55">
         <v>43191</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="56">
         <f>G6</f>
         <v>1322.0500000000002</v>
       </c>
-      <c r="D7" s="74">
-        <v>0</v>
-      </c>
-      <c r="E7" s="74">
-        <v>0</v>
-      </c>
-      <c r="F7" s="75">
+      <c r="D7" s="56">
+        <v>0</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0</v>
+      </c>
+      <c r="F7" s="57">
         <v>119.16</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="56">
         <f t="shared" si="0"/>
         <v>1441.2100000000003</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="56">
         <f t="shared" si="1"/>
         <v>1700.1563000000001</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <f t="shared" si="2"/>
         <v>9.0132748383192762</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="54" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="73">
+      <c r="B8" s="55">
         <v>43221</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="56">
         <f>G7</f>
         <v>1441.2100000000003</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="56">
         <v>817.81</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="56">
         <v>270</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="57">
         <v>745.39</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="56">
         <f t="shared" si="0"/>
         <v>2734.4100000000003</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="56">
         <f t="shared" si="1"/>
         <v>2905.0997200000006</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <f t="shared" si="2"/>
-        <v>32.996166479269768</v>
-      </c>
-      <c r="J8" s="72" t="s">
-        <v>190</v>
+        <v>44.948251896840212</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="73">
+      <c r="B9" s="55">
         <v>43252</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="56">
         <f>G8</f>
         <v>2734.4100000000003</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="56">
         <v>699.54</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="56">
         <v>270</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="57">
         <v>726.18</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="56">
         <f t="shared" si="0"/>
         <v>3890.13</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="56">
         <f t="shared" si="1"/>
         <v>4416.0596999999998</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <f t="shared" si="2"/>
-        <v>21.147075525269727</v>
-      </c>
-      <c r="J9" s="72" t="s">
-        <v>190</v>
+        <v>29.009740968855102</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="73">
+      <c r="B10" s="55">
         <v>43282</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="56">
         <f>G9</f>
         <v>3890.13</v>
       </c>
-      <c r="D10" s="74">
-        <v>0</v>
-      </c>
-      <c r="E10" s="74">
+      <c r="D10" s="56">
+        <v>2169.9299999999998</v>
+      </c>
+      <c r="E10" s="56">
         <v>90</v>
       </c>
-      <c r="F10" s="75">
-        <v>398.59</v>
-      </c>
-      <c r="G10" s="74">
-        <f t="shared" ref="G10" si="3">C10+D10+F10-E10</f>
-        <v>4198.72</v>
-      </c>
-      <c r="H10" s="74">
+      <c r="F10" s="57">
+        <v>608.33000000000004</v>
+      </c>
+      <c r="G10" s="56">
+        <f t="shared" si="0"/>
+        <v>6578.3899999999994</v>
+      </c>
+      <c r="H10" s="56">
         <f t="shared" si="1"/>
-        <v>5002.7071800000003</v>
-      </c>
-      <c r="I10" s="35">
+        <v>7793.2371599999988</v>
+      </c>
+      <c r="I10" s="34">
         <f t="shared" si="2"/>
-        <v>10.246187145416734</v>
-      </c>
-      <c r="J10" s="72" t="s">
+        <v>11.523483265842254</v>
+      </c>
+      <c r="J10" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B11" s="27">
-        <v>43282</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28">
-        <v>5169.93</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0</v>
-      </c>
-      <c r="F11" s="29">
-        <v>50.76</v>
-      </c>
-      <c r="G11" s="28">
-        <f>(C11+D11+F11)-E11</f>
-        <v>5220.6900000000005</v>
-      </c>
-      <c r="H11" s="28">
-        <f>C11+D11+(0.286*(C11+D11))</f>
-        <v>6648.5299800000003</v>
-      </c>
-      <c r="I11" s="56">
-        <f>(F11/(C11+D11))*100</f>
-        <v>0.98183147547452276</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>190</v>
-      </c>
+    <row r="11" spans="2:10">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61">
+        <f>SUM(D5:D11)</f>
+        <v>4087.2799999999997</v>
+      </c>
+      <c r="E12" s="61">
+        <f>SUM(E5:E11)</f>
+        <v>630</v>
+      </c>
+      <c r="F12" s="62">
+        <f>SUM(F4:F11)</f>
+        <v>2239.98</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="58">
+        <f>AVERAGE(I5:I11)</f>
+        <v>16.281467702993023</v>
+      </c>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79">
-        <f>SUM(D5:D12)</f>
-        <v>7087.2800000000007</v>
-      </c>
-      <c r="E13" s="79">
-        <f>SUM(E5:E12)</f>
-        <v>630</v>
-      </c>
-      <c r="F13" s="80">
-        <f>SUM(F4:F12)</f>
-        <v>2081</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="76">
-        <f>AVERAGE(I5:I12)</f>
-        <v>11.082655815978757</v>
-      </c>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="34"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="31"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="21" ht="15" customHeight="1"/>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
-    <row r="24" ht="15" customHeight="1"/>
-    <row r="25" ht="15" customHeight="1"/>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="6:9" ht="15" customHeight="1">
+      <c r="F20" s="65"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="6:9" ht="15" customHeight="1">
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="6:9" ht="15" customHeight="1">
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="6:9" ht="15" customHeight="1">
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="6:9" ht="15" customHeight="1"/>
+    <row r="25" spans="6:9" ht="15" customHeight="1"/>
+    <row r="26" spans="6:9" ht="15" customHeight="1"/>
+    <row r="27" spans="6:9" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="9"/>
-  <conditionalFormatting sqref="H5:I9 B4:I4 I12 J4:J9 J11:J12 H5:H11 I5:I10">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+  <phoneticPr fontId="8"/>
+  <conditionalFormatting sqref="J4:J9 I11:J11 I4:I10">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J9">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="formula" val="$G$11"/>
-        <cfvo type="formula" val="$G$11"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I10 I12">
+  <conditionalFormatting sqref="I4:I11">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -2198,16 +2047,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10 I11">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:J10">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="28">
+      <formula>LEN(TRIM(I4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:J12">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J10">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="formula" val="#REF!"/>
+        <cfvo type="formula" val="#REF!"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="28.6"/>
@@ -2218,41 +2095,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="$G$11"/>
-        <cfvo type="formula" val="$G$11"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:J10">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="28">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:J13">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(B13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2275,40 +2125,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2669,7 +2519,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2679,1495 +2529,1493 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A1" s="45">
+      <c r="A1" s="64">
         <v>43252</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B2" s="49">
+      <c r="B2" s="47">
         <v>130907515</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="50" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="48" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B3" s="51">
+      <c r="B3" s="49">
         <v>137714682</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>0.1</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>147.316</v>
       </c>
-      <c r="H3" s="42">
-        <v>0</v>
-      </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="43" t="s">
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>147.66900000000001</v>
       </c>
-      <c r="L3" s="42">
-        <v>0</v>
-      </c>
-      <c r="M3" s="42">
+      <c r="L3" s="41">
+        <v>0</v>
+      </c>
+      <c r="M3" s="41">
         <v>-0.4</v>
       </c>
-      <c r="N3" s="52">
+      <c r="N3" s="50">
         <v>31.93</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>137763688</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>0.1</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <v>1.93411</v>
       </c>
-      <c r="H4" s="40">
-        <v>0</v>
-      </c>
-      <c r="I4" s="40">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="H4" s="39">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="39">
         <v>1.93946</v>
       </c>
-      <c r="L4" s="40">
-        <v>0</v>
-      </c>
-      <c r="M4" s="40">
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="M4" s="39">
         <v>-21.8</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="51">
         <v>36.47</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B5" s="51">
+      <c r="B5" s="49">
         <v>138022429</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>0.06</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>1.51084</v>
       </c>
-      <c r="H5" s="42">
-        <v>0</v>
-      </c>
-      <c r="I5" s="42">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43" t="s">
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <v>1.5121899999999999</v>
       </c>
-      <c r="L5" s="42">
-        <v>0</v>
-      </c>
-      <c r="M5" s="42">
+      <c r="L5" s="41">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41">
         <v>-1.66</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="50">
         <v>6.25</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>138393922</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>0.08</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>0.70413000000000003</v>
       </c>
-      <c r="H6" s="40">
-        <v>0</v>
-      </c>
-      <c r="I6" s="40">
-        <v>0</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="H6" s="39">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="39">
         <v>0.70118000000000003</v>
       </c>
-      <c r="L6" s="40">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40">
+      <c r="L6" s="39">
+        <v>0</v>
+      </c>
+      <c r="M6" s="39">
         <v>-0.22</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>23.6</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B7" s="51">
+      <c r="B7" s="49">
         <v>138461980</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="54">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="52">
         <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>138475841</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>0.06</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>1.6656299999999999</v>
       </c>
-      <c r="H8" s="40">
-        <v>0</v>
-      </c>
-      <c r="I8" s="40">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41" t="s">
+      <c r="H8" s="39">
+        <v>0</v>
+      </c>
+      <c r="I8" s="39">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="39">
         <v>1.67709</v>
       </c>
-      <c r="L8" s="40">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40">
+      <c r="L8" s="39">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39">
         <v>-2.39</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="51">
         <v>48.47</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B9" s="51">
+      <c r="B9" s="49">
         <v>138654225</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>0.05</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>1.6786099999999999</v>
       </c>
-      <c r="H9" s="42">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="43" t="s">
+      <c r="H9" s="41">
+        <v>0</v>
+      </c>
+      <c r="I9" s="41">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>1.6778999999999999</v>
       </c>
-      <c r="L9" s="42">
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <v>0</v>
-      </c>
-      <c r="N9" s="52">
+      <c r="L9" s="41">
+        <v>0</v>
+      </c>
+      <c r="M9" s="41">
+        <v>0</v>
+      </c>
+      <c r="N9" s="50">
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>138723413</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="50">
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="48">
         <v>-20</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B11" s="51">
+      <c r="B11" s="49">
         <v>138732442</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>0.01</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>1.90551</v>
       </c>
-      <c r="H11" s="42">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43" t="s">
+      <c r="H11" s="41">
+        <v>0</v>
+      </c>
+      <c r="I11" s="41">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>1.90669</v>
       </c>
-      <c r="L11" s="42">
-        <v>0</v>
-      </c>
-      <c r="M11" s="42">
+      <c r="L11" s="41">
+        <v>0</v>
+      </c>
+      <c r="M11" s="41">
         <v>-0.4</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="50">
         <v>0.82</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <v>138736541</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <v>0.12</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <v>1.9080299999999999</v>
       </c>
-      <c r="H12" s="40">
-        <v>0</v>
-      </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="J12" s="41" t="s">
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="39">
         <v>1.9093899999999999</v>
       </c>
-      <c r="L12" s="40">
-        <v>0</v>
-      </c>
-      <c r="M12" s="40">
+      <c r="L12" s="39">
+        <v>0</v>
+      </c>
+      <c r="M12" s="39">
         <v>-4.54</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N12" s="51">
         <v>11.35</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B13" s="51">
+      <c r="B13" s="49">
         <v>138897659</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>0.12</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>1.3014600000000001</v>
       </c>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="43" t="s">
+      <c r="H13" s="41">
+        <v>0</v>
+      </c>
+      <c r="I13" s="41">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <v>1.29772</v>
       </c>
-      <c r="L13" s="42">
-        <v>0</v>
-      </c>
-      <c r="M13" s="42">
+      <c r="L13" s="41">
+        <v>0</v>
+      </c>
+      <c r="M13" s="41">
         <v>-0.88</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="50">
         <v>34.58</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <v>138953312</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <v>0.05</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>147.58099999999999</v>
       </c>
-      <c r="H14" s="40">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <v>0</v>
-      </c>
-      <c r="J14" s="41" t="s">
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39">
+        <v>0</v>
+      </c>
+      <c r="J14" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="39">
         <v>147.79400000000001</v>
       </c>
-      <c r="L14" s="40">
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <v>0</v>
-      </c>
-      <c r="N14" s="53">
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0</v>
+      </c>
+      <c r="N14" s="51">
         <v>9.68</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B15" s="51">
+      <c r="B15" s="49">
         <v>138963274</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>0.05</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>111.79300000000001</v>
       </c>
-      <c r="H15" s="42">
-        <v>0</v>
-      </c>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="43" t="s">
+      <c r="H15" s="41">
+        <v>0</v>
+      </c>
+      <c r="I15" s="41">
+        <v>0</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <v>111.069</v>
       </c>
-      <c r="L15" s="42">
-        <v>0</v>
-      </c>
-      <c r="M15" s="42">
-        <v>0</v>
-      </c>
-      <c r="N15" s="52">
+      <c r="L15" s="41">
+        <v>0</v>
+      </c>
+      <c r="M15" s="41">
+        <v>0</v>
+      </c>
+      <c r="N15" s="50">
         <v>32.78</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <v>139069945</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>1.52217</v>
       </c>
-      <c r="H16" s="40">
-        <v>0</v>
-      </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="41" t="s">
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="39">
         <v>1.5281100000000001</v>
       </c>
-      <c r="L16" s="40">
-        <v>0</v>
-      </c>
-      <c r="M16" s="40">
-        <v>0</v>
-      </c>
-      <c r="N16" s="53">
+      <c r="L16" s="39">
+        <v>0</v>
+      </c>
+      <c r="M16" s="39">
+        <v>0</v>
+      </c>
+      <c r="N16" s="51">
         <v>-31.59</v>
       </c>
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B17" s="51">
+      <c r="B17" s="49">
         <v>139070001</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>0.06</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <v>1.90944</v>
       </c>
-      <c r="H17" s="42">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
-        <v>0</v>
-      </c>
-      <c r="J17" s="43" t="s">
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
+      <c r="I17" s="41">
+        <v>0</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="41">
         <v>1.9113</v>
       </c>
-      <c r="L17" s="42">
-        <v>0</v>
-      </c>
-      <c r="M17" s="42">
-        <v>0</v>
-      </c>
-      <c r="N17" s="52">
+      <c r="L17" s="41">
+        <v>0</v>
+      </c>
+      <c r="M17" s="41">
+        <v>0</v>
+      </c>
+      <c r="N17" s="50">
         <v>-7.75</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B18" s="49">
+      <c r="B18" s="47">
         <v>139076560</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <v>0.13</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>1.66998</v>
       </c>
-      <c r="H18" s="40">
-        <v>0</v>
-      </c>
-      <c r="I18" s="40">
-        <v>0</v>
-      </c>
-      <c r="J18" s="41" t="s">
+      <c r="H18" s="39">
+        <v>0</v>
+      </c>
+      <c r="I18" s="39">
+        <v>0</v>
+      </c>
+      <c r="J18" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="39">
         <v>1.67113</v>
       </c>
-      <c r="L18" s="40">
-        <v>0</v>
-      </c>
-      <c r="M18" s="40">
-        <v>0</v>
-      </c>
-      <c r="N18" s="53">
+      <c r="L18" s="39">
+        <v>0</v>
+      </c>
+      <c r="M18" s="39">
+        <v>0</v>
+      </c>
+      <c r="N18" s="51">
         <v>10.39</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B19" s="51">
+      <c r="B19" s="49">
         <v>139121598</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <v>0.1</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="41">
         <v>1.67015</v>
       </c>
-      <c r="H19" s="42">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="43" t="s">
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="41">
+        <v>0</v>
+      </c>
+      <c r="J19" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <v>1.6797599999999999</v>
       </c>
-      <c r="L19" s="42">
-        <v>0</v>
-      </c>
-      <c r="M19" s="42">
+      <c r="L19" s="41">
+        <v>0</v>
+      </c>
+      <c r="M19" s="41">
         <v>-0.97</v>
       </c>
-      <c r="N19" s="52">
+      <c r="N19" s="50">
         <v>66.22</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B20" s="49">
+      <c r="B20" s="47">
         <v>139177488</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="39">
         <v>0.06</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <v>1.7922199999999999</v>
       </c>
-      <c r="H20" s="40">
-        <v>0</v>
-      </c>
-      <c r="I20" s="40">
-        <v>0</v>
-      </c>
-      <c r="J20" s="41" t="s">
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="39">
         <v>1.79392</v>
       </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
-      <c r="M20" s="40">
-        <v>0</v>
-      </c>
-      <c r="N20" s="53">
+      <c r="L20" s="39">
+        <v>0</v>
+      </c>
+      <c r="M20" s="39">
+        <v>0</v>
+      </c>
+      <c r="N20" s="51">
         <v>7.51</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B21" s="51">
+      <c r="B21" s="49">
         <v>139189288</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>0.06</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="41">
         <v>1.79284</v>
       </c>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="43" t="s">
+      <c r="H21" s="41">
+        <v>0</v>
+      </c>
+      <c r="I21" s="41">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <v>1.78762</v>
       </c>
-      <c r="L21" s="42">
-        <v>0</v>
-      </c>
-      <c r="M21" s="42">
-        <v>0</v>
-      </c>
-      <c r="N21" s="52">
+      <c r="L21" s="41">
+        <v>0</v>
+      </c>
+      <c r="M21" s="41">
+        <v>0</v>
+      </c>
+      <c r="N21" s="50">
         <v>23.07</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B22" s="49">
+      <c r="B22" s="47">
         <v>139193605</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
         <v>0.05</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <v>1.7907599999999999</v>
       </c>
-      <c r="H22" s="40">
-        <v>0</v>
-      </c>
-      <c r="I22" s="40">
-        <v>0</v>
-      </c>
-      <c r="J22" s="41" t="s">
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="39">
         <v>1.7876399999999999</v>
       </c>
-      <c r="L22" s="40">
-        <v>0</v>
-      </c>
-      <c r="M22" s="40">
-        <v>0</v>
-      </c>
-      <c r="N22" s="53">
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="39">
+        <v>0</v>
+      </c>
+      <c r="N22" s="51">
         <v>11.49</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B23" s="51">
+      <c r="B23" s="49">
         <v>139209052</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <v>0.1</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="41">
         <v>144.608</v>
       </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0</v>
-      </c>
-      <c r="J23" s="43" t="s">
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>145.274</v>
       </c>
-      <c r="L23" s="42">
-        <v>0</v>
-      </c>
-      <c r="M23" s="42">
+      <c r="L23" s="41">
+        <v>0</v>
+      </c>
+      <c r="M23" s="41">
         <v>-0.08</v>
       </c>
-      <c r="N23" s="52">
+      <c r="N23" s="50">
         <v>60.22</v>
       </c>
     </row>
     <row r="24" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B24" s="49">
+      <c r="B24" s="47">
         <v>139249180</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="50">
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="48">
         <v>699.54</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B25" s="51">
+      <c r="B25" s="49">
         <v>139254304</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <v>0.06</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <v>1.9072100000000001</v>
       </c>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0</v>
-      </c>
-      <c r="J25" s="43" t="s">
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="41">
+        <v>0</v>
+      </c>
+      <c r="J25" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>1.9213800000000001</v>
       </c>
-      <c r="L25" s="42">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
+      <c r="L25" s="41">
+        <v>0</v>
+      </c>
+      <c r="M25" s="41">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="N25" s="52">
+      <c r="N25" s="50">
         <v>58.1</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B26" s="49">
+      <c r="B26" s="47">
         <v>139288612</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="39">
         <v>0.05</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="39">
         <v>145.35</v>
       </c>
-      <c r="H26" s="40">
-        <v>0</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="J26" s="41" t="s">
+      <c r="H26" s="39">
+        <v>0</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="39">
         <v>146.04</v>
       </c>
-      <c r="L26" s="40">
-        <v>0</v>
-      </c>
-      <c r="M26" s="40">
+      <c r="L26" s="39">
+        <v>0</v>
+      </c>
+      <c r="M26" s="39">
         <v>-0.03</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="51">
         <v>31.29</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B27" s="51">
+      <c r="B27" s="49">
         <v>139320132</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>0.05</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <v>1.9212400000000001</v>
       </c>
-      <c r="H27" s="42">
-        <v>0</v>
-      </c>
-      <c r="I27" s="42">
-        <v>0</v>
-      </c>
-      <c r="J27" s="43" t="s">
+      <c r="H27" s="41">
+        <v>0</v>
+      </c>
+      <c r="I27" s="41">
+        <v>0</v>
+      </c>
+      <c r="J27" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>1.91825</v>
       </c>
-      <c r="L27" s="42">
-        <v>0</v>
-      </c>
-      <c r="M27" s="42">
-        <v>0</v>
-      </c>
-      <c r="N27" s="52">
+      <c r="L27" s="41">
+        <v>0</v>
+      </c>
+      <c r="M27" s="41">
+        <v>0</v>
+      </c>
+      <c r="N27" s="50">
         <v>10.23</v>
       </c>
     </row>
     <row r="28" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B28" s="49">
+      <c r="B28" s="47">
         <v>139321846</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="39">
         <v>0.13</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <v>145</v>
       </c>
-      <c r="H28" s="40">
-        <v>0</v>
-      </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="41" t="s">
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="39">
         <v>146.07</v>
       </c>
-      <c r="L28" s="40">
-        <v>0</v>
-      </c>
-      <c r="M28" s="40">
-        <v>0</v>
-      </c>
-      <c r="N28" s="53">
+      <c r="L28" s="39">
+        <v>0</v>
+      </c>
+      <c r="M28" s="39">
+        <v>0</v>
+      </c>
+      <c r="N28" s="51">
         <v>126.17</v>
       </c>
     </row>
     <row r="29" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B29" s="51">
+      <c r="B29" s="49">
         <v>139344009</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <v>0.05</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="41">
         <v>1.9267300000000001</v>
       </c>
-      <c r="H29" s="42">
-        <v>0</v>
-      </c>
-      <c r="I29" s="42">
-        <v>0</v>
-      </c>
-      <c r="J29" s="43" t="s">
+      <c r="H29" s="41">
+        <v>0</v>
+      </c>
+      <c r="I29" s="41">
+        <v>0</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <v>1.9274500000000001</v>
       </c>
-      <c r="L29" s="42">
-        <v>0</v>
-      </c>
-      <c r="M29" s="42">
-        <v>0</v>
-      </c>
-      <c r="N29" s="52">
+      <c r="L29" s="41">
+        <v>0</v>
+      </c>
+      <c r="M29" s="41">
+        <v>0</v>
+      </c>
+      <c r="N29" s="50">
         <v>2.48</v>
       </c>
     </row>
     <row r="30" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B30" s="49">
+      <c r="B30" s="47">
         <v>139373451</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="39">
         <v>0.1</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="39">
         <v>145.71899999999999</v>
       </c>
-      <c r="H30" s="40">
-        <v>0</v>
-      </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="J30" s="41" t="s">
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="39">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="39">
         <v>146.01400000000001</v>
       </c>
-      <c r="L30" s="40">
-        <v>0</v>
-      </c>
-      <c r="M30" s="40">
+      <c r="L30" s="39">
+        <v>0</v>
+      </c>
+      <c r="M30" s="39">
         <v>-0.02</v>
       </c>
-      <c r="N30" s="53">
+      <c r="N30" s="51">
         <v>26.8</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B31" s="51">
+      <c r="B31" s="49">
         <v>139381854</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <v>0.08</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="41">
         <v>145.947</v>
       </c>
-      <c r="H31" s="42">
-        <v>0</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0</v>
-      </c>
-      <c r="J31" s="43" t="s">
+      <c r="H31" s="41">
+        <v>0</v>
+      </c>
+      <c r="I31" s="41">
+        <v>0</v>
+      </c>
+      <c r="J31" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="41">
         <v>146.01</v>
       </c>
-      <c r="L31" s="42">
-        <v>0</v>
-      </c>
-      <c r="M31" s="42">
-        <v>0</v>
-      </c>
-      <c r="N31" s="52">
+      <c r="L31" s="41">
+        <v>0</v>
+      </c>
+      <c r="M31" s="41">
+        <v>0</v>
+      </c>
+      <c r="N31" s="50">
         <v>4.58</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="1" customFormat="1" thickBot="1">
-      <c r="B32" s="49">
+      <c r="B32" s="47">
         <v>139407314</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="39">
         <v>0.05</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>1.32681</v>
       </c>
-      <c r="H32" s="40">
-        <v>0</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="41" t="s">
+      <c r="H32" s="39">
+        <v>0</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0</v>
+      </c>
+      <c r="J32" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="39">
         <v>1.33399</v>
       </c>
-      <c r="L32" s="40">
-        <v>0</v>
-      </c>
-      <c r="M32" s="40">
-        <v>0</v>
-      </c>
-      <c r="N32" s="53">
+      <c r="L32" s="39">
+        <v>0</v>
+      </c>
+      <c r="M32" s="39">
+        <v>0</v>
+      </c>
+      <c r="N32" s="51">
         <v>-26.91</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B33" s="51">
+      <c r="B33" s="49">
         <v>139426625</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <v>0.2</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <v>145.5</v>
       </c>
-      <c r="H33" s="42">
-        <v>0</v>
-      </c>
-      <c r="I33" s="42">
-        <v>0</v>
-      </c>
-      <c r="J33" s="43" t="s">
+      <c r="H33" s="41">
+        <v>0</v>
+      </c>
+      <c r="I33" s="41">
+        <v>0</v>
+      </c>
+      <c r="J33" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="41">
         <v>146.16900000000001</v>
       </c>
-      <c r="L33" s="42">
-        <v>0</v>
-      </c>
-      <c r="M33" s="42">
+      <c r="L33" s="41">
+        <v>0</v>
+      </c>
+      <c r="M33" s="41">
         <v>-0.23</v>
       </c>
-      <c r="N33" s="52">
+      <c r="N33" s="50">
         <v>120.79</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B34" s="49">
+      <c r="B34" s="47">
         <v>139619569</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="39">
         <v>0.08</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="39">
         <v>1.16625</v>
       </c>
-      <c r="H34" s="40">
-        <v>0</v>
-      </c>
-      <c r="I34" s="40">
-        <v>0</v>
-      </c>
-      <c r="J34" s="41" t="s">
+      <c r="H34" s="39">
+        <v>0</v>
+      </c>
+      <c r="I34" s="39">
+        <v>0</v>
+      </c>
+      <c r="J34" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="39">
         <v>1.16649</v>
       </c>
-      <c r="L34" s="40">
-        <v>0</v>
-      </c>
-      <c r="M34" s="40">
-        <v>0</v>
-      </c>
-      <c r="N34" s="53">
+      <c r="L34" s="39">
+        <v>0</v>
+      </c>
+      <c r="M34" s="39">
+        <v>0</v>
+      </c>
+      <c r="N34" s="51">
         <v>-1.92</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B35" s="51">
+      <c r="B35" s="49">
         <v>139619621</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="41">
         <v>0.08</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="41">
         <v>1.1663300000000001</v>
       </c>
-      <c r="H35" s="42">
-        <v>0</v>
-      </c>
-      <c r="I35" s="42">
-        <v>0</v>
-      </c>
-      <c r="J35" s="43" t="s">
+      <c r="H35" s="41">
+        <v>0</v>
+      </c>
+      <c r="I35" s="41">
+        <v>0</v>
+      </c>
+      <c r="J35" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <v>1.16723</v>
       </c>
-      <c r="L35" s="42">
-        <v>0</v>
-      </c>
-      <c r="M35" s="42">
+      <c r="L35" s="41">
+        <v>0</v>
+      </c>
+      <c r="M35" s="41">
         <v>-2.87</v>
       </c>
-      <c r="N35" s="52">
+      <c r="N35" s="50">
         <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B36" s="49">
+      <c r="B36" s="47">
         <v>139682129</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="39">
         <v>0.05</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="39">
         <v>144.619</v>
       </c>
-      <c r="H36" s="40">
-        <v>0</v>
-      </c>
-      <c r="I36" s="40">
-        <v>0</v>
-      </c>
-      <c r="J36" s="41" t="s">
+      <c r="H36" s="39">
+        <v>0</v>
+      </c>
+      <c r="I36" s="39">
+        <v>0</v>
+      </c>
+      <c r="J36" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="39">
         <v>145.21700000000001</v>
       </c>
-      <c r="L36" s="40">
-        <v>0</v>
-      </c>
-      <c r="M36" s="40">
+      <c r="L36" s="39">
+        <v>0</v>
+      </c>
+      <c r="M36" s="39">
         <v>-0.04</v>
       </c>
-      <c r="N36" s="53">
+      <c r="N36" s="51">
         <v>27.01</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B37" s="51">
+      <c r="B37" s="49">
         <v>139780262</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="54">
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="52">
         <v>-150</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="44">
-        <v>0</v>
-      </c>
-      <c r="M38" s="44">
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="43">
+        <v>0</v>
+      </c>
+      <c r="M38" s="43">
         <v>-37.619999999999997</v>
       </c>
-      <c r="N38" s="55">
+      <c r="N38" s="53">
         <v>763.8</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61">
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72">
         <v>726.18</v>
       </c>
-      <c r="N39" s="62"/>
+      <c r="N39" s="73"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -4187,7 +4035,7 @@
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4196,9 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
@@ -4206,7 +4052,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
-      <c r="A1" s="24">
+      <c r="A1" s="64">
         <v>43221</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -4382,17 +4228,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4407,17 +4253,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4514,17 +4360,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4580,17 +4426,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4687,17 +4533,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4753,17 +4599,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -4819,17 +4665,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -5049,32 +4895,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -5086,27 +4932,27 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70">
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81">
         <v>745.39</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5124,7 +4970,7 @@
     <mergeCell ref="E11:M11"/>
     <mergeCell ref="E14:M14"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
     <sheet name="OPERATIONS" sheetId="4" r:id="rId2"/>
     <sheet name="June 2018" sheetId="5" r:id="rId3"/>
     <sheet name="May 2018" sheetId="2" r:id="rId4"/>
+    <sheet name="Q&amp;A" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="225">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -691,6 +692,130 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Thủ tục thành lập doanh nghiệp và phí bao nhiêu ?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://chamsocdoanhnghiep.com/bang-gia-dich-vu-tu-van-doanh-nghiep/</t>
+  </si>
+  <si>
+    <t>Doanh nghiệp tư nhân là gì ?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://www.ketoancattuong.vn/dich-vu/62/doanh-nghiep-tu-nhan-la-gi-.html</t>
+  </si>
+  <si>
+    <t>http://tuvanthanhlapcongtytnhh.com/tu-van-thanh-lap-cong-ty-tnhh/dac-diem-doanh-nghiep-tu-nhan-va-cong-ty-tnhh.html</t>
+  </si>
+  <si>
+    <t>Công ty trách nhiệm hữu hạn là gì ?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/C%C3%B4ng_ty_tr%C3%A1ch_nhi%E1%BB%87m_h%E1%BB%AFu_h%E1%BA%A1n</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần là gì?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://giayphepkinhdoanh.vn/cong-ty-co-phan-la-gi/</t>
+  </si>
+  <si>
+    <t>Chọn loại hình kinh doanh và đăng ký kinh doanh</t>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/100/catid/629/item/10907/ch%E1%BB%8Dn-lo%E1%BA%A1i-hinh-kinh-doanh-va-%C4%91%C4%83ng-ky-kinh-doanh.aspx</t>
+  </si>
+  <si>
+    <t>Công ty hợp danh là gì ?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/C%C3%B4ng_ty_h%E1%BB%A3p_danh</t>
+  </si>
+  <si>
+    <t>Khái niệm thuế môn bài là gì?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://www.daotaoketoanhcm.com/thu-vien/phap-luat-thue/thue-mon-bai/khai-niem-thue-mon-bai-la-gi/</t>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/103/catid/638/item/11297/thu%E1%BA%BF-mon-bai.aspx</t>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/103/catid/638/item/11296/thu%E1%BA%BF-thu-nh%E1%BA%ADp-doanh-nghi%E1%BB%87p-va-thu%E1%BA%BF-thu-nh%E1%BA%ADp-h%E1%BB%99-gia-%C4%91inh.aspx</t>
+  </si>
+  <si>
+    <t>GỢI Ý TRONG VIỆC THÀNH LẬP CÔNG TY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HÀNH HỆ THỐNG NGÀNH KINH TẾ VIỆT NAM</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://dangkykinhdoanh.gov.vn/Default.aspx?tabid=106&amp;ArticleID=274&amp;language=en-GB</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://www.ketoancattuong.vn/trang/quy-trinh-thanh-lap-cong-ty.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>Thuế thu nhập doanh nghiệp và thuế thu nhập hộ gia đình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://ketoanthienung.org/tin-tuc/cac-khoan-thu-nhap-duoc-mien-thue-thu-nhap-doanh-nghiep.htm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Các khoản thu nhập được miễn thuế TNDN</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://ketoanthienung.org/tin-tuc/thue-suat-thue-thu-nhap-doanh-nghiep-nam-2014.htm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://i-law.vn/blog/doanh-nghiep-132/kinh-doanh-thua-lo-doanh-nghiep-co-nop-thue-thu-nhap-doanh-nghiep-54069</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/110/catid/438/item/7029/gi%E1%BA%A5y-ph%C3%A9p-ho%E1%BA%A1t-%C4%91%E1%BB%99ng-ngo%E1%BA%A1i-h%E1%BB%91i-%C4%91%E1%BB%91i-v%E1%BB%9Bi-t%E1%BB%95-ch%E1%BB%A9c-t%C3%ADn-d%E1%BB%A5ng-phi-ng%C3%A2n-h%C3%A0ng.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Giấy phép hoạt động ngoại hối đối với tổ chức tín dụng phi ngân hàng</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Đầu tư bằng hình thức Forex rút tiền tại Việt Nam có phạm luật không ?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://luatminhkhue.vn/tu-van-luat-doanh-nghiep/dau-tu-bang-hinh-thuc-forex-rut-tien-tai-viet-nam-co-pham-luat-khong-.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://luatminhgia.com.vn/hoi-dap-doanh-nghiep/-hoat-dong-kinh-doanh-ngoai-hoi-tai-viet-nam.aspx</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -704,7 +829,7 @@
     <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,6 +934,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1641,10 +1773,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -4974,4 +5106,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="248">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -698,59 +698,29 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>http://chamsocdoanhnghiep.com/bang-gia-dich-vu-tu-van-doanh-nghiep/</t>
-  </si>
-  <si>
     <t>Doanh nghiệp tư nhân là gì ?</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>http://www.ketoancattuong.vn/dich-vu/62/doanh-nghiep-tu-nhan-la-gi-.html</t>
-  </si>
-  <si>
-    <t>http://tuvanthanhlapcongtytnhh.com/tu-van-thanh-lap-cong-ty-tnhh/dac-diem-doanh-nghiep-tu-nhan-va-cong-ty-tnhh.html</t>
-  </si>
-  <si>
     <t>Công ty trách nhiệm hữu hạn là gì ?</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>https://vi.wikipedia.org/wiki/C%C3%B4ng_ty_tr%C3%A1ch_nhi%E1%BB%87m_h%E1%BB%AFu_h%E1%BA%A1n</t>
-  </si>
-  <si>
     <t>Công ty cổ phần là gì?</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>https://giayphepkinhdoanh.vn/cong-ty-co-phan-la-gi/</t>
-  </si>
-  <si>
     <t>Chọn loại hình kinh doanh và đăng ký kinh doanh</t>
-  </si>
-  <si>
-    <t>http://business.gov.vn/tabid/100/catid/629/item/10907/ch%E1%BB%8Dn-lo%E1%BA%A1i-hinh-kinh-doanh-va-%C4%91%C4%83ng-ky-kinh-doanh.aspx</t>
   </si>
   <si>
     <t>Công ty hợp danh là gì ?</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>https://vi.wikipedia.org/wiki/C%C3%B4ng_ty_h%E1%BB%A3p_danh</t>
-  </si>
-  <si>
     <t>Khái niệm thuế môn bài là gì?</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>http://www.daotaoketoanhcm.com/thu-vien/phap-luat-thue/thue-mon-bai/khai-niem-thue-mon-bai-la-gi/</t>
-  </si>
-  <si>
-    <t>http://business.gov.vn/tabid/103/catid/638/item/11297/thu%E1%BA%BF-mon-bai.aspx</t>
-  </si>
-  <si>
-    <t>http://business.gov.vn/tabid/103/catid/638/item/11296/thu%E1%BA%BF-thu-nh%E1%BA%ADp-doanh-nghi%E1%BB%87p-va-thu%E1%BA%BF-thu-nh%E1%BA%ADp-h%E1%BB%99-gia-%C4%91inh.aspx</t>
-  </si>
-  <si>
     <t>GỢI Ý TRONG VIỆC THÀNH LẬP CÔNG TY</t>
   </si>
   <si>
@@ -758,11 +728,115 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>Các khoản thu nhập được miễn thuế TNDN</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://i-law.vn/blog/doanh-nghiep-132/kinh-doanh-thua-lo-doanh-nghiep-co-nop-thue-thu-nhap-doanh-nghiep-54069</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/110/catid/438/item/7029/gi%E1%BA%A5y-ph%C3%A9p-ho%E1%BA%A1t-%C4%91%E1%BB%99ng-ngo%E1%BA%A1i-h%E1%BB%91i-%C4%91%E1%BB%91i-v%E1%BB%9Bi-t%E1%BB%95-ch%E1%BB%A9c-t%C3%ADn-d%E1%BB%A5ng-phi-ng%C3%A2n-h%C3%A0ng.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Giấy phép hoạt động ngoại hối đối với tổ chức tín dụng phi ngân hàng</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Đầu tư bằng hình thức Forex rút tiền tại Việt Nam có phạm luật không ?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://luatminhkhue.vn/tu-van-luat-doanh-nghiep/dau-tu-bang-hinh-thuc-forex-rut-tien-tai-viet-nam-co-pham-luat-khong-.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://luatminhgia.com.vn/hoi-dap-doanh-nghiep/-hoat-dong-kinh-doanh-ngoai-hoi-tai-viet-nam.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Các loại Quỹ đầu tư</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://vietstock.vn/2002/12/cac-loai-quy-dau-tu-33-1290.htm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://intelligentinvestor.com.vn/cac-loai-quy-dau-tu</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://ketoanthienung.org/tin-tuc/cac-khoan-thu-nhap-duoc-mien-thue-thu-nhap-doanh-nghiep.htm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>https://dangkykinhdoanh.gov.vn/Default.aspx?tabid=106&amp;ArticleID=274&amp;language=en-GB</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>http://www.ketoancattuong.vn/trang/quy-trinh-thanh-lap-cong-ty.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://ketoanthienung.org/tin-tuc/thue-suat-thue-thu-nhap-doanh-nghiep-nam-2014.htm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/103/catid/638/item/11296/thu%E1%BA%BF-thu-nh%E1%BA%ADp-doanh-nghi%E1%BB%87p-va-thu%E1%BA%BF-thu-nh%E1%BA%ADp-h%E1%BB%99-gia-%C4%91inh.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/103/catid/638/item/11297/thu%E1%BA%BF-mon-bai.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://www.daotaoketoanhcm.com/thu-vien/phap-luat-thue/thue-mon-bai/khai-niem-thue-mon-bai-la-gi/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://business.gov.vn/tabid/100/catid/629/item/10907/ch%E1%BB%8Dn-lo%E1%BA%A1i-hinh-kinh-doanh-va-%C4%91%C4%83ng-ky-kinh-doanh.aspx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/C%C3%B4ng_ty_h%E1%BB%A3p_danh</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://giayphepkinhdoanh.vn/cong-ty-co-phan-la-gi/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/C%C3%B4ng_ty_tr%C3%A1ch_nhi%E1%BB%87m_h%E1%BB%AFu_h%E1%BA%A1n</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://tuvanthanhlapcongtytnhh.com/tu-van-thanh-lap-cong-ty-tnhh/dac-diem-doanh-nghiep-tu-nhan-va-cong-ty-tnhh.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://www.ketoancattuong.vn/dich-vu/62/doanh-nghiep-tu-nhan-la-gi-.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://chamsocdoanhnghiep.com/bang-gia-dich-vu-tu-van-doanh-nghiep/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Mỹ người ta gọi nó là mutual fund (quỹ tương hỗ)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anh là Unit trusts (đơn vị ủy thác đầu tư) hoặc OEIC (công ty đầu tư mở rộng)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Châu Âu gọi nó là SICAV (công ty đầu tư không cố định vốn)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Quỹ đầu tư mở</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -782,39 +856,67 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>http://ketoanthienung.org/tin-tuc/cac-khoan-thu-nhap-duoc-mien-thue-thu-nhap-doanh-nghiep.htm</t>
+    <t>Các trung gian danh mục đầu tư portfolio intermediaries</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Các khoản thu nhập được miễn thuế TNDN</t>
+    <t>Điều kiện thành lập Công ty quản lý quỹ đầu tư tại Việt Nam</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>http://ketoanthienung.org/tin-tuc/thue-suat-thue-thu-nhap-doanh-nghiep-nam-2014.htm</t>
+    <t>http://www.tuvanluattnt.com/dieu-kien-thanh-lap-cong-ty-quan-ly-quy-dau-tu-tai-viet-n-n334.html</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>https://i-law.vn/blog/doanh-nghiep-132/kinh-doanh-thua-lo-doanh-nghiep-co-nop-thue-thu-nhap-doanh-nghiep-54069</t>
+    <t>Thủ tục thành lập quỹ đầu tư chứng khoán</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>http://business.gov.vn/tabid/110/catid/438/item/7029/gi%E1%BA%A5y-ph%C3%A9p-ho%E1%BA%A1t-%C4%91%E1%BB%99ng-ngo%E1%BA%A1i-h%E1%BB%91i-%C4%91%E1%BB%91i-v%E1%BB%9Bi-t%E1%BB%95-ch%E1%BB%A9c-t%C3%ADn-d%E1%BB%A5ng-phi-ng%C3%A2n-h%C3%A0ng.aspx</t>
+    <t>https://luatduonggia.vn/thu-tuc-thanh-lap-quy-dau-tu-chung-khoan/</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Giấy phép hoạt động ngoại hối đối với tổ chức tín dụng phi ngân hàng</t>
+    <t>http://www.moj.gov.vn/vbpq/lists/vn%20bn%20php%20lut/view_detail.aspx?itemid=27607</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Đầu tư bằng hình thức Forex rút tiền tại Việt Nam có phạm luật không ?</t>
+    <t>Quỹ đầu tư được thành lập như thế nào?</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>https://luatminhkhue.vn/tu-van-luat-doanh-nghiep/dau-tu-bang-hinh-thuc-forex-rut-tien-tai-viet-nam-co-pham-luat-khong-.aspx</t>
+    <t>https://vietstock.vn/2002/12/quy-dau-tu-duoc-thanh-lap-nhu-the-nao-33-1292.htm</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>https://luatminhgia.com.vn/hoi-dap-doanh-nghiep/-hoat-dong-kinh-doanh-ngoai-hoi-tai-viet-nam.aspx</t>
+    <t>Thủ tục thành lập công ty quản lý quỹ đầu tư chứng khoán</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://luatduonggia.vn/thu-tuc-thanh-lap-cong-ty-quan-ly-quy-dau-tu-chung-khoan/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Các loại chứng khoán theo quy định của pháp luật Việt Nam</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://luatduonggia.vn/cac-loai-chung-khoan-theo-quy-dinh-cua-phap-luat-viet-nam/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Hướng dẫn về giao dịch chứng khoán</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://moj.gov.vn/vbpq/lists/vn%20bn%20php%20lut/view_detail.aspx?itemid=26603</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Phương thức giao dịch thỏa thuận</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://tinnhanhchungkhoan.vn/chung-khoan/phuong-thuc-giao-dich-thoa-thuan-64744.html</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -829,7 +931,7 @@
     <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,8 +1044,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +1095,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,12 +1326,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,6 +1492,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1376,36 +1513,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1763,7 +1906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1776,7 +1919,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -2719,17 +2862,17 @@
       <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
       <c r="N2" s="48" t="s">
         <v>112</v>
       </c>
@@ -2908,17 +3051,17 @@
       <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="52">
         <v>-100</v>
       </c>
@@ -3015,17 +3158,17 @@
       <c r="D10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="48">
         <v>-20</v>
       </c>
@@ -3573,17 +3716,17 @@
       <c r="D24" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="48">
         <v>699.54</v>
       </c>
@@ -4090,32 +4233,32 @@
       <c r="D37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
       <c r="N37" s="52">
         <v>-150</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="43">
         <v>0</v>
       </c>
@@ -4127,27 +4270,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72">
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74">
         <v>726.18</v>
       </c>
-      <c r="N39" s="73"/>
+      <c r="N39" s="75"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -4156,16 +4299,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E24:M24"/>
     <mergeCell ref="E37:M37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4360,17 +4503,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4385,17 +4528,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4492,17 +4635,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4558,17 +4701,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4665,17 +4808,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4731,17 +4874,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -4797,17 +4940,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -5027,32 +5170,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -5064,30 +5207,35 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81" t="s">
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81">
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80">
         <v>745.39</v>
       </c>
-      <c r="N26" s="82"/>
+      <c r="N26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -5096,11 +5244,6 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5110,208 +5253,378 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B44"/>
+  <dimension ref="A2:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s">
+      <c r="B3" s="84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" s="84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="84" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="84" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" s="84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18">
+        <v>5</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" s="84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="18">
+        <v>7</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" s="84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="18">
+        <v>8</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="18">
+        <v>9</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" s="84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="18">
+        <v>10</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="33" spans="1:2">
+      <c r="B33" s="84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="18">
+        <v>11</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="18">
+        <v>12</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="84" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="41" spans="1:2">
+      <c r="B41" s="84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="18">
+        <v>13</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="44" spans="1:2">
+      <c r="B44" s="84" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="18">
+        <v>14</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="47" spans="1:2">
+      <c r="B47" s="84" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="48" spans="1:2">
+      <c r="B48" s="84" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>223</v>
+    <row r="49" spans="1:2">
+      <c r="B49" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" s="85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" s="85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="18">
+        <v>15</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="86">
+        <v>16</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="83" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="18">
+        <v>17</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" s="83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="18">
+        <v>18</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" s="83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="18">
+        <v>19</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" s="83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="18">
+        <v>20</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="83" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1"/>
+    <hyperlink ref="B48" r:id="rId2"/>
+    <hyperlink ref="B44" r:id="rId3"/>
+    <hyperlink ref="B41" r:id="rId4"/>
+    <hyperlink ref="B40" r:id="rId5"/>
+    <hyperlink ref="B37" r:id="rId6"/>
+    <hyperlink ref="B36" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="B30" r:id="rId9"/>
+    <hyperlink ref="B27" r:id="rId10"/>
+    <hyperlink ref="B26" r:id="rId11"/>
+    <hyperlink ref="B23" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="B7" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId19"/>
+    <hyperlink ref="B3" r:id="rId20"/>
+    <hyperlink ref="B58" r:id="rId21"/>
+    <hyperlink ref="B62" r:id="rId22"/>
+    <hyperlink ref="B59" r:id="rId23"/>
+    <hyperlink ref="B55" r:id="rId24"/>
+    <hyperlink ref="B65" r:id="rId25"/>
+    <hyperlink ref="B68" r:id="rId26"/>
+    <hyperlink ref="B71" r:id="rId27"/>
+    <hyperlink ref="B74" r:id="rId28"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="266">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -965,6 +965,30 @@
   </si>
   <si>
     <t>https://www.vndirect.com.vn/chung-khoan-phai-sinh/thong-tin-hop-dong-tuong-lai/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Định giá hợp đồng tương lai thế nào là hợp lý?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http://tinnhanhchungkhoan.vn/chung-khoan/dinh-gia-hop-dong-tuong-lai-the-nao-la-hop-ly-197012.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Cổ tức tiền mặt và hợp đồng tương lai: Những tác động cần lưu ý</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://vietstock.vn/2018/01/co-tuc-tien-mat-va-hop-dong-tuong-lai-nhung-tac-dong-can-luu-y-4186-575238.htm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Hợp đồng tương lai - Ưu điểm và nhược điểm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://www.chungkhoanviet.vn/tanman/13326</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1380,7 +1404,7 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,6 +1617,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1964,10 +1989,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="H17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -2233,11 +2258,11 @@
         <v>90</v>
       </c>
       <c r="F10" s="57">
-        <v>608.33000000000004</v>
+        <v>1002.36</v>
       </c>
       <c r="G10" s="56">
         <f t="shared" si="0"/>
-        <v>6578.3899999999994</v>
+        <v>6972.4199999999992</v>
       </c>
       <c r="H10" s="56">
         <f t="shared" si="1"/>
@@ -2245,7 +2270,7 @@
       </c>
       <c r="I10" s="34">
         <f t="shared" si="2"/>
-        <v>11.523483265842254</v>
+        <v>18.025564103325713</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>190</v>
@@ -2277,13 +2302,13 @@
       </c>
       <c r="F12" s="62">
         <f>SUM(F4:F11)</f>
-        <v>2239.98</v>
+        <v>2634.01</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="63"/>
       <c r="I12" s="58">
         <f>AVERAGE(I5:I11)</f>
-        <v>16.281467702993023</v>
+        <v>17.365147842573595</v>
       </c>
       <c r="J12" s="63"/>
     </row>
@@ -2304,7 +2329,7 @@
     </row>
     <row r="17" spans="6:9">
       <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
     </row>
@@ -5301,10 +5326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C89"/>
+  <dimension ref="A2:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5685,29 +5710,59 @@
         <v>252</v>
       </c>
     </row>
+    <row r="84" spans="1:3">
+      <c r="C84" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
     <row r="85" spans="1:3">
-      <c r="B85" s="18" t="s">
+      <c r="C85" s="90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="C86" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="C87" s="90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="C88" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="C89" s="90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="18">
+    <row r="92" spans="1:3">
+      <c r="A92" s="18">
         <v>22</v>
       </c>
-      <c r="B86" s="68" t="s">
+      <c r="B92" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="18">
+    <row r="94" spans="1:3">
+      <c r="A94" s="18">
         <v>23</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B94" s="18" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="B89" s="68" t="s">
+    <row r="95" spans="1:3">
+      <c r="B95" s="68" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5744,12 +5799,15 @@
     <hyperlink ref="B74" r:id="rId28"/>
     <hyperlink ref="B78" r:id="rId29"/>
     <hyperlink ref="B77" r:id="rId30"/>
-    <hyperlink ref="B86" r:id="rId31"/>
-    <hyperlink ref="B89" r:id="rId32"/>
+    <hyperlink ref="B92" r:id="rId31"/>
+    <hyperlink ref="B95" r:id="rId32"/>
     <hyperlink ref="B79" r:id="rId33"/>
     <hyperlink ref="B80" r:id="rId34"/>
+    <hyperlink ref="C85" r:id="rId35"/>
+    <hyperlink ref="C87" r:id="rId36"/>
+    <hyperlink ref="C89" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="3" r:id="rId1"/>
-    <sheet name="OPERATIONS" sheetId="4" r:id="rId2"/>
-    <sheet name="June 2018" sheetId="5" r:id="rId3"/>
-    <sheet name="May 2018" sheetId="2" r:id="rId4"/>
-    <sheet name="Q&amp;A" sheetId="7" r:id="rId5"/>
+    <sheet name="History of Trading" sheetId="8" r:id="rId2"/>
+    <sheet name="OPERATIONS" sheetId="4" r:id="rId3"/>
+    <sheet name="June 2018" sheetId="5" r:id="rId4"/>
+    <sheet name="May 2018" sheetId="2" r:id="rId5"/>
+    <sheet name="Q&amp;A" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OPERATIONS!$B$3:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="276">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -991,23 +992,53 @@
     <t>https://www.chungkhoanviet.vn/tanman/13326</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>History of Trading</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Open Time</t>
+  </si>
+  <si>
+    <t>Close Time</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;%&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_);[Red]\([$$-409]#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;%&quot;"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1040,7 +1071,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1059,7 +1090,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1120,7 +1151,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1177,7 +1208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1397,14 +1428,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,14 +1516,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1535,9 +1579,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1546,10 +1590,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,8 +1603,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1572,6 +1616,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,7 +1662,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1989,20 +2047,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="H17:K21"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="10.42578125" style="18" customWidth="1"/>
     <col min="3" max="7" width="14" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="18"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
@@ -2258,11 +2316,11 @@
         <v>90</v>
       </c>
       <c r="F10" s="57">
-        <v>1002.36</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="G10" s="56">
         <f t="shared" si="0"/>
-        <v>6972.4199999999992</v>
+        <v>6126.48</v>
       </c>
       <c r="H10" s="56">
         <f t="shared" si="1"/>
@@ -2270,7 +2328,7 @@
       </c>
       <c r="I10" s="34">
         <f t="shared" si="2"/>
-        <v>18.025564103325713</v>
+        <v>4.0662963733032349</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>190</v>
@@ -2302,13 +2360,13 @@
       </c>
       <c r="F12" s="62">
         <f>SUM(F4:F11)</f>
-        <v>2634.01</v>
+        <v>1788.0700000000002</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="63"/>
       <c r="I12" s="58">
         <f>AVERAGE(I5:I11)</f>
-        <v>17.365147842573595</v>
+        <v>15.038603220903184</v>
       </c>
       <c r="J12" s="63"/>
     </row>
@@ -2456,39 +2514,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B17">
+      <formula1>"SELL,BUY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17">
+      <formula1>"AM,PM"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="18"/>
+    <col min="6" max="7" width="13.140625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="24" t="s">
@@ -2873,13 +3141,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" thickBot="1">
       <c r="A1" s="64">
@@ -2925,7 +3193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B2" s="47">
         <v>130907515</v>
       </c>
@@ -2935,22 +3203,22 @@
       <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B3" s="49">
         <v>137714682</v>
       </c>
@@ -2991,7 +3259,7 @@
         <v>31.93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B4" s="47">
         <v>137763688</v>
       </c>
@@ -3032,7 +3300,7 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B5" s="49">
         <v>138022429</v>
       </c>
@@ -3073,7 +3341,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B6" s="47">
         <v>138393922</v>
       </c>
@@ -3114,7 +3382,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B7" s="49">
         <v>138461980</v>
       </c>
@@ -3124,22 +3392,22 @@
       <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="52">
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B8" s="47">
         <v>138475841</v>
       </c>
@@ -3180,7 +3448,7 @@
         <v>48.47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B9" s="49">
         <v>138654225</v>
       </c>
@@ -3221,7 +3489,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B10" s="47">
         <v>138723413</v>
       </c>
@@ -3231,22 +3499,22 @@
       <c r="D10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
       <c r="N10" s="48">
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B11" s="49">
         <v>138732442</v>
       </c>
@@ -3287,7 +3555,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B12" s="47">
         <v>138736541</v>
       </c>
@@ -3328,7 +3596,7 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B13" s="49">
         <v>138897659</v>
       </c>
@@ -3369,7 +3637,7 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B14" s="47">
         <v>138953312</v>
       </c>
@@ -3410,7 +3678,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B15" s="49">
         <v>138963274</v>
       </c>
@@ -3451,7 +3719,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B16" s="47">
         <v>139069945</v>
       </c>
@@ -3492,7 +3760,7 @@
         <v>-31.59</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="17" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B17" s="49">
         <v>139070001</v>
       </c>
@@ -3533,7 +3801,7 @@
         <v>-7.75</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="18" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B18" s="47">
         <v>139076560</v>
       </c>
@@ -3574,7 +3842,7 @@
         <v>10.39</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B19" s="49">
         <v>139121598</v>
       </c>
@@ -3615,7 +3883,7 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B20" s="47">
         <v>139177488</v>
       </c>
@@ -3656,7 +3924,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="21" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B21" s="49">
         <v>139189288</v>
       </c>
@@ -3697,7 +3965,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="22" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B22" s="47">
         <v>139193605</v>
       </c>
@@ -3738,7 +4006,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="23" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B23" s="49">
         <v>139209052</v>
       </c>
@@ -3779,7 +4047,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="24" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B24" s="47">
         <v>139249180</v>
       </c>
@@ -3789,22 +4057,22 @@
       <c r="D24" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="48">
         <v>699.54</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="25" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B25" s="49">
         <v>139254304</v>
       </c>
@@ -3845,7 +4113,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="26" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B26" s="47">
         <v>139288612</v>
       </c>
@@ -3886,7 +4154,7 @@
         <v>31.29</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="27" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B27" s="49">
         <v>139320132</v>
       </c>
@@ -3927,7 +4195,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="28" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B28" s="47">
         <v>139321846</v>
       </c>
@@ -3968,7 +4236,7 @@
         <v>126.17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="29" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B29" s="49">
         <v>139344009</v>
       </c>
@@ -4009,7 +4277,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="30" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="30" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B30" s="47">
         <v>139373451</v>
       </c>
@@ -4050,7 +4318,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="31" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B31" s="49">
         <v>139381854</v>
       </c>
@@ -4091,7 +4359,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="1" customFormat="1" thickBot="1">
+    <row r="32" spans="2:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B32" s="47">
         <v>139407314</v>
       </c>
@@ -4132,7 +4400,7 @@
         <v>-26.91</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B33" s="49">
         <v>139426625</v>
       </c>
@@ -4173,7 +4441,7 @@
         <v>120.79</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B34" s="47">
         <v>139619569</v>
       </c>
@@ -4214,7 +4482,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B35" s="49">
         <v>139619621</v>
       </c>
@@ -4255,7 +4523,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B36" s="47">
         <v>139682129</v>
       </c>
@@ -4296,7 +4564,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" thickBot="1">
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="B37" s="49">
         <v>139780262</v>
       </c>
@@ -4306,32 +4574,32 @@
       <c r="D37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
       <c r="N37" s="52">
         <v>-150</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" thickBot="1">
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
       <c r="L38" s="43">
         <v>0</v>
       </c>
@@ -4343,27 +4611,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79">
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80">
         <v>726.18</v>
       </c>
-      <c r="N39" s="80"/>
+      <c r="N39" s="81"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -4388,15 +4656,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
@@ -4576,17 +4844,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -4601,17 +4869,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -4708,17 +4976,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -4774,17 +5042,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -4881,17 +5149,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -4947,17 +5215,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -5013,17 +5281,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -5243,32 +5511,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -5280,27 +5548,27 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88">
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89">
         <v>745.39</v>
       </c>
-      <c r="N26" s="89"/>
+      <c r="N26" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5324,15 +5592,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="18"/>
   </cols>
@@ -5716,7 +5984,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="C85" s="90" t="s">
+      <c r="C85" s="75" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5726,7 +5994,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="C87" s="90" t="s">
+      <c r="C87" s="75" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5736,7 +6004,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="C89" s="90" t="s">
+      <c r="C89" s="75" t="s">
         <v>265</v>
       </c>
     </row>

--- a/Monthly Statement.xlsx
+++ b/Monthly Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="547"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="547" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ForexFactory" sheetId="9" r:id="rId1"/>
@@ -56,11 +56,7 @@
     <definedName name="USD">ForexFactory!$B$104:$Q$134</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -170,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="418">
   <si>
     <t>Closed Trade P/L:</t>
   </si>
@@ -1060,9 +1056,6 @@
     <t>History of Trading</t>
   </si>
   <si>
-    <t>SELL</t>
-  </si>
-  <si>
     <t>Session</t>
   </si>
   <si>
@@ -1078,41 +1071,10 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>Symbol</t>
   </si>
   <si>
     <t>Reason</t>
-  </si>
-  <si>
-    <t>XAUUSD</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Do mua giao dịch TB giá xuống, ko chốt lời nên đảo chiều</t>
-  </si>
-  <si>
-    <t>Chưa chốt lời hiệu quả, những lúc lên cao 220usd
-Thời điểm vào lệnh cũng chưa tốt</t>
-  </si>
-  <si>
-    <t>Vào lệnh hiệu quả nhưng số lượng ko đúng như ý định</t>
-  </si>
-  <si>
-    <t>CADCHF</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>Bị âm do mạng lag</t>
-  </si>
-  <si>
-    <t>pending tp</t>
   </si>
   <si>
     <t>-</t>
@@ -1554,6 +1516,24 @@
   <si>
     <t>Business NZ Manufacturing Index</t>
   </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>XAUUSD</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
+  </si>
 </sst>
 </file>
 
@@ -1794,7 +1774,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,6 +1838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -2217,7 +2203,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,6 +2466,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="11" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2497,13 +2496,14 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2519,15 +2519,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2547,11 +2538,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2652,9 +2641,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2973,7 +2959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2986,11 +2972,11 @@
   </sheetPr>
   <dimension ref="A1:AC966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
+      <selection pane="bottomRight" activeCell="Y125" sqref="Y125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3038,139 +3024,139 @@
     </row>
     <row r="2" spans="1:29" ht="13.5" customHeight="1">
       <c r="A2" s="85"/>
-      <c r="B2" s="123" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="125" t="s">
-        <v>404</v>
-      </c>
-      <c r="D2" s="123" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="123" t="s">
-        <v>402</v>
-      </c>
-      <c r="F2" s="126">
+      <c r="B2" s="130" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="133">
         <v>2017</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="120">
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="127">
         <v>2018</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
     </row>
     <row r="3" spans="1:29" ht="13.5" customHeight="1">
       <c r="A3" s="85"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="118" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G3" s="118" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K3" s="118" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L3" s="118" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="M3" s="118" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="N3" s="118" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="O3" s="118" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="P3" s="118" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="Q3" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="R3" s="117" t="s">
         <v>390</v>
       </c>
-      <c r="R3" s="117" t="s">
-        <v>401</v>
-      </c>
       <c r="S3" s="117" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T3" s="117" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="U3" s="117" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="V3" s="117" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="W3" s="117" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="X3" s="117" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Y3" s="117" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Z3" s="117" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AA3" s="117" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AB3" s="117" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="AC3" s="117" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="13.5" customHeight="1">
       <c r="A4" s="85"/>
-      <c r="B4" s="129" t="s">
-        <v>389</v>
+      <c r="B4" s="124" t="s">
+        <v>378</v>
       </c>
       <c r="C4" s="92">
         <v>1</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F4" s="89">
         <v>56.1</v>
@@ -3218,7 +3204,7 @@
         <v>55.2</v>
       </c>
       <c r="U4" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V4" s="88">
         <v>53.9</v>
@@ -3229,7 +3215,9 @@
       <c r="X4" s="88">
         <v>54.4</v>
       </c>
-      <c r="Y4" s="88"/>
+      <c r="Y4" s="88">
+        <v>54</v>
+      </c>
       <c r="Z4" s="88"/>
       <c r="AA4" s="88"/>
       <c r="AB4" s="88"/>
@@ -3237,15 +3225,15 @@
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1">
       <c r="A5" s="85"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="92">
         <v>2</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F5" s="89">
         <v>52.8</v>
@@ -3304,7 +3292,9 @@
       <c r="X5" s="88">
         <v>53.1</v>
       </c>
-      <c r="Y5" s="88"/>
+      <c r="Y5" s="88">
+        <v>55.8</v>
+      </c>
       <c r="Z5" s="88"/>
       <c r="AA5" s="88"/>
       <c r="AB5" s="88"/>
@@ -3312,15 +3302,15 @@
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1">
       <c r="A6" s="85"/>
-      <c r="B6" s="130"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="92">
         <v>3</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F6" s="89">
         <v>56.2</v>
@@ -3387,12 +3377,12 @@
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1">
       <c r="A7" s="85"/>
-      <c r="B7" s="130"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="92">
         <v>4</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="89"/>
@@ -3410,21 +3400,23 @@
       <c r="R7" s="88"/>
       <c r="S7" s="88"/>
       <c r="T7" s="88" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="U7" s="88" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="V7" s="88" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="W7" s="88" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="X7" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y7" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y7" s="88" t="s">
+        <v>417</v>
+      </c>
       <c r="Z7" s="88"/>
       <c r="AA7" s="88"/>
       <c r="AB7" s="88"/>
@@ -3432,15 +3424,15 @@
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1">
       <c r="A8" s="85"/>
-      <c r="B8" s="130"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="92">
         <v>5</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F8" s="89">
         <v>0.25</v>
@@ -3479,7 +3471,7 @@
         <v>0.5</v>
       </c>
       <c r="R8" s="116" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S8" s="88">
         <v>0.5</v>
@@ -3488,7 +3480,7 @@
         <v>0.5</v>
       </c>
       <c r="U8" s="116" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V8" s="88">
         <v>0.5</v>
@@ -3497,9 +3489,11 @@
         <v>0.5</v>
       </c>
       <c r="X8" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y8" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y8" s="88">
+        <v>0.75</v>
+      </c>
       <c r="Z8" s="88"/>
       <c r="AA8" s="88"/>
       <c r="AB8" s="88"/>
@@ -3507,15 +3501,15 @@
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1">
       <c r="A9" s="85"/>
-      <c r="B9" s="130"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="92">
         <v>6</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F9" s="89">
         <v>435</v>
@@ -3554,7 +3548,7 @@
         <v>435</v>
       </c>
       <c r="R9" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S9" s="88">
         <v>435</v>
@@ -3563,7 +3557,7 @@
         <v>435</v>
       </c>
       <c r="U9" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V9" s="88">
         <v>435</v>
@@ -3572,9 +3566,11 @@
         <v>435</v>
       </c>
       <c r="X9" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y9" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y9" s="88">
+        <v>435</v>
+      </c>
       <c r="Z9" s="88"/>
       <c r="AA9" s="88"/>
       <c r="AB9" s="88"/>
@@ -3582,15 +3578,15 @@
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1">
       <c r="A10" s="85"/>
-      <c r="B10" s="130"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="92">
         <v>7</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F10" s="89">
         <v>1.3</v>
@@ -3638,7 +3634,7 @@
         <v>0.1</v>
       </c>
       <c r="U10" s="88" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="V10" s="88">
         <v>-0.1</v>
@@ -3657,15 +3653,15 @@
     </row>
     <row r="11" spans="1:29" ht="13.5" customHeight="1">
       <c r="A11" s="85"/>
-      <c r="B11" s="130"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="92">
         <v>8</v>
       </c>
       <c r="D11" s="113" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F11" s="89">
         <v>-12.2</v>
@@ -3732,15 +3728,15 @@
     </row>
     <row r="12" spans="1:29" ht="13.5" customHeight="1">
       <c r="A12" s="85"/>
-      <c r="B12" s="130"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="92">
         <v>9</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F12" s="89">
         <v>-1.9</v>
@@ -3796,7 +3792,7 @@
       <c r="W12" s="88">
         <v>1.3</v>
       </c>
-      <c r="X12" s="147">
+      <c r="X12" s="120">
         <v>-0.5</v>
       </c>
       <c r="Y12" s="88"/>
@@ -3807,15 +3803,15 @@
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
       <c r="A13" s="85"/>
-      <c r="B13" s="130"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="92">
         <v>10</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F13" s="89">
         <v>1.6</v>
@@ -3882,15 +3878,15 @@
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
       <c r="A14" s="85"/>
-      <c r="B14" s="130"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="92">
         <v>11</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F14" s="89">
         <v>1.6</v>
@@ -3957,15 +3953,15 @@
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1">
       <c r="A15" s="85"/>
-      <c r="B15" s="130"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="92">
         <v>12</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F15" s="89">
         <v>1.8</v>
@@ -4032,15 +4028,15 @@
     </row>
     <row r="16" spans="1:29" ht="13.5" customHeight="1">
       <c r="A16" s="85"/>
-      <c r="B16" s="130"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="92">
         <v>13</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F16" s="89">
         <v>0.1</v>
@@ -4107,15 +4103,15 @@
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1">
       <c r="A17" s="85"/>
-      <c r="B17" s="130"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="92">
         <v>14</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F17" s="89">
         <v>2.5</v>
@@ -4182,15 +4178,15 @@
     </row>
     <row r="18" spans="1:29" ht="13.5" customHeight="1">
       <c r="A18" s="85"/>
-      <c r="B18" s="130"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="92">
         <v>15</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F18" s="89">
         <v>-10.1</v>
@@ -4257,74 +4253,76 @@
     </row>
     <row r="19" spans="1:29" ht="13.5" customHeight="1">
       <c r="A19" s="85"/>
-      <c r="B19" s="130"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="92">
         <v>16</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K19" s="89" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L19" s="89" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M19" s="89" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="O19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="R19" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S19" s="88" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="T19" s="88" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="U19" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V19" s="88" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="W19" s="88" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="X19" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y19" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y19" s="88" t="s">
+        <v>357</v>
+      </c>
       <c r="Z19" s="88"/>
       <c r="AA19" s="88"/>
       <c r="AB19" s="88"/>
@@ -4332,15 +4330,15 @@
     </row>
     <row r="20" spans="1:29" ht="13.5" customHeight="1">
       <c r="A20" s="85"/>
-      <c r="B20" s="130"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="92">
         <v>17</v>
       </c>
       <c r="D20" s="114" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F20" s="89">
         <v>4.8</v>
@@ -4407,72 +4405,72 @@
     </row>
     <row r="21" spans="1:29" ht="13.5" customHeight="1">
       <c r="A21" s="85"/>
-      <c r="B21" s="130"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="92">
         <v>18</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E21" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F21" s="89">
         <v>0.3</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I21" s="89">
         <v>0.3</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L21" s="89">
         <v>0.6</v>
       </c>
       <c r="M21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P21" s="89">
         <v>0.4</v>
       </c>
       <c r="Q21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R21" s="88">
         <v>0.5</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T21" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U21" s="88">
         <v>0.1</v>
       </c>
       <c r="V21" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W21" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X21" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="88"/>
       <c r="Z21" s="88"/>
@@ -4482,15 +4480,15 @@
     </row>
     <row r="22" spans="1:29" ht="13.5" customHeight="1">
       <c r="A22" s="85"/>
-      <c r="B22" s="130"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="92">
         <v>19</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E22" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F22" s="89">
         <v>2.8</v>
@@ -4557,72 +4555,72 @@
     </row>
     <row r="23" spans="1:29" ht="13.5" customHeight="1">
       <c r="A23" s="85"/>
-      <c r="B23" s="130"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="92">
         <v>20</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E23" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G23" s="89">
         <v>0.7</v>
       </c>
       <c r="H23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J23" s="89">
         <v>0.2</v>
       </c>
       <c r="K23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M23" s="89">
         <v>0.3</v>
       </c>
       <c r="N23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P23" s="89">
         <v>0.4</v>
       </c>
       <c r="Q23" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R23" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S23" s="88">
         <v>0.4</v>
       </c>
       <c r="T23" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U23" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V23" s="88">
         <v>0.1</v>
       </c>
       <c r="W23" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X23" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y23" s="88"/>
       <c r="Z23" s="88"/>
@@ -4632,72 +4630,72 @@
     </row>
     <row r="24" spans="1:29" ht="13.5" customHeight="1">
       <c r="A24" s="85"/>
-      <c r="B24" s="130"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="92">
         <v>21</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E24" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G24" s="89">
         <v>-1</v>
       </c>
       <c r="H24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J24" s="89">
         <v>0.6</v>
       </c>
       <c r="K24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M24" s="89">
         <v>0</v>
       </c>
       <c r="N24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P24" s="89">
         <v>0.2</v>
       </c>
       <c r="Q24" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S24" s="88">
         <v>0</v>
       </c>
       <c r="T24" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U24" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V24" s="88">
         <v>-0.2</v>
       </c>
       <c r="W24" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X24" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y24" s="88"/>
       <c r="Z24" s="88"/>
@@ -4707,69 +4705,69 @@
     </row>
     <row r="25" spans="1:29" ht="13.5" customHeight="1">
       <c r="A25" s="85"/>
-      <c r="B25" s="131"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="92">
         <v>22</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E25" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G25" s="89">
         <v>-1</v>
       </c>
       <c r="H25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J25" s="89">
         <v>0.6</v>
       </c>
       <c r="K25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M25" s="89">
         <v>0</v>
       </c>
       <c r="N25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P25" s="89">
         <v>0.2</v>
       </c>
       <c r="Q25" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R25" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S25" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T25" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U25" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V25" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W25" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X25" s="88">
         <v>0.3</v>
@@ -4813,17 +4811,17 @@
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="129" t="s">
-        <v>363</v>
+      <c r="B27" s="124" t="s">
+        <v>352</v>
       </c>
       <c r="C27" s="92">
         <v>1</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E27" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F27" s="89">
         <v>1.75</v>
@@ -4862,7 +4860,7 @@
         <v>1.75</v>
       </c>
       <c r="R27" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S27" s="88">
         <v>1.75</v>
@@ -4871,16 +4869,16 @@
         <v>1.75</v>
       </c>
       <c r="U27" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V27" s="88">
         <v>1.75</v>
       </c>
       <c r="W27" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X27" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y27" s="88"/>
       <c r="Z27" s="88"/>
@@ -4890,15 +4888,15 @@
     </row>
     <row r="28" spans="1:29" ht="13.5" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="130"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="92">
         <v>2</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F28" s="89">
         <v>-41</v>
@@ -4934,7 +4932,7 @@
         <v>-871</v>
       </c>
       <c r="Q28" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R28" s="88">
         <v>640</v>
@@ -4965,54 +4963,54 @@
     </row>
     <row r="29" spans="1:29" ht="13.5" customHeight="1">
       <c r="A29" s="85"/>
-      <c r="B29" s="130"/>
+      <c r="B29" s="125"/>
       <c r="C29" s="92">
         <v>3</v>
       </c>
       <c r="D29" s="95" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E29" s="90" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F29" s="89">
         <v>0.8</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J29" s="89">
         <v>1.2</v>
       </c>
       <c r="K29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M29" s="89">
         <v>-0.2</v>
       </c>
       <c r="N29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P29" s="89">
         <v>2.2000000000000002</v>
       </c>
       <c r="Q29" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R29" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S29" s="88">
         <v>0.5</v>
@@ -5021,18 +5019,20 @@
         <v>0.3</v>
       </c>
       <c r="U29" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V29" s="88">
         <v>0.6</v>
       </c>
       <c r="W29" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X29" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y29" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y29" s="88">
+        <v>0.5</v>
+      </c>
       <c r="Z29" s="88"/>
       <c r="AA29" s="88"/>
       <c r="AB29" s="88"/>
@@ -5040,54 +5040,54 @@
     </row>
     <row r="30" spans="1:29" ht="13.5" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="130"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="92">
         <v>4</v>
       </c>
       <c r="D30" s="95" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E30" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F30" s="89">
         <v>5.2</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J30" s="89">
         <v>4.9000000000000004</v>
       </c>
       <c r="K30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M30" s="89">
         <v>4.8</v>
       </c>
       <c r="N30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P30" s="89">
         <v>4.5999999999999996</v>
       </c>
       <c r="Q30" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R30" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S30" s="88">
         <v>4.5</v>
@@ -5096,18 +5096,20 @@
         <v>4.3</v>
       </c>
       <c r="U30" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V30" s="88">
         <v>4.4000000000000004</v>
       </c>
       <c r="W30" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X30" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y30" s="88">
+        <v>4.5</v>
+      </c>
       <c r="Z30" s="88"/>
       <c r="AA30" s="88"/>
       <c r="AB30" s="88"/>
@@ -5115,72 +5117,72 @@
     </row>
     <row r="31" spans="1:29" ht="13.5" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="130"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="92">
         <v>5</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F31" s="89">
         <v>0.6</v>
       </c>
       <c r="G31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J31" s="89">
         <v>1.5</v>
       </c>
       <c r="K31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M31" s="89">
         <v>2</v>
       </c>
       <c r="N31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P31" s="89">
         <v>0.2</v>
       </c>
       <c r="Q31" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R31" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S31" s="88">
         <v>1.7</v>
       </c>
       <c r="T31" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U31" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V31" s="88">
         <v>0.1</v>
       </c>
       <c r="W31" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X31" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y31" s="88"/>
       <c r="Z31" s="88"/>
@@ -5190,72 +5192,72 @@
     </row>
     <row r="32" spans="1:29" ht="13.5" customHeight="1">
       <c r="A32" s="85"/>
-      <c r="B32" s="130"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="92">
         <v>6</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E32" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F32" s="89">
         <v>0.6</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J32" s="89">
         <v>1.2</v>
       </c>
       <c r="K32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M32" s="89">
         <v>2.1</v>
       </c>
       <c r="N32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P32" s="89">
         <v>0.5</v>
       </c>
       <c r="Q32" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S32" s="88">
         <v>1.8</v>
       </c>
       <c r="T32" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U32" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V32" s="88">
         <v>0.6</v>
       </c>
       <c r="W32" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X32" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y32" s="88"/>
       <c r="Z32" s="88"/>
@@ -5265,69 +5267,69 @@
     </row>
     <row r="33" spans="1:29" ht="13.5" customHeight="1">
       <c r="A33" s="85"/>
-      <c r="B33" s="130"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="92">
         <v>7</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E33" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F33" s="89">
         <v>0.4</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I33" s="89">
         <v>1</v>
       </c>
       <c r="J33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L33" s="89">
         <v>0</v>
       </c>
       <c r="M33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O33" s="89">
         <v>0.5</v>
       </c>
       <c r="P33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R33" s="88">
         <v>0.1</v>
       </c>
       <c r="S33" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T33" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U33" s="88">
         <v>0.5</v>
       </c>
       <c r="V33" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W33" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X33" s="88">
         <v>0.4</v>
@@ -5340,72 +5342,72 @@
     </row>
     <row r="34" spans="1:29" ht="13.5" customHeight="1">
       <c r="A34" s="85"/>
-      <c r="B34" s="130"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="92">
         <v>8</v>
       </c>
       <c r="D34" s="95" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E34" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G34" s="89">
         <v>1</v>
       </c>
       <c r="H34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J34" s="89">
         <v>0.8</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M34" s="89">
         <v>1.4</v>
       </c>
       <c r="N34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P34" s="89">
         <v>1</v>
       </c>
       <c r="Q34" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R34" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S34" s="88">
         <v>0.9</v>
       </c>
       <c r="T34" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U34" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V34" s="88">
         <v>0.6</v>
       </c>
       <c r="W34" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X34" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y34" s="88"/>
       <c r="Z34" s="88"/>
@@ -5415,72 +5417,72 @@
     </row>
     <row r="35" spans="1:29" ht="13.5" customHeight="1">
       <c r="A35" s="85"/>
-      <c r="B35" s="130"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="92">
         <v>9</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G35" s="89">
         <v>1.5</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J35" s="89">
         <v>1.4</v>
       </c>
       <c r="K35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M35" s="89">
         <v>1.3</v>
       </c>
       <c r="N35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P35" s="89">
         <v>1</v>
       </c>
       <c r="Q35" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R35" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S35" s="88">
         <v>1</v>
       </c>
       <c r="T35" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U35" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V35" s="88">
         <v>0.2</v>
       </c>
       <c r="W35" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X35" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y35" s="88"/>
       <c r="Z35" s="88"/>
@@ -5490,72 +5492,72 @@
     </row>
     <row r="36" spans="1:29" ht="13.5" customHeight="1">
       <c r="A36" s="85"/>
-      <c r="B36" s="130"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="92">
         <v>10</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E36" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G36" s="89">
         <v>1.9</v>
       </c>
       <c r="H36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J36" s="89">
         <v>2.2000000000000002</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M36" s="89">
         <v>2.1</v>
       </c>
       <c r="N36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P36" s="89">
         <v>2</v>
       </c>
       <c r="Q36" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S36" s="88">
         <v>2.1</v>
       </c>
       <c r="T36" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U36" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V36" s="88">
         <v>2</v>
       </c>
       <c r="W36" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X36" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y36" s="88"/>
       <c r="Z36" s="88"/>
@@ -5565,15 +5567,15 @@
     </row>
     <row r="37" spans="1:29" ht="13.5" customHeight="1">
       <c r="A37" s="85"/>
-      <c r="B37" s="130"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="92">
         <v>11</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E37" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F37" s="89">
         <v>54.5</v>
@@ -5609,7 +5611,7 @@
         <v>57.2</v>
       </c>
       <c r="Q37" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R37" s="88">
         <v>51.2</v>
@@ -5618,7 +5620,7 @@
         <v>55.6</v>
       </c>
       <c r="T37" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U37" s="88">
         <v>52.2</v>
@@ -5640,72 +5642,72 @@
     </row>
     <row r="38" spans="1:29" ht="13.5" customHeight="1">
       <c r="A38" s="85"/>
-      <c r="B38" s="130"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="92">
         <v>12</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E38" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H38" s="89">
         <v>0.4</v>
       </c>
       <c r="I38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K38" s="89">
         <v>0.5</v>
       </c>
       <c r="L38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N38" s="89">
         <v>0.8</v>
       </c>
       <c r="O38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P38" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="89">
         <v>0.6</v>
       </c>
       <c r="R38" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S38" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T38" s="88">
         <v>0.6</v>
       </c>
       <c r="U38" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W38" s="88">
         <v>0.5</v>
       </c>
       <c r="X38" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y38" s="88"/>
       <c r="Z38" s="88"/>
@@ -5715,72 +5717,72 @@
     </row>
     <row r="39" spans="1:29" ht="13.5" customHeight="1">
       <c r="A39" s="85"/>
-      <c r="B39" s="131"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="92">
         <v>13</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E39" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H39" s="89">
         <v>-2.34</v>
       </c>
       <c r="I39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K39" s="89">
         <v>0.24</v>
       </c>
       <c r="L39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N39" s="89">
         <v>-0.62</v>
       </c>
       <c r="O39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P39" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="89">
         <v>-4.68</v>
       </c>
       <c r="R39" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S39" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T39" s="88">
         <v>-2.77</v>
       </c>
       <c r="U39" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V39" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W39" s="88">
         <v>0.18</v>
       </c>
       <c r="X39" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y39" s="88"/>
       <c r="Z39" s="88"/>
@@ -5821,17 +5823,17 @@
     </row>
     <row r="41" spans="1:29" ht="13.5" customHeight="1">
       <c r="A41" s="85"/>
-      <c r="B41" s="129" t="s">
-        <v>356</v>
+      <c r="B41" s="124" t="s">
+        <v>345</v>
       </c>
       <c r="C41" s="92">
         <v>1</v>
       </c>
       <c r="D41" s="95" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F41" s="89">
         <v>1.24</v>
@@ -5898,15 +5900,15 @@
     </row>
     <row r="42" spans="1:29" ht="13.5" customHeight="1">
       <c r="A42" s="85"/>
-      <c r="B42" s="130"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="92">
         <v>2</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E42" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F42" s="89">
         <v>7</v>
@@ -5948,7 +5950,7 @@
         <v>11.7</v>
       </c>
       <c r="S42" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T42" s="88">
         <v>17.100000000000001</v>
@@ -5965,7 +5967,9 @@
       <c r="X42" s="88">
         <v>-3.2</v>
       </c>
-      <c r="Y42" s="88"/>
+      <c r="Y42" s="123">
+        <v>6.4</v>
+      </c>
       <c r="Z42" s="88"/>
       <c r="AA42" s="88"/>
       <c r="AB42" s="88"/>
@@ -5973,15 +5977,15 @@
     </row>
     <row r="43" spans="1:29" ht="13.5" customHeight="1">
       <c r="A43" s="85"/>
-      <c r="B43" s="130"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="92">
         <v>3</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E43" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F43" s="89">
         <v>0.2</v>
@@ -6048,15 +6052,15 @@
     </row>
     <row r="44" spans="1:29" ht="13.5" customHeight="1">
       <c r="A44" s="85"/>
-      <c r="B44" s="130"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="92">
         <v>4</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E44" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F44" s="89">
         <v>39.1</v>
@@ -6123,15 +6127,15 @@
     </row>
     <row r="45" spans="1:29" ht="13.5" customHeight="1">
       <c r="A45" s="85"/>
-      <c r="B45" s="130"/>
+      <c r="B45" s="125"/>
       <c r="C45" s="92">
         <v>5</v>
       </c>
       <c r="D45" s="95" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E45" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F45" s="89">
         <v>5.8</v>
@@ -6198,15 +6202,15 @@
     </row>
     <row r="46" spans="1:29" ht="13.5" customHeight="1">
       <c r="A46" s="85"/>
-      <c r="B46" s="130"/>
+      <c r="B46" s="125"/>
       <c r="C46" s="92">
         <v>6</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E46" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F46" s="89">
         <v>0.1</v>
@@ -6273,69 +6277,69 @@
     </row>
     <row r="47" spans="1:29" ht="13.5" customHeight="1">
       <c r="A47" s="85"/>
-      <c r="B47" s="130"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="92">
         <v>7</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E47" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F47" s="89">
         <v>0.5</v>
       </c>
       <c r="G47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I47" s="89">
         <v>0.5</v>
       </c>
       <c r="J47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L47" s="89">
         <v>0.2</v>
       </c>
       <c r="M47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O47" s="89">
         <v>0.6</v>
       </c>
       <c r="P47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q47" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R47" s="88">
         <v>0.6</v>
       </c>
       <c r="S47" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T47" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U47" s="88">
         <v>0.4</v>
       </c>
       <c r="V47" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W47" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X47" s="88">
         <v>0.4</v>
@@ -6348,67 +6352,67 @@
     </row>
     <row r="48" spans="1:29" ht="13.5" customHeight="1">
       <c r="A48" s="85"/>
-      <c r="B48" s="130"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="92">
         <v>8</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E48" s="90"/>
       <c r="F48" s="89">
         <v>0.5</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I48" s="89">
         <v>0.5</v>
       </c>
       <c r="J48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L48" s="89">
         <v>0.5</v>
       </c>
       <c r="M48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O48" s="89">
         <v>0.2</v>
       </c>
       <c r="P48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q48" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R48" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S48" s="88">
         <v>0.6</v>
       </c>
       <c r="T48" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U48" s="88">
         <v>0.2</v>
       </c>
       <c r="V48" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W48" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X48" s="88">
         <v>0.3</v>
@@ -6421,72 +6425,72 @@
     </row>
     <row r="49" spans="1:29" ht="13.5" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="130"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="92">
         <v>9</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E49" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G49" s="89">
         <v>-0.2</v>
       </c>
       <c r="H49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J49" s="89">
         <v>-0.7</v>
       </c>
       <c r="K49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M49" s="89">
         <v>9.3000000000000007</v>
       </c>
       <c r="N49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P49" s="89">
         <v>15.7</v>
       </c>
       <c r="Q49" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R49" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S49" s="88">
         <v>-19.399999999999999</v>
       </c>
       <c r="T49" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U49" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V49" s="88">
         <v>0.2</v>
       </c>
       <c r="W49" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X49" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y49" s="88"/>
       <c r="Z49" s="88"/>
@@ -6496,72 +6500,72 @@
     </row>
     <row r="50" spans="1:29" ht="13.5" customHeight="1">
       <c r="A50" s="85"/>
-      <c r="B50" s="130"/>
+      <c r="B50" s="125"/>
       <c r="C50" s="92">
         <v>10</v>
       </c>
       <c r="D50" s="96" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E50" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G50" s="89">
         <v>0.5</v>
       </c>
       <c r="H50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J50" s="89">
         <v>0.5</v>
       </c>
       <c r="K50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M50" s="89">
         <v>0.5</v>
       </c>
       <c r="N50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P50" s="89">
         <v>0.5</v>
       </c>
       <c r="Q50" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R50" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S50" s="88">
         <v>0.6</v>
       </c>
       <c r="T50" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U50" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V50" s="88">
         <v>0.5</v>
       </c>
       <c r="W50" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X50" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y50" s="88"/>
       <c r="Z50" s="88"/>
@@ -6571,72 +6575,72 @@
     </row>
     <row r="51" spans="1:29" ht="13.5" customHeight="1">
       <c r="A51" s="85"/>
-      <c r="B51" s="130"/>
+      <c r="B51" s="125"/>
       <c r="C51" s="92">
         <v>11</v>
       </c>
       <c r="D51" s="95" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E51" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G51" s="89">
         <v>-2.1</v>
       </c>
       <c r="H51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J51" s="89">
         <v>0.3</v>
       </c>
       <c r="K51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M51" s="89">
         <v>0.8</v>
       </c>
       <c r="N51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P51" s="89">
         <v>1</v>
       </c>
       <c r="Q51" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R51" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S51" s="88">
         <v>-0.2</v>
       </c>
       <c r="T51" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U51" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V51" s="88">
         <v>0.4</v>
       </c>
       <c r="W51" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X51" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y51" s="88"/>
       <c r="Z51" s="88"/>
@@ -6646,15 +6650,15 @@
     </row>
     <row r="52" spans="1:29" ht="13.5" customHeight="1">
       <c r="A52" s="85"/>
-      <c r="B52" s="130"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="92">
         <v>12</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E52" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F52" s="89">
         <v>1.5</v>
@@ -6693,7 +6697,7 @@
         <v>1.5</v>
       </c>
       <c r="R52" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S52" s="88">
         <v>1.5</v>
@@ -6721,72 +6725,72 @@
     </row>
     <row r="53" spans="1:29" ht="13.5" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="130"/>
+      <c r="B53" s="125"/>
       <c r="C53" s="92">
         <v>13</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E53" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G53" s="89">
         <v>1.1000000000000001</v>
       </c>
       <c r="H53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K53" s="89">
         <v>0.3</v>
       </c>
       <c r="L53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N53" s="89">
         <v>0.8</v>
       </c>
       <c r="O53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P53" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="89">
         <v>0.6</v>
       </c>
       <c r="R53" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S53" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T53" s="88">
         <v>0.4</v>
       </c>
       <c r="U53" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V53" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W53" s="88">
         <v>1</v>
       </c>
       <c r="X53" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y53" s="88"/>
       <c r="Z53" s="88"/>
@@ -6796,15 +6800,15 @@
     </row>
     <row r="54" spans="1:29" ht="13.5" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="130"/>
+      <c r="B54" s="125"/>
       <c r="C54" s="92">
         <v>14</v>
       </c>
       <c r="D54" s="95" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E54" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F54" s="89">
         <v>0.3</v>
@@ -6846,22 +6850,22 @@
         <v>4.5</v>
       </c>
       <c r="S54" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T54" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U54" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V54" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W54" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X54" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y54" s="88"/>
       <c r="Z54" s="88"/>
@@ -6871,15 +6875,15 @@
     </row>
     <row r="55" spans="1:29" ht="13.5" customHeight="1">
       <c r="A55" s="85"/>
-      <c r="B55" s="131"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="92">
         <v>15</v>
       </c>
       <c r="D55" s="91" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E55" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F55" s="89">
         <v>0.9</v>
@@ -6977,17 +6981,17 @@
     </row>
     <row r="57" spans="1:29" ht="13.5" customHeight="1">
       <c r="A57" s="85"/>
-      <c r="B57" s="129" t="s">
-        <v>348</v>
+      <c r="B57" s="124" t="s">
+        <v>337</v>
       </c>
       <c r="C57" s="92">
         <v>1</v>
       </c>
       <c r="D57" s="95" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E57" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F57" s="89">
         <v>0</v>
@@ -7032,19 +7036,19 @@
         <v>0</v>
       </c>
       <c r="T57" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U57" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V57" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W57" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X57" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y57" s="88"/>
       <c r="Z57" s="88"/>
@@ -7054,15 +7058,15 @@
     </row>
     <row r="58" spans="1:29" ht="13.5" customHeight="1">
       <c r="A58" s="85"/>
-      <c r="B58" s="130"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="92">
         <v>2</v>
       </c>
       <c r="D58" s="96" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E58" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F58" s="89">
         <v>-0.4</v>
@@ -7129,15 +7133,15 @@
     </row>
     <row r="59" spans="1:29" ht="13.5" customHeight="1">
       <c r="A59" s="85"/>
-      <c r="B59" s="130"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="92">
         <v>3</v>
       </c>
       <c r="D59" s="96" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E59" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F59" s="89">
         <v>9.8000000000000007</v>
@@ -7179,7 +7183,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="S59" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T59" s="88">
         <v>8.6</v>
@@ -7191,7 +7195,7 @@
         <v>8.5</v>
       </c>
       <c r="W59" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X59" s="88">
         <v>8.4</v>
@@ -7204,15 +7208,15 @@
     </row>
     <row r="60" spans="1:29" ht="13.5" customHeight="1">
       <c r="A60" s="85"/>
-      <c r="B60" s="130"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="92">
         <v>4</v>
       </c>
       <c r="D60" s="95" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E60" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F60" s="89">
         <v>1.1000000000000001</v>
@@ -7257,7 +7261,7 @@
         <v>1.2</v>
       </c>
       <c r="T60" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U60" s="88">
         <v>1.4</v>
@@ -7268,7 +7272,7 @@
       <c r="W60" s="88">
         <v>2</v>
       </c>
-      <c r="X60" s="149"/>
+      <c r="X60" s="122"/>
       <c r="Y60" s="88"/>
       <c r="Z60" s="88"/>
       <c r="AA60" s="88"/>
@@ -7277,15 +7281,15 @@
     </row>
     <row r="61" spans="1:29" ht="13.5" customHeight="1">
       <c r="A61" s="85"/>
-      <c r="B61" s="130"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="92">
         <v>5</v>
       </c>
       <c r="D61" s="96" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E61" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F61" s="89">
         <v>0.9</v>
@@ -7330,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="T61" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U61" s="88">
         <v>1</v>
@@ -7341,7 +7345,7 @@
       <c r="W61" s="88">
         <v>1</v>
       </c>
-      <c r="X61" s="148"/>
+      <c r="X61" s="121"/>
       <c r="Y61" s="88"/>
       <c r="Z61" s="88"/>
       <c r="AA61" s="88"/>
@@ -7350,15 +7354,15 @@
     </row>
     <row r="62" spans="1:29" ht="13.5" customHeight="1">
       <c r="A62" s="85"/>
-      <c r="B62" s="130"/>
+      <c r="B62" s="125"/>
       <c r="C62" s="92">
         <v>6</v>
       </c>
       <c r="D62" s="96" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E62" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F62" s="89">
         <v>23.2</v>
@@ -7425,15 +7429,15 @@
     </row>
     <row r="63" spans="1:29" ht="13.5" customHeight="1">
       <c r="A63" s="85"/>
-      <c r="B63" s="130"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="92">
         <v>7</v>
       </c>
       <c r="D63" s="113" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E63" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F63" s="89"/>
       <c r="G63" s="89"/>
@@ -7454,7 +7458,7 @@
         <v>0.2</v>
       </c>
       <c r="T63" s="88" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="U63" s="88">
         <v>0.1</v>
@@ -7476,12 +7480,12 @@
     </row>
     <row r="64" spans="1:29" ht="13.5" customHeight="1">
       <c r="A64" s="85"/>
-      <c r="B64" s="130"/>
+      <c r="B64" s="125"/>
       <c r="C64" s="92">
         <v>8</v>
       </c>
       <c r="D64" s="98" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E64" s="90"/>
       <c r="F64" s="89"/>
@@ -7497,7 +7501,7 @@
       <c r="P64" s="89"/>
       <c r="Q64" s="89"/>
       <c r="R64" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S64" s="88">
         <v>1.1000000000000001</v>
@@ -7525,12 +7529,12 @@
     </row>
     <row r="65" spans="1:29" ht="13.5" customHeight="1">
       <c r="A65" s="85"/>
-      <c r="B65" s="130"/>
+      <c r="B65" s="125"/>
       <c r="C65" s="92">
         <v>9</v>
       </c>
       <c r="D65" s="98" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E65" s="90"/>
       <c r="F65" s="89"/>
@@ -7546,7 +7550,7 @@
       <c r="P65" s="89"/>
       <c r="Q65" s="89"/>
       <c r="R65" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S65" s="88">
         <v>1</v>
@@ -7605,17 +7609,17 @@
     </row>
     <row r="67" spans="1:29" ht="13.5" customHeight="1">
       <c r="A67" s="85"/>
-      <c r="B67" s="129" t="s">
-        <v>341</v>
+      <c r="B67" s="124" t="s">
+        <v>330</v>
       </c>
       <c r="C67" s="92">
         <v>1</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E67" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F67" s="89">
         <v>2.72</v>
@@ -7682,15 +7686,15 @@
     </row>
     <row r="68" spans="1:29" ht="13.5" customHeight="1">
       <c r="A68" s="85"/>
-      <c r="B68" s="130"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="92">
         <v>2</v>
       </c>
       <c r="D68" s="95" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E68" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F68" s="89">
         <v>645</v>
@@ -7757,15 +7761,15 @@
     </row>
     <row r="69" spans="1:29" ht="13.5" customHeight="1">
       <c r="A69" s="85"/>
-      <c r="B69" s="130"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="92">
         <v>3</v>
       </c>
       <c r="D69" s="95" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E69" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F69" s="89">
         <v>-0.75</v>
@@ -7804,25 +7808,25 @@
         <v>-0.75</v>
       </c>
       <c r="R69" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S69" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T69" s="88">
         <v>0.75</v>
       </c>
       <c r="U69" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V69" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W69" s="88">
         <v>-0.75</v>
       </c>
       <c r="X69" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y69" s="88"/>
       <c r="Z69" s="88"/>
@@ -7832,15 +7836,15 @@
     </row>
     <row r="70" spans="1:29" ht="13.5" customHeight="1">
       <c r="A70" s="85"/>
-      <c r="B70" s="130"/>
+      <c r="B70" s="125"/>
       <c r="C70" s="92">
         <v>4</v>
       </c>
       <c r="D70" s="95" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E70" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F70" s="89">
         <v>-0.1</v>
@@ -7876,7 +7880,7 @@
         <v>0.1</v>
       </c>
       <c r="Q70" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R70" s="88">
         <v>0</v>
@@ -7907,15 +7911,15 @@
     </row>
     <row r="71" spans="1:29" ht="13.5" customHeight="1">
       <c r="A71" s="85"/>
-      <c r="B71" s="130"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="92">
         <v>5</v>
       </c>
       <c r="D71" s="96" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E71" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F71" s="89">
         <v>0.2</v>
@@ -7982,72 +7986,72 @@
     </row>
     <row r="72" spans="1:29" ht="13.5" customHeight="1">
       <c r="A72" s="85"/>
-      <c r="B72" s="130"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="92">
         <v>6</v>
       </c>
       <c r="D72" s="98" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E72" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G72" s="89">
         <v>0.1</v>
       </c>
       <c r="H72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K72" s="89">
         <v>0.3</v>
       </c>
       <c r="L72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N72" s="89">
         <v>0.3</v>
       </c>
       <c r="O72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P72" s="89">
         <v>0.6</v>
       </c>
       <c r="Q72" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R72" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S72" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T72" s="88">
         <v>0.6</v>
       </c>
       <c r="U72" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V72" s="88">
         <v>0.6</v>
       </c>
       <c r="W72" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X72" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y72" s="88"/>
       <c r="Z72" s="88"/>
@@ -8057,15 +8061,15 @@
     </row>
     <row r="73" spans="1:29" ht="13.5" customHeight="1">
       <c r="A73" s="85"/>
-      <c r="B73" s="130"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="92">
         <v>7</v>
       </c>
       <c r="D73" s="96" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E73" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F73" s="89">
         <v>0.9</v>
@@ -8132,15 +8136,15 @@
     </row>
     <row r="74" spans="1:29" ht="13.5" customHeight="1">
       <c r="A74" s="85"/>
-      <c r="B74" s="131"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="92">
         <v>8</v>
       </c>
       <c r="D74" s="96" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E74" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F74" s="89">
         <v>56</v>
@@ -8188,13 +8192,13 @@
         <v>65.5</v>
       </c>
       <c r="U74" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V74" s="88">
         <v>62.4</v>
       </c>
       <c r="W74" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X74" s="88">
         <v>61.6</v>
@@ -8238,62 +8242,62 @@
     </row>
     <row r="76" spans="1:29" ht="13.5" customHeight="1">
       <c r="A76" s="85"/>
-      <c r="B76" s="129" t="s">
-        <v>334</v>
+      <c r="B76" s="124" t="s">
+        <v>323</v>
       </c>
       <c r="C76" s="92">
         <v>1</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E76" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G76" s="89">
         <v>0.2</v>
       </c>
       <c r="H76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J76" s="89">
         <v>0.5</v>
       </c>
       <c r="K76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M76" s="89">
         <v>1</v>
       </c>
       <c r="N76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P76" s="89">
         <v>0.3</v>
       </c>
       <c r="Q76" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R76" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S76" s="88">
         <v>0.1</v>
       </c>
       <c r="T76" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U76" s="88">
         <v>0.1</v>
@@ -8302,10 +8306,10 @@
         <v>-0.2</v>
       </c>
       <c r="W76" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X76" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y76" s="88"/>
       <c r="Z76" s="88"/>
@@ -8315,72 +8319,72 @@
     </row>
     <row r="77" spans="1:29" ht="13.5" customHeight="1">
       <c r="A77" s="85"/>
-      <c r="B77" s="130"/>
+      <c r="B77" s="125"/>
       <c r="C77" s="92">
         <v>2</v>
       </c>
       <c r="D77" s="96" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E77" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H77" s="89">
         <v>0.3</v>
       </c>
       <c r="I77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K77" s="89">
         <v>0.3</v>
       </c>
       <c r="L77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N77" s="89">
         <v>0.6</v>
       </c>
       <c r="O77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P77" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q77" s="89">
         <v>0.6</v>
       </c>
       <c r="R77" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S77" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T77" s="88">
         <v>0.4</v>
       </c>
       <c r="U77" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V77" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W77" s="88">
         <v>-0.2</v>
       </c>
       <c r="X77" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y77" s="88"/>
       <c r="Z77" s="88"/>
@@ -8390,15 +8394,15 @@
     </row>
     <row r="78" spans="1:29" ht="13.5" customHeight="1">
       <c r="A78" s="85"/>
-      <c r="B78" s="130"/>
+      <c r="B78" s="125"/>
       <c r="C78" s="92">
         <v>3</v>
       </c>
       <c r="D78" s="96" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E78" s="90" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F78" s="89">
         <v>1.8</v>
@@ -8465,15 +8469,15 @@
     </row>
     <row r="79" spans="1:29" ht="13.5" customHeight="1">
       <c r="A79" s="85"/>
-      <c r="B79" s="130"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="92">
         <v>4</v>
       </c>
       <c r="D79" s="106" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E79" s="90" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F79" s="89">
         <v>0.36</v>
@@ -8540,15 +8544,15 @@
     </row>
     <row r="80" spans="1:29" ht="13.5" customHeight="1">
       <c r="A80" s="85"/>
-      <c r="B80" s="130"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="92">
         <v>5</v>
       </c>
       <c r="D80" s="95" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E80" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F80" s="89">
         <v>0.6</v>
@@ -8615,15 +8619,15 @@
     </row>
     <row r="81" spans="1:29" ht="13.5" customHeight="1">
       <c r="A81" s="85"/>
-      <c r="B81" s="130"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="92">
         <v>6</v>
       </c>
       <c r="D81" s="95" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E81" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F81" s="89">
         <v>0.2</v>
@@ -8690,15 +8694,15 @@
     </row>
     <row r="82" spans="1:29" ht="13.5" customHeight="1">
       <c r="A82" s="85"/>
-      <c r="B82" s="130"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="92">
         <v>7</v>
       </c>
       <c r="D82" s="96" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E82" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F82" s="89">
         <v>-0.3</v>
@@ -8740,7 +8744,7 @@
         <v>0.7</v>
       </c>
       <c r="S82" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T82" s="88">
         <v>0.8</v>
@@ -8765,15 +8769,15 @@
     </row>
     <row r="83" spans="1:29" ht="13.5" customHeight="1">
       <c r="A83" s="85"/>
-      <c r="B83" s="130"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="92">
         <v>8</v>
       </c>
       <c r="D83" s="96" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E83" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F83" s="89">
         <v>0.5</v>
@@ -8840,15 +8844,15 @@
     </row>
     <row r="84" spans="1:29" ht="13.5" customHeight="1">
       <c r="A84" s="85"/>
-      <c r="B84" s="130"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="92">
         <v>9</v>
       </c>
       <c r="D84" s="96" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E84" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F84" s="89">
         <v>-0.3</v>
@@ -8890,7 +8894,7 @@
         <v>-0.1</v>
       </c>
       <c r="S84" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T84" s="88">
         <v>2</v>
@@ -8915,15 +8919,15 @@
     </row>
     <row r="85" spans="1:29" ht="13.5" customHeight="1">
       <c r="A85" s="85"/>
-      <c r="B85" s="130"/>
+      <c r="B85" s="125"/>
       <c r="C85" s="92">
         <v>10</v>
       </c>
       <c r="D85" s="96" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E85" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F85" s="89">
         <v>-5.0999999999999996</v>
@@ -8990,72 +8994,72 @@
     </row>
     <row r="86" spans="1:29" ht="13.5" customHeight="1">
       <c r="A86" s="85"/>
-      <c r="B86" s="131"/>
+      <c r="B86" s="126"/>
       <c r="C86" s="92">
         <v>11</v>
       </c>
       <c r="D86" s="96" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E86" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H86" s="89">
         <v>1.1000000000000001</v>
       </c>
       <c r="I86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K86" s="89">
         <v>-2.9</v>
       </c>
       <c r="L86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N86" s="89">
         <v>9.4</v>
       </c>
       <c r="O86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P86" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q86" s="89">
         <v>9.6999999999999993</v>
       </c>
       <c r="R86" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S86" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T86" s="88">
         <v>2.9</v>
       </c>
       <c r="U86" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V86" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W86" s="94">
         <v>-3.2</v>
       </c>
       <c r="X86" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y86" s="88"/>
       <c r="Z86" s="88"/>
@@ -9096,23 +9100,23 @@
     </row>
     <row r="88" spans="1:29" ht="13.5" customHeight="1">
       <c r="A88" s="85"/>
-      <c r="B88" s="129" t="s">
-        <v>325</v>
+      <c r="B88" s="124" t="s">
+        <v>314</v>
       </c>
       <c r="C88" s="92">
         <v>1</v>
       </c>
       <c r="D88" s="107" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E88" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F88" s="89">
         <v>0.5</v>
       </c>
       <c r="G88" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H88" s="89">
         <v>0.5</v>
@@ -9124,13 +9128,13 @@
         <v>0.5</v>
       </c>
       <c r="K88" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L88" s="89">
         <v>0.75</v>
       </c>
       <c r="M88" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N88" s="89">
         <v>1</v>
@@ -9139,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="P88" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q88" s="89">
         <v>1</v>
@@ -9148,7 +9152,7 @@
         <v>1.25</v>
       </c>
       <c r="S88" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T88" s="88">
         <v>1.25</v>
@@ -9160,7 +9164,7 @@
         <v>1.25</v>
       </c>
       <c r="W88" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X88" s="88">
         <v>1.5</v>
@@ -9173,15 +9177,15 @@
     </row>
     <row r="89" spans="1:29" ht="13.5" customHeight="1">
       <c r="A89" s="85"/>
-      <c r="B89" s="130"/>
+      <c r="B89" s="125"/>
       <c r="C89" s="92">
         <v>2</v>
       </c>
       <c r="D89" s="107" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E89" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F89" s="89">
         <v>6.9</v>
@@ -9248,15 +9252,15 @@
     </row>
     <row r="90" spans="1:29" ht="13.5" customHeight="1">
       <c r="A90" s="85"/>
-      <c r="B90" s="130"/>
+      <c r="B90" s="125"/>
       <c r="C90" s="92">
         <v>3</v>
       </c>
       <c r="D90" s="107" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E90" s="90" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F90" s="89">
         <v>53.7</v>
@@ -9323,15 +9327,15 @@
     </row>
     <row r="91" spans="1:29" ht="13.5" customHeight="1">
       <c r="A91" s="85"/>
-      <c r="B91" s="130"/>
+      <c r="B91" s="125"/>
       <c r="C91" s="92">
         <v>4</v>
       </c>
       <c r="D91" s="107" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E91" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F91" s="89">
         <v>-0.3</v>
@@ -9379,7 +9383,7 @@
         <v>-0.1</v>
       </c>
       <c r="U91" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V91" s="88">
         <v>0.4</v>
@@ -9387,7 +9391,9 @@
       <c r="W91" s="88">
         <v>0.1</v>
       </c>
-      <c r="X91" s="148"/>
+      <c r="X91" s="88">
+        <v>0.5</v>
+      </c>
       <c r="Y91" s="88"/>
       <c r="Z91" s="88"/>
       <c r="AA91" s="88"/>
@@ -9396,15 +9402,15 @@
     </row>
     <row r="92" spans="1:29" ht="13.5" customHeight="1">
       <c r="A92" s="85"/>
-      <c r="B92" s="130"/>
+      <c r="B92" s="125"/>
       <c r="C92" s="92">
         <v>5</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E92" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F92" s="89">
         <v>0.2</v>
@@ -9471,15 +9477,15 @@
     </row>
     <row r="93" spans="1:29" ht="13.5" customHeight="1">
       <c r="A93" s="85"/>
-      <c r="B93" s="130"/>
+      <c r="B93" s="125"/>
       <c r="C93" s="92">
         <v>6</v>
       </c>
       <c r="D93" s="107" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E93" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F93" s="89">
         <v>0.1</v>
@@ -9546,15 +9552,15 @@
     </row>
     <row r="94" spans="1:29" ht="13.5" customHeight="1">
       <c r="A94" s="85"/>
-      <c r="B94" s="130"/>
+      <c r="B94" s="125"/>
       <c r="C94" s="92">
         <v>7</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E94" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F94" s="89">
         <v>-0.2</v>
@@ -9621,15 +9627,15 @@
     </row>
     <row r="95" spans="1:29" ht="13.5" customHeight="1">
       <c r="A95" s="85"/>
-      <c r="B95" s="130"/>
+      <c r="B95" s="125"/>
       <c r="C95" s="92">
         <v>8</v>
       </c>
       <c r="D95" s="107" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E95" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F95" s="89">
         <v>-0.3</v>
@@ -9696,15 +9702,15 @@
     </row>
     <row r="96" spans="1:29" ht="13.5" customHeight="1">
       <c r="A96" s="85"/>
-      <c r="B96" s="130"/>
+      <c r="B96" s="125"/>
       <c r="C96" s="92">
         <v>9</v>
       </c>
       <c r="D96" s="95" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E96" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F96" s="89">
         <v>0.5</v>
@@ -9771,15 +9777,15 @@
     </row>
     <row r="97" spans="1:29" ht="13.5" customHeight="1">
       <c r="A97" s="85"/>
-      <c r="B97" s="130"/>
+      <c r="B97" s="125"/>
       <c r="C97" s="92">
         <v>10</v>
       </c>
       <c r="D97" s="107" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E97" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F97" s="89">
         <v>0.2</v>
@@ -9846,15 +9852,15 @@
     </row>
     <row r="98" spans="1:29" ht="13.5" customHeight="1">
       <c r="A98" s="85"/>
-      <c r="B98" s="130"/>
+      <c r="B98" s="125"/>
       <c r="C98" s="92">
         <v>11</v>
       </c>
       <c r="D98" s="107" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E98" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F98" s="89">
         <v>1.5</v>
@@ -9921,15 +9927,15 @@
     </row>
     <row r="99" spans="1:29" ht="13.5" customHeight="1">
       <c r="A99" s="85"/>
-      <c r="B99" s="130"/>
+      <c r="B99" s="125"/>
       <c r="C99" s="92">
         <v>12</v>
       </c>
       <c r="D99" s="106" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E99" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F99" s="89">
         <v>0.1</v>
@@ -9996,54 +10002,54 @@
     </row>
     <row r="100" spans="1:29" ht="13.5" customHeight="1">
       <c r="A100" s="85"/>
-      <c r="B100" s="130"/>
+      <c r="B100" s="125"/>
       <c r="C100" s="92">
         <v>13</v>
       </c>
       <c r="D100" s="105" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E100" s="90" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F100" s="89">
         <v>-10.7</v>
       </c>
       <c r="G100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J100" s="89">
         <v>-14.1</v>
       </c>
       <c r="K100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M100" s="89">
         <v>-16.3</v>
       </c>
       <c r="N100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P100" s="89">
         <v>-19.3</v>
       </c>
       <c r="Q100" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R100" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S100" s="88">
         <v>-16.3</v>
@@ -10052,16 +10058,16 @@
         <v>-16.3</v>
       </c>
       <c r="U100" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V100" s="88">
         <v>-19.5</v>
       </c>
       <c r="W100" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X100" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y100" s="88"/>
       <c r="Z100" s="88"/>
@@ -10071,15 +10077,15 @@
     </row>
     <row r="101" spans="1:29" ht="13.5" customHeight="1">
       <c r="A101" s="85"/>
-      <c r="B101" s="130"/>
+      <c r="B101" s="125"/>
       <c r="C101" s="92">
         <v>14</v>
       </c>
       <c r="D101" s="104" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E101" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F101" s="89">
         <v>6.5</v>
@@ -10115,7 +10121,7 @@
         <v>3.8</v>
       </c>
       <c r="Q101" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R101" s="88">
         <v>-0.9</v>
@@ -10127,7 +10133,7 @@
         <v>-0.3</v>
       </c>
       <c r="U101" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V101" s="88">
         <v>0.7</v>
@@ -10135,7 +10141,9 @@
       <c r="W101" s="88">
         <v>3.8</v>
       </c>
-      <c r="X101" s="148"/>
+      <c r="X101" s="88">
+        <v>0.5</v>
+      </c>
       <c r="Y101" s="88"/>
       <c r="Z101" s="88"/>
       <c r="AA101" s="88"/>
@@ -10144,15 +10152,15 @@
     </row>
     <row r="102" spans="1:29" ht="13.5" customHeight="1">
       <c r="A102" s="85"/>
-      <c r="B102" s="131"/>
+      <c r="B102" s="126"/>
       <c r="C102" s="92">
         <v>15</v>
       </c>
       <c r="D102" s="104" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E102" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F102" s="89">
         <v>0.2</v>
@@ -10200,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V102" s="88">
         <v>0</v>
@@ -10250,17 +10258,17 @@
     </row>
     <row r="104" spans="1:29" ht="13.5" customHeight="1">
       <c r="A104" s="85"/>
-      <c r="B104" s="129" t="s">
-        <v>318</v>
+      <c r="B104" s="124" t="s">
+        <v>307</v>
       </c>
       <c r="C104" s="92">
         <v>1</v>
       </c>
       <c r="D104" s="97" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E104" s="93" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F104" s="89">
         <v>54.7</v>
@@ -10319,7 +10327,9 @@
       <c r="X104" s="88">
         <v>60.2</v>
       </c>
-      <c r="Y104" s="88"/>
+      <c r="Y104" s="88">
+        <v>58.1</v>
+      </c>
       <c r="Z104" s="88"/>
       <c r="AA104" s="88"/>
       <c r="AB104" s="88"/>
@@ -10327,15 +10337,15 @@
     </row>
     <row r="105" spans="1:29" ht="13.5" customHeight="1">
       <c r="A105" s="85"/>
-      <c r="B105" s="130"/>
+      <c r="B105" s="125"/>
       <c r="C105" s="92">
         <v>2</v>
       </c>
       <c r="D105" s="97" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E105" s="93" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F105" s="89">
         <v>57.2</v>
@@ -10402,15 +10412,15 @@
     </row>
     <row r="106" spans="1:29" ht="13.5" customHeight="1">
       <c r="A106" s="85"/>
-      <c r="B106" s="130"/>
+      <c r="B106" s="125"/>
       <c r="C106" s="92">
         <v>3</v>
       </c>
       <c r="D106" s="97" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E106" s="93" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F106" s="89">
         <v>55.1</v>
@@ -10449,7 +10459,7 @@
         <v>55</v>
       </c>
       <c r="R106" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S106" s="88">
         <v>55.9</v>
@@ -10477,15 +10487,15 @@
     </row>
     <row r="107" spans="1:29" ht="13.5" customHeight="1">
       <c r="A107" s="85"/>
-      <c r="B107" s="130"/>
+      <c r="B107" s="125"/>
       <c r="C107" s="92">
         <v>4</v>
       </c>
       <c r="D107" s="97" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E107" s="93" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F107" s="89">
         <v>153</v>
@@ -10544,7 +10554,9 @@
       <c r="X107" s="88">
         <v>177</v>
       </c>
-      <c r="Y107" s="88"/>
+      <c r="Y107" s="88">
+        <v>219</v>
+      </c>
       <c r="Z107" s="88"/>
       <c r="AA107" s="88"/>
       <c r="AB107" s="88"/>
@@ -10552,15 +10564,15 @@
     </row>
     <row r="108" spans="1:29" ht="13.5" customHeight="1">
       <c r="A108" s="85"/>
-      <c r="B108" s="130"/>
+      <c r="B108" s="125"/>
       <c r="C108" s="92">
         <v>5</v>
       </c>
       <c r="D108" s="97" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E108" s="93" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F108" s="89">
         <v>156</v>
@@ -10627,15 +10639,15 @@
     </row>
     <row r="109" spans="1:29" ht="13.5" customHeight="1">
       <c r="A109" s="85"/>
-      <c r="B109" s="130"/>
+      <c r="B109" s="125"/>
       <c r="C109" s="92">
         <v>6</v>
       </c>
       <c r="D109" s="97" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E109" s="93" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F109" s="89">
         <v>-45.2</v>
@@ -10702,15 +10714,15 @@
     </row>
     <row r="110" spans="1:29" ht="13.5" customHeight="1">
       <c r="A110" s="85"/>
-      <c r="B110" s="130"/>
+      <c r="B110" s="125"/>
       <c r="C110" s="92">
         <v>7</v>
       </c>
       <c r="D110" s="97" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E110" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F110" s="89">
         <v>4.7</v>
@@ -10777,15 +10789,15 @@
     </row>
     <row r="111" spans="1:29" ht="13.5" customHeight="1">
       <c r="A111" s="85"/>
-      <c r="B111" s="130"/>
+      <c r="B111" s="125"/>
       <c r="C111" s="92">
         <v>8</v>
       </c>
       <c r="D111" s="97" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E111" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F111" s="89">
         <v>0.2</v>
@@ -10852,15 +10864,15 @@
     </row>
     <row r="112" spans="1:29" ht="13.5" customHeight="1">
       <c r="A112" s="85"/>
-      <c r="B112" s="130"/>
+      <c r="B112" s="125"/>
       <c r="C112" s="92">
         <v>9</v>
       </c>
       <c r="D112" s="97" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E112" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F112" s="89">
         <v>0.6</v>
@@ -10927,15 +10939,15 @@
     </row>
     <row r="113" spans="1:29" ht="13.5" customHeight="1">
       <c r="A113" s="85"/>
-      <c r="B113" s="130"/>
+      <c r="B113" s="125"/>
       <c r="C113" s="92">
         <v>10</v>
       </c>
       <c r="D113" s="97" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E113" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F113" s="89">
         <v>0.3</v>
@@ -11002,15 +11014,15 @@
     </row>
     <row r="114" spans="1:29" ht="13.5" customHeight="1">
       <c r="A114" s="85"/>
-      <c r="B114" s="130"/>
+      <c r="B114" s="125"/>
       <c r="C114" s="92">
         <v>11</v>
       </c>
       <c r="D114" s="97" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E114" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F114" s="89">
         <v>0.2</v>
@@ -11077,15 +11089,15 @@
     </row>
     <row r="115" spans="1:29" ht="13.5" customHeight="1">
       <c r="A115" s="85"/>
-      <c r="B115" s="130"/>
+      <c r="B115" s="125"/>
       <c r="C115" s="92">
         <v>12</v>
       </c>
       <c r="D115" s="97" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F115" s="89">
         <v>0.3</v>
@@ -11152,15 +11164,15 @@
     </row>
     <row r="116" spans="1:29" ht="13.5" customHeight="1">
       <c r="A116" s="85"/>
-      <c r="B116" s="130"/>
+      <c r="B116" s="125"/>
       <c r="C116" s="92">
         <v>13</v>
       </c>
       <c r="D116" s="96" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E116" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F116" s="89">
         <v>0.2</v>
@@ -11227,15 +11239,15 @@
     </row>
     <row r="117" spans="1:29" ht="13.5" customHeight="1">
       <c r="A117" s="85"/>
-      <c r="B117" s="130"/>
+      <c r="B117" s="125"/>
       <c r="C117" s="92">
         <v>14</v>
       </c>
       <c r="D117" s="97" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E117" s="93" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F117" s="89">
         <v>536</v>
@@ -11302,15 +11314,15 @@
     </row>
     <row r="118" spans="1:29" ht="13.5" customHeight="1">
       <c r="A118" s="85"/>
-      <c r="B118" s="130"/>
+      <c r="B118" s="125"/>
       <c r="C118" s="92">
         <v>15</v>
       </c>
       <c r="D118" s="95" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F118" s="89">
         <v>0.75</v>
@@ -11352,13 +11364,13 @@
         <v>1.25</v>
       </c>
       <c r="S118" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T118" s="88">
         <v>1.75</v>
       </c>
       <c r="U118" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V118" s="88">
         <v>1.75</v>
@@ -11367,9 +11379,11 @@
         <v>2</v>
       </c>
       <c r="X118" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y118" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="Y118" s="88">
+        <v>2</v>
+      </c>
       <c r="Z118" s="88"/>
       <c r="AA118" s="88"/>
       <c r="AB118" s="88"/>
@@ -11377,15 +11391,15 @@
     </row>
     <row r="119" spans="1:29" ht="13.5" customHeight="1">
       <c r="A119" s="85"/>
-      <c r="B119" s="130"/>
+      <c r="B119" s="125"/>
       <c r="C119" s="92">
         <v>16</v>
       </c>
       <c r="D119" s="98" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E119" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F119" s="89">
         <v>1.6</v>
@@ -11452,15 +11466,15 @@
     </row>
     <row r="120" spans="1:29" ht="13.5" customHeight="1">
       <c r="A120" s="85"/>
-      <c r="B120" s="130"/>
+      <c r="B120" s="125"/>
       <c r="C120" s="92">
         <v>17</v>
       </c>
       <c r="D120" s="97" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E120" s="93" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F120" s="89">
         <v>1.21</v>
@@ -11525,15 +11539,15 @@
     </row>
     <row r="121" spans="1:29" ht="13.5" customHeight="1">
       <c r="A121" s="85"/>
-      <c r="B121" s="130"/>
+      <c r="B121" s="125"/>
       <c r="C121" s="92">
         <v>18</v>
       </c>
       <c r="D121" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E121" s="93" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F121" s="89">
         <v>1.23</v>
@@ -11600,15 +11614,15 @@
     </row>
     <row r="122" spans="1:29" ht="13.5" customHeight="1">
       <c r="A122" s="85"/>
-      <c r="B122" s="130"/>
+      <c r="B122" s="125"/>
       <c r="C122" s="92">
         <v>19</v>
       </c>
       <c r="D122" s="98" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E122" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F122" s="89">
         <v>-0.4</v>
@@ -11675,15 +11689,15 @@
     </row>
     <row r="123" spans="1:29" ht="13.5" customHeight="1">
       <c r="A123" s="85"/>
-      <c r="B123" s="130"/>
+      <c r="B123" s="125"/>
       <c r="C123" s="92">
         <v>20</v>
       </c>
       <c r="D123" s="91" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E123" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F123" s="89">
         <v>0.5</v>
@@ -11750,15 +11764,15 @@
     </row>
     <row r="124" spans="1:29" ht="13.5" customHeight="1">
       <c r="A124" s="85"/>
-      <c r="B124" s="130"/>
+      <c r="B124" s="125"/>
       <c r="C124" s="92">
         <v>21</v>
       </c>
       <c r="D124" s="98" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E124" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F124" s="89">
         <v>-2.4</v>
@@ -11817,7 +11831,9 @@
       <c r="X124" s="88">
         <v>0.4</v>
       </c>
-      <c r="Y124" s="88"/>
+      <c r="Y124" s="88">
+        <v>0.7</v>
+      </c>
       <c r="Z124" s="88"/>
       <c r="AA124" s="88"/>
       <c r="AB124" s="88"/>
@@ -11825,15 +11841,15 @@
     </row>
     <row r="125" spans="1:29" ht="13.5" customHeight="1">
       <c r="A125" s="85"/>
-      <c r="B125" s="130"/>
+      <c r="B125" s="125"/>
       <c r="C125" s="92">
         <v>22</v>
       </c>
       <c r="D125" s="98" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E125" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F125" s="89">
         <v>0.4</v>
@@ -11900,15 +11916,15 @@
     </row>
     <row r="126" spans="1:29" ht="13.5" customHeight="1">
       <c r="A126" s="85"/>
-      <c r="B126" s="130"/>
+      <c r="B126" s="125"/>
       <c r="C126" s="92">
         <v>23</v>
       </c>
       <c r="D126" s="96" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E126" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F126" s="89">
         <v>0.7</v>
@@ -11975,15 +11991,15 @@
     </row>
     <row r="127" spans="1:29" ht="13.5" customHeight="1">
       <c r="A127" s="85"/>
-      <c r="B127" s="130"/>
+      <c r="B127" s="125"/>
       <c r="C127" s="92">
         <v>24</v>
       </c>
       <c r="D127" s="96" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E127" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F127" s="89">
         <v>6.5</v>
@@ -12050,15 +12066,15 @@
     </row>
     <row r="128" spans="1:29" ht="13.5" customHeight="1">
       <c r="A128" s="85"/>
-      <c r="B128" s="130"/>
+      <c r="B128" s="125"/>
       <c r="C128" s="92">
         <v>25</v>
       </c>
       <c r="D128" s="97" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E128" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F128" s="89">
         <v>23.6</v>
@@ -12125,15 +12141,15 @@
     </row>
     <row r="129" spans="1:29" ht="13.5" customHeight="1">
       <c r="A129" s="85"/>
-      <c r="B129" s="130"/>
+      <c r="B129" s="125"/>
       <c r="C129" s="92">
         <v>26</v>
       </c>
       <c r="D129" s="91" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E129" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F129" s="89">
         <v>75.5</v>
@@ -12200,15 +12216,15 @@
     </row>
     <row r="130" spans="1:29" ht="13.5" customHeight="1">
       <c r="A130" s="85"/>
-      <c r="B130" s="130"/>
+      <c r="B130" s="125"/>
       <c r="C130" s="92">
         <v>27</v>
       </c>
       <c r="D130" s="91" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E130" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F130" s="89">
         <v>0.8</v>
@@ -12275,15 +12291,15 @@
     </row>
     <row r="131" spans="1:29" ht="13.5" customHeight="1">
       <c r="A131" s="85"/>
-      <c r="B131" s="130"/>
+      <c r="B131" s="125"/>
       <c r="C131" s="92">
         <v>28</v>
       </c>
       <c r="D131" s="96" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E131" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F131" s="89">
         <v>0.4</v>
@@ -12350,15 +12366,15 @@
     </row>
     <row r="132" spans="1:29" ht="13.5" customHeight="1">
       <c r="A132" s="85"/>
-      <c r="B132" s="130"/>
+      <c r="B132" s="125"/>
       <c r="C132" s="92">
         <v>29</v>
       </c>
       <c r="D132" s="95" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E132" s="93" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F132" s="89">
         <v>98.1</v>
@@ -12425,69 +12441,69 @@
     </row>
     <row r="133" spans="1:29" ht="13.5" customHeight="1">
       <c r="A133" s="85"/>
-      <c r="B133" s="130"/>
+      <c r="B133" s="125"/>
       <c r="C133" s="92">
         <v>30</v>
       </c>
       <c r="D133" s="91" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E133" s="93" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F133" s="89">
         <v>1.9</v>
       </c>
       <c r="G133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I133" s="89">
         <v>0.7</v>
       </c>
       <c r="J133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L133" s="89">
         <v>2.6</v>
       </c>
       <c r="M133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O133" s="89">
         <v>3</v>
       </c>
       <c r="P133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q133" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R133" s="88">
         <v>2.6</v>
       </c>
       <c r="S133" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="T133" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U133" s="88">
         <v>2.2999999999999998</v>
       </c>
       <c r="V133" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W133" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X133" s="88">
         <v>4.0999999999999996</v>
@@ -12500,72 +12516,72 @@
     </row>
     <row r="134" spans="1:29" ht="13.5" customHeight="1">
       <c r="A134" s="85"/>
-      <c r="B134" s="131"/>
+      <c r="B134" s="126"/>
       <c r="C134" s="92">
         <v>31</v>
       </c>
       <c r="D134" s="91" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E134" s="90" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G134" s="89">
         <v>1.9</v>
       </c>
       <c r="H134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J134" s="89">
         <v>1.2</v>
       </c>
       <c r="K134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M134" s="89">
         <v>3</v>
       </c>
       <c r="N134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P134" s="89">
         <v>3.3</v>
       </c>
       <c r="Q134" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R134" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S134" s="88">
         <v>2.5</v>
       </c>
       <c r="T134" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U134" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V134" s="88">
         <v>2.2000000000000002</v>
       </c>
       <c r="W134" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X134" s="88" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y134" s="88"/>
       <c r="Z134" s="88"/>
@@ -38367,6 +38383,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R2:AC2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:Q2"/>
     <mergeCell ref="B88:B102"/>
     <mergeCell ref="B104:B134"/>
     <mergeCell ref="B4:B25"/>
@@ -38375,12 +38397,6 @@
     <mergeCell ref="B57:B65"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="B76:B86"/>
-    <mergeCell ref="R2:AC2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38391,12 +38407,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38520,7 +38536,7 @@
         <v>43160</v>
       </c>
       <c r="C6" s="56">
-        <f>G5</f>
+        <f t="shared" ref="C6:C11" si="3">G5</f>
         <v>1322.0500000000002</v>
       </c>
       <c r="D6" s="56">
@@ -38553,7 +38569,7 @@
         <v>43191</v>
       </c>
       <c r="C7" s="56">
-        <f>G6</f>
+        <f t="shared" si="3"/>
         <v>1322.0500000000002</v>
       </c>
       <c r="D7" s="56">
@@ -38586,7 +38602,7 @@
         <v>43221</v>
       </c>
       <c r="C8" s="56">
-        <f>G7</f>
+        <f t="shared" si="3"/>
         <v>1441.2100000000003</v>
       </c>
       <c r="D8" s="56">
@@ -38619,7 +38635,7 @@
         <v>43252</v>
       </c>
       <c r="C9" s="56">
-        <f>G8</f>
+        <f t="shared" si="3"/>
         <v>2734.4100000000003</v>
       </c>
       <c r="D9" s="56">
@@ -38652,7 +38668,7 @@
         <v>43282</v>
       </c>
       <c r="C10" s="56">
-        <f>G9</f>
+        <f t="shared" si="3"/>
         <v>3890.13</v>
       </c>
       <c r="D10" s="56">
@@ -38662,11 +38678,11 @@
         <v>90</v>
       </c>
       <c r="F10" s="57">
-        <v>702.04</v>
+        <v>811.24</v>
       </c>
       <c r="G10" s="56">
         <f t="shared" si="0"/>
-        <v>6672.0999999999995</v>
+        <v>6781.2999999999993</v>
       </c>
       <c r="H10" s="56">
         <f t="shared" si="1"/>
@@ -38674,73 +38690,88 @@
       </c>
       <c r="I10" s="34">
         <f t="shared" si="2"/>
-        <v>13.069837592367072</v>
+        <v>14.87179994917542</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="19"/>
+    <row r="11" spans="2:11" ht="15" customHeight="1">
+      <c r="B11" s="55">
+        <v>43313</v>
+      </c>
+      <c r="C11" s="56">
+        <f t="shared" si="3"/>
+        <v>6781.2999999999993</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="34">
+        <f>((E11+F11)/(C11+D11))*100</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61">
-        <f>SUM(D5:D11)</f>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61">
+        <f>SUM(D5:D12)</f>
         <v>4087.2799999999997</v>
       </c>
-      <c r="E12" s="61">
-        <f>SUM(E5:E11)</f>
+      <c r="E13" s="61">
+        <f>SUM(E5:E12)</f>
         <v>630</v>
       </c>
-      <c r="F12" s="62">
-        <f>SUM(F4:F11)</f>
-        <v>2333.69</v>
-      </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="58">
-        <f>AVERAGE(I5:I11)</f>
-        <v>16.539193424080491</v>
-      </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="33"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="F13" s="62">
+        <f>SUM(F4:F12)</f>
+        <v>2442.8900000000003</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="58">
+        <f>AVERAGE(I5:I12)</f>
+        <v>14.433874700184472</v>
+      </c>
+      <c r="J13" s="63"/>
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="33"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" s="65"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="6:9">
       <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
     </row>
@@ -38750,15 +38781,15 @@
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="6:9" ht="15" customHeight="1">
+    <row r="20" spans="6:9">
       <c r="F20" s="65"/>
-      <c r="G20" s="67"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="6:9" ht="15" customHeight="1">
       <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="65"/>
       <c r="I21" s="65"/>
     </row>
@@ -38774,13 +38805,19 @@
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="6:9" ht="15" customHeight="1"/>
+    <row r="24" spans="6:9" ht="15" customHeight="1">
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+    </row>
     <row r="25" spans="6:9" ht="15" customHeight="1"/>
     <row r="26" spans="6:9" ht="15" customHeight="1"/>
-    <row r="27" spans="6:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="6:9" ht="15" customHeight="1"/>
+    <row r="28" spans="6:9" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="J4:J9 I11:J11 I4:I10">
+  <conditionalFormatting sqref="J4:J9 I12:J12 I4:I11">
     <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -38788,7 +38825,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I11">
+  <conditionalFormatting sqref="I4:I12">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -38800,7 +38837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I10:I11">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -38808,7 +38845,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="J10:J11">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -38816,17 +38853,17 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J10">
+  <conditionalFormatting sqref="I4:J11">
     <cfRule type="notContainsBlanks" dxfId="1" priority="28">
       <formula>LEN(TRIM(I4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:J12">
+  <conditionalFormatting sqref="B13:J13">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B12))=0</formula>
+      <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J10">
+  <conditionalFormatting sqref="J4:J11">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="formula" val="#REF!"/>
@@ -38836,7 +38873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I10:I11">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -38849,7 +38886,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J12">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38861,10 +38898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38873,7 +38910,7 @@
     <col min="9" max="9" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="1:9">
       <c r="B2" s="79" t="s">
         <v>266</v>
       </c>
@@ -38885,207 +38922,148 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="1:9">
       <c r="B3" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>272</v>
-      </c>
       <c r="I3" s="78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>412</v>
+      </c>
       <c r="B4" s="77" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="D4" s="77">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="F4" s="82">
-        <v>0.25069444444444444</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="G4" s="82">
-        <v>0.31458333333333333</v>
+        <v>0.52013888888888882</v>
       </c>
       <c r="H4" s="76">
-        <v>-118.38</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>38.72</v>
+      </c>
+      <c r="I4" s="77"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="77" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="D5" s="77">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="F5" s="82">
-        <v>0.53333333333333333</v>
+        <v>0.81805555555555554</v>
       </c>
       <c r="G5" s="82">
-        <v>0.67291666666666661</v>
+        <v>0.85625000000000007</v>
       </c>
       <c r="H5" s="76">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1">
+        <v>47.38</v>
+      </c>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="B6" s="77" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="D6" s="77">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="F6" s="82">
-        <v>0.53819444444444442</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="G6" s="82">
-        <v>0.67291666666666661</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="H6" s="76">
-        <v>130.86000000000001</v>
-      </c>
-      <c r="I6" s="83" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="77">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="82">
-        <v>0.89930555555555547</v>
-      </c>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="I6" s="83"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="77"/>
       <c r="H7" s="76"/>
-      <c r="I7" s="77" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="77">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="82">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G8" s="82">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="H8" s="76">
-        <v>67.36</v>
-      </c>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="77"/>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="77">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="82">
-        <v>0.81736111111111109</v>
-      </c>
-      <c r="G9" s="82">
-        <v>0.81874999999999998</v>
-      </c>
-      <c r="H9" s="76">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="82">
-        <v>0.82430555555555562</v>
-      </c>
-      <c r="G10" s="82">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="H10" s="76">
-        <v>50.07</v>
-      </c>
+    <row r="9" spans="1:9">
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="77"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="1:9">
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -39095,7 +39073,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9">
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -39105,7 +39083,7 @@
       <c r="H12" s="76"/>
       <c r="I12" s="77"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9">
       <c r="B13" s="77"/>
       <c r="C13" s="77"/>
       <c r="D13" s="77"/>
@@ -39115,7 +39093,7 @@
       <c r="H13" s="76"/>
       <c r="I13" s="77"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="1:9">
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -39125,7 +39103,7 @@
       <c r="H14" s="76"/>
       <c r="I14" s="77"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="1:9">
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
@@ -39135,7 +39113,7 @@
       <c r="H15" s="76"/>
       <c r="I15" s="77"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:9">
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
@@ -39191,22 +39169,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="24" t="s">
@@ -39655,17 +39633,17 @@
       <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
       <c r="N2" s="48" t="s">
         <v>112</v>
       </c>
@@ -39844,17 +39822,17 @@
       <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
       <c r="N7" s="52">
         <v>-100</v>
       </c>
@@ -39951,17 +39929,17 @@
       <c r="D10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
       <c r="N10" s="48">
         <v>-20</v>
       </c>
@@ -40509,17 +40487,17 @@
       <c r="D24" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="138" t="s">
+      <c r="E24" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
       <c r="N24" s="48">
         <v>699.54</v>
       </c>
@@ -41026,32 +41004,32 @@
       <c r="D37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="139" t="s">
+      <c r="E37" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
       <c r="N37" s="52">
         <v>-150</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
       <c r="L38" s="43">
         <v>0</v>
       </c>
@@ -41063,27 +41041,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="13.5">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136" t="s">
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136" t="s">
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136">
+      <c r="L39" s="142"/>
+      <c r="M39" s="142">
         <v>726.18</v>
       </c>
-      <c r="N39" s="137"/>
+      <c r="N39" s="143"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -41092,16 +41070,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E24:M24"/>
     <mergeCell ref="E37:M37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41298,17 +41276,17 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
       <c r="N5" s="15">
         <v>-100</v>
       </c>
@@ -41323,17 +41301,17 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
       <c r="N6" s="16">
         <v>100</v>
       </c>
@@ -41430,17 +41408,17 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="15">
         <v>15.36</v>
       </c>
@@ -41496,17 +41474,17 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
       <c r="N11" s="15">
         <v>-20</v>
       </c>
@@ -41603,17 +41581,17 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
       <c r="N14" s="16">
         <v>-50</v>
       </c>
@@ -41669,17 +41647,17 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
       <c r="N16" s="16">
         <v>-50</v>
       </c>
@@ -41735,17 +41713,17 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="141" t="s">
+      <c r="E18" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
       <c r="N18" s="16">
         <v>702.45</v>
       </c>
@@ -41965,32 +41943,32 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="141" t="s">
+      <c r="E24" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
       <c r="N24" s="16">
         <v>-50</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
       <c r="L25" s="2">
         <v>0</v>
       </c>
@@ -42002,30 +41980,35 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145" t="s">
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145" t="s">
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145">
+      <c r="L26" s="148"/>
+      <c r="M26" s="148">
         <v>745.39</v>
       </c>
-      <c r="N26" s="146"/>
+      <c r="N26" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="E24:M24"/>
@@ -42034,11 +42017,6 @@
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E14:M14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
